--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -1439,6 +1439,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -1439,7 +1439,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03037369661352079</v>
+        <v>0.03051924354670668</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005260293850897879</v>
+        <v>-0.05232767953807294</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02845364704526176</v>
+        <v>0.02862783496835333</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006590853236220662</v>
+        <v>0.001043192613308319</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03146753789719291</v>
+        <v>0.03154818675764067</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003030303030302939</v>
+        <v>-0.001450151057401872</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0653016041663444</v>
+        <v>0.0654867920164343</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003303392954492557</v>
+        <v>0.01418887012995418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0142239628373675</v>
+        <v>0.01423639726696756</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001340782122905226</v>
+        <v>-0.0139849735922043</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01394742992857399</v>
+        <v>0.01415379375682671</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01526891522333651</v>
+        <v>0.002020202020201811</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03000032421099652</v>
+        <v>0.03054042393392228</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01847770808611626</v>
+        <v>0.01643641810918783</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03175572544965205</v>
+        <v>0.03171551181664393</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0008007473642066554</v>
+        <v>0.01629491117937776</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0330727001838679</v>
+        <v>0.03329747493777732</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007265737626141133</v>
+        <v>0.0007823979543157833</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02927816010895185</v>
+        <v>0.02883879162502074</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01454750738231725</v>
+        <v>0.02824659586656675</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>84</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01654874639474193</v>
+        <v>0.01608692769799479</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0274533906986274</v>
+        <v>0.01643143037708028</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01672293034189003</v>
+        <v>0.01697311509909562</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01543374135178288</v>
+        <v>-0.005590496156533953</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01579098265386408</v>
+        <v>0.01538712770439127</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02512077294685999</v>
+        <v>0.02031714568880072</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008537132436377831</v>
+        <v>0.008355239148811073</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02084988085782358</v>
+        <v>0.00466436828229555</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007258935880176702</v>
+        <v>0.007150498723987574</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01447921531994389</v>
+        <v>0.02227488151658763</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03156501309875997</v>
+        <v>0.03179938615001772</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007894736842105177</v>
+        <v>-0.006340917568071425</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03146054511099353</v>
+        <v>0.03172546659863527</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008890864636585727</v>
+        <v>-0.01997503121098632</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03178221327616483</v>
+        <v>0.03183729904313365</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002200220022002153</v>
+        <v>0.0004989522003793212</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02900417003150356</v>
+        <v>0.02957629270786803</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02020091324200912</v>
+        <v>0.01693640790604412</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04378946288833008</v>
+        <v>0.04432038385639359</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01259623806551224</v>
+        <v>-0.0006881654655630509</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02933155956720163</v>
+        <v>0.0289502004617748</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01254154023984977</v>
+        <v>0.009481724269117198</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02951167678748859</v>
+        <v>0.02987281812888647</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01270912615782271</v>
+        <v>-0.007267441860465129</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03079241617503495</v>
+        <v>0.03015091661302734</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02037656385482478</v>
+        <v>0.01093759878611622</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01602831357941866</v>
+        <v>0.01516854610832625</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.05319936541512427</v>
+        <v>0.02155942806076871</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01481199258595141</v>
+        <v>0.01456892934625252</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01595135908440648</v>
+        <v>0.017663734825907</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0299710816505264</v>
+        <v>0.02987790142181822</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.002644268159900487</v>
+        <v>0.006160324391765393</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0320176370782105</v>
+        <v>0.03160791544958867</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01233652777042415</v>
+        <v>0.002519566848933286</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02985411140864593</v>
+        <v>0.03020873907012594</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01235041097057188</v>
+        <v>-0.002818560430776995</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03071316459810869</v>
+        <v>0.03063743010736974</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.002000827928798188</v>
+        <v>0.001175250604908307</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03354312398273502</v>
+        <v>0.033781658589526</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007580782715815415</v>
+        <v>0.003761873412959638</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0310083449367672</v>
+        <v>0.03122222059839254</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007366759377583909</v>
+        <v>-0.002910230579807327</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03028003565897157</v>
+        <v>0.03033455057018661</v>
       </c>
       <c r="E33" s="1">
-        <v>0.002267383271749912</v>
+        <v>-0.004943443653120827</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02999523854830606</v>
+        <v>0.0300422612266113</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002034587995930925</v>
+        <v>-0.006824591088550491</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03107382284390682</v>
+        <v>0.03105934342070456</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.0002318571759796217</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02963097795810219</v>
+        <v>0.02926261117320495</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01197142305464372</v>
+        <v>0.01029248908865865</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03110158208609222</v>
+        <v>0.03107777035758213</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0002997826575732443</v>
+        <v>-0.008321463378064387</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0004661857466248254</v>
+        <v>0.0022535931997405</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03051924354670668</v>
+        <v>0.02885720993856917</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.05232767953807294</v>
+        <v>-0.01209063214013706</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02862783496835333</v>
+        <v>0.0285932617341249</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001043192613308319</v>
+        <v>-0.02623001707279216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03154818675764067</v>
+        <v>0.03143160307430976</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001450151057401872</v>
+        <v>-0.05458066077695745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0654867920164343</v>
+        <v>0.06626663755980836</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01418887012995418</v>
+        <v>-0.03435882553663749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01423639726696756</v>
+        <v>0.01400573839034706</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0139849735922043</v>
+        <v>-0.001131648434553045</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01415379375682671</v>
+        <v>0.01415049781392137</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002020202020201811</v>
+        <v>-0.03113799283154106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03054042393392228</v>
+        <v>0.03097259947138508</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01643641810918783</v>
+        <v>0.0006140745895932831</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03171551181664393</v>
+        <v>0.03215983807232012</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01629491117937776</v>
+        <v>-0.04021553423577362</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03329747493777732</v>
+        <v>0.03324859799969949</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0007823979543157833</v>
+        <v>-0.03746853786896498</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02883879162502074</v>
+        <v>0.02958671290233345</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02824659586656675</v>
+        <v>0.01324247878632034</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>84</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01608692769799479</v>
+        <v>0.01631449270063814</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01643143037708028</v>
+        <v>-0.04290155440414511</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01697311509909562</v>
+        <v>0.01684027583327011</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005590496156533953</v>
+        <v>-0.02933942375263532</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01538712770439127</v>
+        <v>0.01566444892412049</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02031714568880072</v>
+        <v>-0.01343694350008096</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008355239148811073</v>
+        <v>0.008375336459995997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00466436828229555</v>
+        <v>-0.03431570448122723</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007150498723987574</v>
+        <v>0.007293339016637612</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02227488151658763</v>
+        <v>-0.04357904496986564</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03179938615001772</v>
+        <v>0.03152670050585494</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.006340917568071425</v>
+        <v>-0.01707957957957973</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03172546659863527</v>
+        <v>0.0310218388081629</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01997503121098632</v>
+        <v>-0.0146122143124765</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03183729904313365</v>
+        <v>0.03178156162239599</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0004989522003793212</v>
+        <v>-0.02084580091761434</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02957629270786803</v>
+        <v>0.03000957948127098</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01693640790604412</v>
+        <v>-0.01897820499278202</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04432038385639359</v>
+        <v>0.04419029714566115</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0006881654655630509</v>
+        <v>-0.02623524685808287</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0289502004617748</v>
+        <v>0.02915898578800584</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009481724269117198</v>
+        <v>0.008841861139295526</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02987281812888647</v>
+        <v>0.02958903750621567</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007267441860465129</v>
+        <v>0.01117737385280182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03015091661302734</v>
+        <v>0.03041215860814554</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01093759878611622</v>
+        <v>0.01369606003752333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01516854610832625</v>
+        <v>0.01546072909298817</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02155942806076871</v>
+        <v>-0.03324220885729912</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01456892934625252</v>
+        <v>0.01479293379591541</v>
       </c>
       <c r="E26" s="1">
-        <v>0.017663734825907</v>
+        <v>-0.03107142857142853</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02987790142181822</v>
+        <v>0.02999436389222375</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006160324391765393</v>
+        <v>0.007982639696194838</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03160791544958867</v>
+        <v>0.03161630341913305</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002519566848933286</v>
+        <v>0.005240361477995892</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03020873907012594</v>
+        <v>0.03005586023128963</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.002818560430776995</v>
+        <v>-0.02666216672291599</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03063743010736974</v>
+        <v>0.03060446674749243</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001175250604908307</v>
+        <v>-0.01139345394282554</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.033781658589526</v>
+        <v>0.03383249622938683</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003761873412959638</v>
+        <v>-0.04637871263937043</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03122222059839254</v>
+        <v>0.03106135707416057</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002910230579807327</v>
+        <v>-0.008157461457865778</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03033455057018661</v>
+        <v>0.03011672258747854</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.004943443653120827</v>
+        <v>-0.03587066352307178</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0300422612266113</v>
+        <v>0.02977014528140281</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006824591088550491</v>
+        <v>0.02802544153557851</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03105934342070456</v>
+        <v>0.03099669082070985</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002318571759796217</v>
+        <v>-0.0001159017153454789</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02926261117320495</v>
+        <v>0.02949732131668099</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01029248908865865</v>
+        <v>0.01650654458701406</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03107777035758213</v>
+        <v>0.03074986015394372</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.008321463378064387</v>
+        <v>-0.0171605684910795</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0022535931997405</v>
+        <v>-0.01589521869133714</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02885720993856917</v>
+        <v>0.0289687730108382</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01209063214013706</v>
+        <v>-0.003372843789149038</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0285932617341249</v>
+        <v>0.02829298314519519</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02623001707279216</v>
+        <v>0.005282572066123148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03143160307430976</v>
+        <v>0.03019601771441297</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.05458066077695745</v>
+        <v>0.01203277009728621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06626663755980836</v>
+        <v>0.06502335415533461</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.03435882553663749</v>
+        <v>0.0155119402640036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01400573839034706</v>
+        <v>0.01421585290930007</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001131648434553045</v>
+        <v>-0.0157099697885198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01415049781392137</v>
+        <v>0.01393132111013357</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.03113799283154106</v>
+        <v>0.009788053949903786</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03097259947138508</v>
+        <v>0.03149219427272922</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0006140745895932831</v>
+        <v>0.006218803698551545</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03215983807232012</v>
+        <v>0.03136506761227142</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.04021553423577362</v>
+        <v>-0.007668081610296973</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03324859799969949</v>
+        <v>0.03251972986443618</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.03746853786896498</v>
+        <v>0.01463975118366045</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02958671290233345</v>
+        <v>0.03046272601219772</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01324247878632034</v>
+        <v>0.01421139449308462</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>84</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01631449270063814</v>
+        <v>0.01586678156740731</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.04290155440414511</v>
+        <v>-0.0003248159376353366</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01684027583327011</v>
+        <v>0.01661021484190877</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02933942375263532</v>
+        <v>0.003076923076922977</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01566444892412049</v>
+        <v>0.01570357842222501</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.01343694350008096</v>
+        <v>0.001805054151624352</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008375336459995997</v>
+        <v>0.008218566805811666</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.03431570448122723</v>
+        <v>-0.00940635451505023</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007293339016637612</v>
+        <v>0.007088170284443757</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.04357904496986564</v>
+        <v>-0.007028599127484214</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03152670050585494</v>
+        <v>0.03148875841704116</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01707957957957973</v>
+        <v>0.01298453312965431</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0310218388081629</v>
+        <v>0.03106228282976216</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0146122143124765</v>
+        <v>0.0157414448669202</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03178156162239599</v>
+        <v>0.03162168308397253</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.02084580091761434</v>
+        <v>0.01252928593256608</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03000957948127098</v>
+        <v>0.02991556599387602</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01897820499278202</v>
+        <v>0.041238963462781</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04419029714566115</v>
+        <v>0.04372598793198639</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02623524685808287</v>
+        <v>0.003427920362239822</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02915898578800584</v>
+        <v>0.02989194448602069</v>
       </c>
       <c r="E22" s="1">
-        <v>0.008841861139295526</v>
+        <v>-0.01091954022988506</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02958903750621567</v>
+        <v>0.03040302801961789</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01117737385280182</v>
+        <v>0.02097753920045187</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03041215860814554</v>
+        <v>0.03132662897676138</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01369606003752333</v>
+        <v>0.001357270652106779</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01546072909298817</v>
+        <v>0.01518820006901775</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03324220885729912</v>
+        <v>0.02612826603325424</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01479293379591541</v>
+        <v>0.01456480700261748</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03107142857142853</v>
+        <v>-0.001253225211942488</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02999436389222375</v>
+        <v>0.03072213311664538</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007982639696194838</v>
+        <v>-0.008918960479778582</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03161630341913305</v>
+        <v>0.03229532553981052</v>
       </c>
       <c r="E28" s="1">
-        <v>0.005240361477995892</v>
+        <v>0.009468588754721008</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03005586023128963</v>
+        <v>0.02972702341299437</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02666216672291599</v>
+        <v>-0.001603675450762898</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03060446674749243</v>
+        <v>0.03074446617861768</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01139345394282554</v>
+        <v>-0.0396731158762309</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03383249622938683</v>
+        <v>0.0327845054933964</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.04637871263937043</v>
+        <v>0.00968756140695648</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03106135707416057</v>
+        <v>0.03130558436067209</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.008157461457865778</v>
+        <v>0.01486455896778094</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03011672258747854</v>
+        <v>0.02950541072111525</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03587066352307178</v>
+        <v>-0.007598253275109212</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.02977014528140281</v>
+        <v>0.03109878879644768</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02802544153557851</v>
+        <v>0.009750034525617846</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03099669082070985</v>
+        <v>0.03149369745959273</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0001159017153454789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02949732131668099</v>
+        <v>0.03046852401867131</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01650654458701406</v>
+        <v>-0.01592134475103102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03074986015394372</v>
+        <v>0.03071032236271771</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0171605684910795</v>
+        <v>0.01330666871779118</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01589521869133714</v>
+        <v>0.005108258444206148</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0289687730108382</v>
+        <v>0.02872433454023994</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003372843789149038</v>
+        <v>0.02397988783600846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02829298314519519</v>
+        <v>0.02829788993242477</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005282572066123148</v>
+        <v>0.02471121177802948</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03019601771441297</v>
+        <v>0.03040404771992075</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01203277009728621</v>
+        <v>0.01568429041234509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06502335415533461</v>
+        <v>0.06569639835908558</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0155119402640036</v>
+        <v>0.01167820069204151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01421585290930007</v>
+        <v>0.01392140813889617</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0157099697885198</v>
+        <v>0.02079496623695531</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01393132111013357</v>
+        <v>0.01399618549998601</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009788053949903786</v>
+        <v>0.02343153716989765</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03149219427272922</v>
+        <v>0.03152699003388696</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006218803698551545</v>
+        <v>0.01524762137106617</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03136506761227142</v>
+        <v>0.03096637347531632</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.007668081610296973</v>
+        <v>0.01490271836622048</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03251972986443618</v>
+        <v>0.0328281161168501</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01463975118366045</v>
+        <v>0.02134015385216137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03046272601219772</v>
+        <v>0.03073862299839699</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01421139449308462</v>
+        <v>-0.01113474290003758</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>84</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01586678156740731</v>
+        <v>0.01578101428439881</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.0003248159376353366</v>
+        <v>-0.01278024477417949</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01661021484190877</v>
+        <v>0.01657664540639466</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003076923076922977</v>
+        <v>0.005232767953807338</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01570357842222501</v>
+        <v>0.01565196992411807</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001805054151624352</v>
+        <v>-0.02604422604422596</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008218566805811666</v>
+        <v>0.008099883753250946</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00940635451505023</v>
+        <v>-0.001055074910318532</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007088170284443757</v>
+        <v>0.007002579391658392</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.007028599127484214</v>
+        <v>-0.01049548450085425</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03148875841704116</v>
+        <v>0.03173551204652604</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01298453312965431</v>
+        <v>0.01399622997172467</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03106228282976216</v>
+        <v>0.03139089523670346</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0157414448669202</v>
+        <v>0.03121958523620583</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03162168308397253</v>
+        <v>0.03185515582426978</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01252928593256608</v>
+        <v>0.007947686116700048</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02991556599387602</v>
+        <v>0.03099094317967441</v>
       </c>
       <c r="E20" s="1">
-        <v>0.041238963462781</v>
+        <v>0.01182310158215838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04372598793198639</v>
+        <v>0.04365288690821464</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003427920362239822</v>
+        <v>-0.002256264682850451</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02989194448602069</v>
+        <v>0.02941527735671002</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01091954022988506</v>
+        <v>-0.01414875072632193</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03040302801961789</v>
+        <v>0.03088305013010192</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02097753920045187</v>
+        <v>-0.0005534417156692895</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03132662897676138</v>
+        <v>0.03120972037326295</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001357270652106779</v>
+        <v>-0.02402809438728348</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01518820006901775</v>
+        <v>0.01550583359558822</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02612826603325424</v>
+        <v>-0.02006172839506171</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01456480700261748</v>
+        <v>0.01447262411492981</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001253225211942488</v>
+        <v>-0.01926483613817531</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03072213311664538</v>
+        <v>0.0302933772255078</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.008918960479778582</v>
+        <v>0.01280062063615217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03229532553981052</v>
+        <v>0.0324354281463269</v>
       </c>
       <c r="E28" s="1">
-        <v>0.009468588754721008</v>
+        <v>0.01375349106813495</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02972702341299437</v>
+        <v>0.02952851164636034</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001603675450762898</v>
+        <v>0.02448448013891924</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03074446617861768</v>
+        <v>0.0293746839321184</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0396731158762309</v>
+        <v>0.005673139864717403</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0327845054933964</v>
+        <v>0.03293387267039144</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00968756140695648</v>
+        <v>0.02650682132222704</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03130558436067209</v>
+        <v>0.0316094587806889</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01486455896778094</v>
+        <v>0.02453531598513026</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02950541072111525</v>
+        <v>0.02913240528218733</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.007598253275109212</v>
+        <v>0.03124174953797421</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03109878879644768</v>
+        <v>0.03124240876253936</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009750034525617846</v>
+        <v>0.003501285628316753</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03149369745959273</v>
+        <v>0.03133363714306896</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>-0.000115915150110002</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03046852401867131</v>
+        <v>0.0298310394843695</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01592134475103102</v>
+        <v>-0.02687894804692514</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03071032236271771</v>
+        <v>0.03096081858563536</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01330666871779118</v>
+        <v>0.004782146652497321</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005108258444206148</v>
+        <v>0.007851836564035874</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02872433454023994</v>
+        <v>0.02918399291800076</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02397988783600846</v>
+        <v>-0.01000944287063266</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02829788993242477</v>
+        <v>0.02877125786888804</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02471121177802948</v>
+        <v>0.0172188943657301</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03040404771992075</v>
+        <v>0.03064033076463884</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01568429041234509</v>
+        <v>-0.02391033623910332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06569639835908558</v>
+        <v>0.06594581829652141</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01167820069204151</v>
+        <v>0.00856030628087967</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01392140813889617</v>
+        <v>0.01410019095620557</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02079496623695531</v>
+        <v>0.01691347816282041</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01399618549998601</v>
+        <v>0.01421254307537852</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02343153716989765</v>
+        <v>-0.011708553956298</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03152699003388696</v>
+        <v>0.03175834034297498</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01524762137106617</v>
+        <v>-0.01862309263486717</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03096637347531632</v>
+        <v>0.03118301269875726</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01490271836622048</v>
+        <v>-0.004894629503738979</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0328281161168501</v>
+        <v>0.0332674624871113</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02134015385216137</v>
+        <v>0.02290149299382538</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03073862299839699</v>
+        <v>0.03015954848863081</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01113474290003758</v>
+        <v>0.00231950067476383</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>84</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01578101428439881</v>
+        <v>0.01545795571715418</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01278024477417949</v>
+        <v>-0.04267690619857378</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01657664540639466</v>
+        <v>0.01653356826938731</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005232767953807338</v>
+        <v>-0.03177167474421116</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01565196992411807</v>
+        <v>0.01512556303250665</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02604422604422596</v>
+        <v>-0.03094517322569801</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008099883753250946</v>
+        <v>0.008028300862864275</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.001055074910318532</v>
+        <v>-0.02851711026615977</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007002579391658392</v>
+        <v>0.006875101752862647</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01049548450085425</v>
+        <v>-0.04292057227429702</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03173551204652604</v>
+        <v>0.03192898837303956</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01399622997172467</v>
+        <v>-0.0007900729655619942</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03139089523670346</v>
+        <v>0.03211871506485049</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03121958523620583</v>
+        <v>0.004501234209379978</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03185515582426978</v>
+        <v>0.03185818533944754</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007947686116700048</v>
+        <v>-0.004990518015769996</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03099094317967441</v>
+        <v>0.03111305760568731</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01182310158215838</v>
+        <v>-0.009913470055188389</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04365288690821464</v>
+        <v>0.04321507672165843</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.002256264682850451</v>
+        <v>0.007048989742910683</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02941527735671002</v>
+        <v>0.02877316573506268</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01414875072632193</v>
+        <v>-0.02227919724162319</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03088305013010192</v>
+        <v>0.03062549180550279</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0005534417156692895</v>
+        <v>0.003599363189589644</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03120972037326295</v>
+        <v>0.03022250807239377</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02402809438728348</v>
+        <v>-0.0155293226437726</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01550583359558822</v>
+        <v>0.01507638248222717</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02006172839506171</v>
+        <v>-0.05624296962879638</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01447262411492981</v>
+        <v>0.01408323214576437</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01926483613817531</v>
+        <v>-0.05810190411680594</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0302933772255078</v>
+        <v>0.03044212466760732</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01280062063615217</v>
+        <v>-0.0006893910379165424</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0324354281463269</v>
+        <v>0.03262535952678135</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01375349106813495</v>
+        <v>-0.02053227986277151</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02952851164636034</v>
+        <v>0.03001582257014164</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02448448013891924</v>
+        <v>0.006737573626001137</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0293746839321184</v>
+        <v>0.02931118399630976</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005673139864717403</v>
+        <v>-0.008317060823027411</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03293387267039144</v>
+        <v>0.03354346712704184</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02650682132222704</v>
+        <v>-0.008759124087591164</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0316094587806889</v>
+        <v>0.03213270608346448</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02453531598513026</v>
+        <v>0.01204644412191591</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02913240528218733</v>
+        <v>0.02980850111249796</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03124174953797421</v>
+        <v>-0.01954258405871312</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03124240876253936</v>
+        <v>0.03110754599229392</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003501285628316753</v>
+        <v>0.004470370168456528</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03133363714306896</v>
+        <v>0.03108592350898139</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.000115915150110002</v>
+        <v>0.0001159285879896998</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0298310394843695</v>
+        <v>0.0288030556384653</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02687894804692514</v>
+        <v>-0.01000198714976475</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03096081858563536</v>
+        <v>0.03086651889889836</v>
       </c>
       <c r="E37" s="1">
-        <v>0.004782146652497321</v>
+        <v>0.01186069351061403</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.007851836564035874</v>
+        <v>-0.005692860679980649</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02918399291800076</v>
+        <v>0.02905729654914223</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01000944287063266</v>
+        <v>-0.01697825257535301</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02877125786888804</v>
+        <v>0.02943423210147754</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0172188943657301</v>
+        <v>-0.01888309430682311</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03064033076463884</v>
+        <v>0.03007894539913702</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02391033623910332</v>
+        <v>-0.02424087777494244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06594581829652141</v>
+        <v>0.06689113662058943</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00856030628087967</v>
+        <v>-0.0160733067729083</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01410019095620557</v>
+        <v>0.0144207696606109</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01691347816282041</v>
+        <v>0.002956830277942135</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01421254307537852</v>
+        <v>0.01412655525890121</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.011708553956298</v>
+        <v>-0.04029580440688185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03175834034297498</v>
+        <v>0.03134534651953957</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01862309263486717</v>
+        <v>0.001754815540319976</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03118301269875726</v>
+        <v>0.03120804646540839</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004894629503738979</v>
+        <v>-0.01420959147424505</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0332674624871113</v>
+        <v>0.03422417048061629</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02290149299382538</v>
+        <v>-0.02668709936646185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03015954848863081</v>
+        <v>0.03040258124101767</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00231950067476383</v>
+        <v>-0.03399671813859551</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>84</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01545795571715418</v>
+        <v>0.01488298474967365</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.04267690619857378</v>
+        <v>-0.01432500573000228</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01653356826938731</v>
+        <v>0.01609992373877428</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.03177167474421116</v>
+        <v>-0.02651093807934735</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01512556303250665</v>
+        <v>0.01474142071870609</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03094517322569801</v>
+        <v>0.00138840680319352</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008028300862864275</v>
+        <v>0.007844011788190363</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02851711026615977</v>
+        <v>0.01032833224614049</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.006875101752862647</v>
+        <v>0.006617692050049708</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.04292057227429702</v>
+        <v>0.01778350515463933</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03192898837303956</v>
+        <v>0.03208642569370106</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0007900729655619942</v>
+        <v>-0.02544186046511621</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03211871506485049</v>
+        <v>0.03244801092942543</v>
       </c>
       <c r="E18" s="1">
-        <v>0.004501234209379978</v>
+        <v>-0.02406764960971386</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03185818533944754</v>
+        <v>0.03188068881134611</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004990518015769996</v>
+        <v>-0.01304042531848726</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03111305760568731</v>
+        <v>0.03098098969887157</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.009913470055188389</v>
+        <v>-0.02921240064687081</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04321507672165843</v>
+        <v>0.04376886942999372</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007048989742910683</v>
+        <v>-0.003848102252357655</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02877316573506268</v>
+        <v>0.02829319190006432</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02227919724162319</v>
+        <v>-0.00940410525363955</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03062549180550279</v>
+        <v>0.03091170007528052</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003599363189589644</v>
+        <v>0.009552382922960234</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03022250807239377</v>
+        <v>0.02992352344345125</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0155293226437726</v>
+        <v>0.02295607566527735</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01507638248222717</v>
+        <v>0.01430990626286522</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.05624296962879638</v>
+        <v>-0.02765196662693692</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01408323214576437</v>
+        <v>0.01334091752679963</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.05810190411680594</v>
+        <v>0.0002397123451858274</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03044212466760732</v>
+        <v>0.0305953129940217</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0006893910379165424</v>
+        <v>0.001226429556952402</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03262535952678135</v>
+        <v>0.03213844621110481</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02053227986277151</v>
+        <v>-0.003343416653399101</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03001582257014164</v>
+        <v>0.03039106850355947</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006737573626001137</v>
+        <v>-0.008923310042932897</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02931118399630976</v>
+        <v>0.02923382519016804</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.008317060823027411</v>
+        <v>-0.02887981330221712</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03354346712704184</v>
+        <v>0.03344002514040744</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.008759124087591164</v>
+        <v>-0.03272574259319483</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03213270608346448</v>
+        <v>0.03270598152802596</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01204644412191591</v>
+        <v>-0.00466083464792777</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02980850111249796</v>
+        <v>0.02939329792384836</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01954258405871312</v>
+        <v>-0.05161458786665507</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03110754599229392</v>
+        <v>0.03142550928406337</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004470370168456528</v>
+        <v>0.005698778833107321</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03108592350898139</v>
+        <v>0.03126752894227577</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0001159285879896998</v>
+        <v>0.000231830300220448</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0288030556384653</v>
+        <v>0.02867822900838874</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01000198714976475</v>
+        <v>0.007761273919443257</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03086651889889836</v>
+        <v>0.03141143816050334</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01186069351061403</v>
+        <v>-0.006196804539345901</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005692860679980649</v>
+        <v>-0.01263416336617074</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>Symbol</t>
   </si>
@@ -61,15 +61,12 @@
     <t>BABA</t>
   </si>
   <si>
-    <t>MTZ</t>
+    <t>ZG</t>
   </si>
   <si>
     <t>CIEN</t>
   </si>
   <si>
-    <t>LUV</t>
-  </si>
-  <si>
     <t>DFS</t>
   </si>
   <si>
@@ -136,7 +133,7 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>WMT</t>
+    <t>TGT</t>
   </si>
   <si>
     <t>Total</t>
@@ -172,15 +169,12 @@
     <t>Alibaba Group Holding Ltd</t>
   </si>
   <si>
-    <t>MasTec Inc</t>
+    <t>Zillow Group Inc</t>
   </si>
   <si>
     <t>Ciena Corp</t>
   </si>
   <si>
-    <t>Southwest Airlines Co</t>
-  </si>
-  <si>
     <t>Discover Financial Services</t>
   </si>
   <si>
@@ -247,7 +241,7 @@
     <t>JPMorgan Chase &amp; Co</t>
   </si>
   <si>
-    <t>Walmart Inc</t>
+    <t>Target Corp</t>
   </si>
   <si>
     <t>Health Care</t>
@@ -272,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -691,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,16 +717,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02905729654914223</v>
+        <v>0.03200563070533131</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01697825257535301</v>
+        <v>0.007956530176596255</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,16 +734,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02943423210147754</v>
+        <v>0.03365230891464577</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01888309430682311</v>
+        <v>-0.001151690992447496</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,16 +751,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03007894539913702</v>
+        <v>0.03230152595990185</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02424087777494244</v>
+        <v>-0.003399581589958234</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,16 +768,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06689113662058943</v>
+        <v>0.03834800014807185</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0160733067729083</v>
+        <v>-0.01321965488310917</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,16 +785,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0144207696606109</v>
+        <v>0.01685435270366525</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002956830277942135</v>
+        <v>-7.370283018892643E-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,16 +802,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01412655525890121</v>
+        <v>0.01579847123269566</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.04029580440688185</v>
+        <v>0.0007862871520678549</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,16 +819,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03134534651953957</v>
+        <v>0.03354187613491731</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001754815540319976</v>
+        <v>0.003177577708070256</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,16 +836,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03120804646540839</v>
+        <v>0.03226525332584031</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01420959147424505</v>
+        <v>0.01164241164241164</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,16 +853,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03422417048061629</v>
+        <v>0.03234786052327498</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02668709936646185</v>
+        <v>-0.03446554405637359</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,16 +870,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03040258124101767</v>
+        <v>0.03137197760140003</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.03399671813859551</v>
+        <v>-0.0299229060499151</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,16 +887,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01488298474967365</v>
+        <v>0.0165487681838317</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01432500573000228</v>
+        <v>-0.01403693139168294</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,16 +904,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01609992373877428</v>
+        <v>0.01630715765900395</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02651093807934735</v>
+        <v>0.02475718910683677</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,16 +921,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01474142071870609</v>
+        <v>0.008080723008005074</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00138840680319352</v>
+        <v>0.03249757882276971</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007844011788190363</v>
+        <v>0.00784880174844034</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01032833224614049</v>
+        <v>0.03140035452013157</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,16 +955,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.006617692050049708</v>
+        <v>0.03123371923937777</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01778350515463933</v>
+        <v>-0.01951987782179176</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,16 +972,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03208642569370106</v>
+        <v>0.03186985677029958</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02544186046511621</v>
+        <v>0.0004443457009553065</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,16 +989,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03244801092942543</v>
+        <v>0.03177756030760188</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02406764960971386</v>
+        <v>0.01168817969305835</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03188068881134611</v>
+        <v>0.0315430303996971</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01304042531848726</v>
+        <v>-0.01205075494435381</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03098098969887157</v>
+        <v>0.02540401130613035</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.02921240064687081</v>
+        <v>-0.0003422882458216092</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,16 +1040,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04376886942999372</v>
+        <v>0.03266027721733246</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.003848102252357655</v>
+        <v>0.005781226228510628</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02829319190006432</v>
+        <v>0.0327292200663193</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.00940410525363955</v>
+        <v>0.01513236549957298</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,16 +1074,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03091170007528052</v>
+        <v>0.03170725102377026</v>
       </c>
       <c r="E23" s="1">
-        <v>0.009552382922960234</v>
+        <v>0.01184730144800339</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02992352344345125</v>
+        <v>0.01621436431090815</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02295607566527735</v>
+        <v>0.02292228487374359</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,16 +1108,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01430990626286522</v>
+        <v>0.01555002853364399</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02765196662693692</v>
+        <v>0.02332640996964352</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,16 +1125,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01334091752679963</v>
+        <v>0.03245158535012906</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0002397123451858274</v>
+        <v>0.01875669882100728</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,16 +1142,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0305953129940217</v>
+        <v>0.03266027721733247</v>
       </c>
       <c r="E27" s="1">
-        <v>0.001226429556952402</v>
+        <v>0.01943556975505834</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,16 +1159,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03213844621110481</v>
+        <v>0.03217407485528834</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003343416653399101</v>
+        <v>-0.01325065828590832</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,16 +1176,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03039106850355947</v>
+        <v>0.0330826298057203</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008923310042932897</v>
+        <v>-0.03394412736557528</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,16 +1193,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02923382519016804</v>
+        <v>0.03141061044110257</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02887981330221712</v>
+        <v>-0.008522502570592505</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03344002514040744</v>
+        <v>0.03276201450259412</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03272574259319483</v>
+        <v>0.005907355377854584</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,16 +1227,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03270598152802596</v>
+        <v>0.03248437978640387</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00466083464792777</v>
+        <v>0.0136747430249633</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,16 +1244,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02939329792384836</v>
+        <v>0.03222550249399204</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.05161458786665507</v>
+        <v>0.00132218024824593</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,16 +1261,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03142550928406337</v>
+        <v>0.04823577112762924</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005698778833107321</v>
+        <v>0.0001158882836944652</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,13 +1275,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03126752894227577</v>
+        <v>0.03180737343148807</v>
       </c>
       <c r="E35" s="1">
-        <v>0.000231830300220448</v>
+        <v>0.01281370335944776</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,144 +1292,127 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02867822900838874</v>
+        <v>0.03274375396421382</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007761273919443257</v>
+        <v>0.02347567452729971</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
       <c r="D37" s="1">
-        <v>0.03141143816050334</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.006196804539345901</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>-0.01263416336617074</v>
+        <v>0.001189295200360485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03200563070533131</v>
+        <v>0.03222196304586264</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007956530176596255</v>
+        <v>0.02021563342318067</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03365230891464577</v>
+        <v>0.03357362290501407</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001151690992447496</v>
+        <v>0.04013392758154288</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03230152595990185</v>
+        <v>0.03215347431424417</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003399581589958234</v>
+        <v>0.0156127000787194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03834800014807185</v>
+        <v>0.03779610209783963</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01321965488310917</v>
+        <v>0.001894125911773736</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01685435270366525</v>
+        <v>0.01683309097586516</v>
       </c>
       <c r="E6" s="1">
-        <v>-7.370283018892643E-05</v>
+        <v>0.0107614063536523</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01579847123269566</v>
+        <v>0.01579211188478011</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0007862871520678549</v>
+        <v>0.04486172218730378</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03354187613491731</v>
+        <v>0.03360848763976913</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003177577708070256</v>
+        <v>0.02684263959390853</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03226525332584031</v>
+        <v>0.0326021251358608</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01164241164241164</v>
+        <v>0.01808466913275786</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03234786052327498</v>
+        <v>0.03119587280947726</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.03446554405637359</v>
+        <v>0.01032096408543115</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03137197760140003</v>
+        <v>0.03039708575484012</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0299229060499151</v>
+        <v>0.02038433908045967</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0165487681838317</v>
+        <v>0.01629709220667716</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01403693139168294</v>
+        <v>0.005557670346402865</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01630715765900395</v>
+        <v>0.01669102648727251</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02475718910683677</v>
+        <v>0.03345103140680172</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008080723008005074</v>
+        <v>0.008333416049192776</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03249757882276971</v>
+        <v>0.01052631578947349</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.00784880174844034</v>
+        <v>0.008085640692232485</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03140035452013157</v>
+        <v>0.01448563712251416</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03123371923937777</v>
+        <v>0.03058766309499585</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01951987782179176</v>
+        <v>0.01776674454828675</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03186985677029958</v>
+        <v>0.03184614353848521</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0004443457009553065</v>
+        <v>0.01147383225997478</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03177756030760188</v>
+        <v>0.03211079293077179</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01168817969305835</v>
+        <v>0.03174603174603186</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0315430303996971</v>
+        <v>0.03112589519238882</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01205075494435381</v>
+        <v>0.01535481093492153</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02540401130613035</v>
+        <v>0.02536514916150933</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003422882458216092</v>
+        <v>-0.004309417128098736</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03266027721733246</v>
+        <v>0.03281007280649948</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005781226228510628</v>
+        <v>-0.009559824534866257</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0327292200663193</v>
+        <v>0.03318502379735276</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01513236549957298</v>
+        <v>0.02230971128608927</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03170725102377026</v>
+        <v>0.0320447856749366</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01184730144800339</v>
+        <v>0.03394870524098637</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01621436431090815</v>
+        <v>0.0165663323291628</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02292228487374359</v>
+        <v>0.01330137807070098</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01555002853364399</v>
+        <v>0.01589385239189451</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02332640996964352</v>
+        <v>-0.005230288836846064</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03245158535012906</v>
+        <v>0.0330209982480781</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01875669882100728</v>
+        <v>0.02487412639963948</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03266027721733247</v>
+        <v>0.03325549770959785</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01943556975505834</v>
+        <v>0.0137895011752418</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03217407485528834</v>
+        <v>0.03171003459177242</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01325065828590832</v>
+        <v>0.01781871395368828</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0330826298057203</v>
+        <v>0.03192170447608601</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.03394412736557528</v>
+        <v>0.0338152985074629</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03141061044110257</v>
+        <v>0.03110591931233343</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.008522502570592505</v>
+        <v>0.0242516104585071</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03276201450259412</v>
+        <v>0.03291640404381294</v>
       </c>
       <c r="E31" s="1">
-        <v>0.005907355377854584</v>
+        <v>0.02198667908042684</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03248437978640387</v>
+        <v>0.03288948003156437</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0136747430249633</v>
+        <v>0.05531914893617018</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03222550249399204</v>
+        <v>0.03222977969457996</v>
       </c>
       <c r="E33" s="1">
-        <v>0.00132218024824593</v>
+        <v>0.01452477835565524</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04823577112762924</v>
+        <v>0.04818405602179728</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0001158882836944652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03180737343148807</v>
+        <v>0.03217667611281782</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01281370335944776</v>
+        <v>0.01665027859718116</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03274375396421382</v>
+        <v>0.03347262684063466</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02347567452729971</v>
+        <v>0.0428126621691749</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001189295200360485</v>
+        <v>0.01935662777366942</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03222196304586264</v>
+        <v>0.03224911629874842</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02021563342318067</v>
+        <v>0.007076806944706471</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03357362290501407</v>
+        <v>0.03425794594734077</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04013392758154288</v>
+        <v>0.0004903110277345579</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03215347431424417</v>
+        <v>0.03203537994011244</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0156127000787194</v>
+        <v>-0.003487921457176024</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03779610209783963</v>
+        <v>0.03714862065192268</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001894125911773736</v>
+        <v>0.007765323407699087</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01683309097586516</v>
+        <v>0.0166911542481501</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0107614063536523</v>
+        <v>0.01298038357762699</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01579211188478011</v>
+        <v>0.01618724278758465</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04486172218730378</v>
+        <v>-0.01293330325588393</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03360848763976913</v>
+        <v>0.03385530364986479</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02684263959390853</v>
+        <v>0.008304990904057563</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0326021251358608</v>
+        <v>0.03256144403010372</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01808466913275786</v>
+        <v>-0.0004037141703673308</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03119587280947726</v>
+        <v>0.03091934994447845</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01032096408543115</v>
+        <v>0.01161303021356175</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03039708575484012</v>
+        <v>0.03042773197606688</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02038433908045967</v>
+        <v>0.02024113350347645</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01629709220667716</v>
+        <v>0.01607647964045552</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005557670346402865</v>
+        <v>-0.06965475469412497</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01669102648727251</v>
+        <v>0.01692180937321569</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03345103140680172</v>
+        <v>-0.01258766408919254</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008333416049192776</v>
+        <v>0.00826122672741518</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01052631578947349</v>
+        <v>-0.02970297029702962</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008085640692232485</v>
+        <v>0.008047003497802813</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01448563712251416</v>
+        <v>-0.02468538238141349</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03058766309499585</v>
+        <v>0.03053995573612518</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01776674454828675</v>
+        <v>0.008034817542685202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03184614353848521</v>
+        <v>0.03159987385173002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01147383225997478</v>
+        <v>0.0161007025761124</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03211079293077179</v>
+        <v>0.03250107202903115</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03174603174603186</v>
+        <v>0.003894839337877265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03112589519238882</v>
+        <v>0.03100370034113832</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01535481093492153</v>
+        <v>0.02755988976044099</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02536514916150933</v>
+        <v>0.02477625539985557</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.004309417128098736</v>
+        <v>0.01002186141337713</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03281007280649948</v>
+        <v>0.03187933779217888</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.009559824534866257</v>
+        <v>-0.005070405326979999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03318502379735276</v>
+        <v>0.03328116105095482</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02230971128608927</v>
+        <v>-0.00529936473453807</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0320447856749366</v>
+        <v>0.0325035063839131</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03394870524098637</v>
+        <v>0.002636309167165951</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0165663323291628</v>
+        <v>0.01646792390547449</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01330137807070098</v>
+        <v>-0.01998580889309365</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01589385239189451</v>
+        <v>0.01551049213040012</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.005230288836846064</v>
+        <v>-0.03084046142980479</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0330209982480781</v>
+        <v>0.0331997318801533</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02487412639963948</v>
+        <v>-0.003812875788238634</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03325549770959785</v>
+        <v>0.03307387573275604</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0137895011752418</v>
+        <v>0.00984079550723882</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03171003459177242</v>
+        <v>0.03166219333670816</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01781871395368828</v>
+        <v>-0.005243572395128293</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03192170447608601</v>
+        <v>0.0323744855751693</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0338152985074629</v>
+        <v>0.003759681179035912</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03110591931233343</v>
+        <v>0.03125529091818877</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0242516104585071</v>
+        <v>0.008489592460618534</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03291640404381294</v>
+        <v>0.03300133195727366</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02198667908042684</v>
+        <v>0.01478626489138057</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03288948003156437</v>
+        <v>0.0340498086049333</v>
       </c>
       <c r="E32" s="1">
-        <v>0.05531914893617018</v>
+        <v>-0.0186170212765957</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03222977969457996</v>
+        <v>0.03207700740859393</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01452477835565524</v>
+        <v>0.006852953676158124</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04818405602179728</v>
+        <v>0.04726908592043384</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>-0.0002317497103129229</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03217667611281782</v>
+        <v>0.0320912483846534</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01665027859718116</v>
+        <v>-0.0155393642401187</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03347262684063466</v>
+        <v>0.03424285294707262</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0428126621691749</v>
+        <v>-0.01363523264493649</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01935662777366942</v>
+        <v>0.0003361844091986921</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03224911629874842</v>
+        <v>0.03246642236391084</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007076806944706471</v>
+        <v>0.0005621662138104444</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03425794594734077</v>
+        <v>0.03426322423422986</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0004903110277345579</v>
+        <v>-0.008224665473451021</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03203537994011244</v>
+        <v>0.03191291442674817</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003487921457176024</v>
+        <v>-0.0147783251231528</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03714862065192268</v>
+        <v>0.03742451016859421</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007765323407699087</v>
+        <v>-0.006645576822412957</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0166911542481501</v>
+        <v>0.01690212960019059</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01298038357762699</v>
+        <v>-0.004319343459794123</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01618724278758465</v>
+        <v>0.01597251855602203</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01293330325588393</v>
+        <v>-0.008836748685914442</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03385530364986479</v>
+        <v>0.03412499934598699</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008304990904057563</v>
+        <v>-0.0204345779730154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03256144403010372</v>
+        <v>0.0325373599606059</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0004037141703673308</v>
+        <v>-0.0004038772213247332</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03091934994447845</v>
+        <v>0.03126790550722754</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01161303021356175</v>
+        <v>-0.001089600155657289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03042773197606688</v>
+        <v>0.0310331908862588</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02024113350347645</v>
+        <v>-0.01125679289226256</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01607647964045552</v>
+        <v>0.01495164988317198</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.06965475469412497</v>
+        <v>0.02994791666666674</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01692180937321569</v>
+        <v>0.01670318796966499</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01258766408919254</v>
+        <v>-0.003642323802586001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.00826122672741518</v>
+        <v>0.008013149859262485</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02970297029702962</v>
+        <v>0.01254251700680298</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008047003497802813</v>
+        <v>0.007845722529841549</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02468538238141349</v>
+        <v>0.0188585607940448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03053995573612518</v>
+        <v>0.03077499263550937</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008034817542685202</v>
+        <v>-0.003653271338425856</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03159987385173002</v>
+        <v>0.03209786322087595</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0161007025761124</v>
+        <v>-0.003241140881590443</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03250107202903115</v>
+        <v>0.03261669325913966</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003894839337877265</v>
+        <v>-0.01862269641125103</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03100370034113832</v>
+        <v>0.031847452287774</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02755988976044099</v>
+        <v>-0.009696719620383765</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02477625539985557</v>
+        <v>0.02501614955835566</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01002186141337713</v>
+        <v>-0.0001994211921495515</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03187933779217888</v>
+        <v>0.03170703721644277</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.005070405326979999</v>
+        <v>0.01927977158996708</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03328116105095482</v>
+        <v>0.03309366646504814</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.00529936473453807</v>
+        <v>0.008669755129053769</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0325035063839131</v>
+        <v>0.0325782433782552</v>
       </c>
       <c r="E23" s="1">
-        <v>0.002636309167165951</v>
+        <v>0.01195171507111281</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01646792390547449</v>
+        <v>0.01613337533617789</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01998580889309365</v>
+        <v>0.0299263907324725</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01551049213040012</v>
+        <v>0.015027089522882</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03084046142980479</v>
+        <v>0.01578947368421058</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0331997318801533</v>
+        <v>0.03306203048710524</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003812875788238634</v>
+        <v>-0.008390990725747116</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03307387573275604</v>
+        <v>0.03338812441359369</v>
       </c>
       <c r="E27" s="1">
-        <v>0.00984079550723882</v>
+        <v>0.002704081632653121</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03166219333670816</v>
+        <v>0.03148558537084241</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.005243572395128293</v>
+        <v>-0.01441081448733228</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0323744855751693</v>
+        <v>0.03248528227383835</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003759681179035912</v>
+        <v>-0.004045246834968985</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03125529091818877</v>
+        <v>0.03151004241532904</v>
       </c>
       <c r="E30" s="1">
-        <v>0.008489592460618534</v>
+        <v>-0.005908134303863388</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03300133195727366</v>
+        <v>0.0334780435970545</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01478626489138057</v>
+        <v>-0.01567571300324566</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0340498086049333</v>
+        <v>0.0334046724635946</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0186170212765957</v>
+        <v>0.005944575574788002</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03207700740859393</v>
+        <v>0.03228597561279802</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006852953676158124</v>
+        <v>-0.01450957632037142</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04726908592043384</v>
+        <v>0.04724224921582319</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0002317497103129229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0320912483846534</v>
+        <v>0.03158195342673004</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0155393642401187</v>
+        <v>0.01178936337437775</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03424285294707262</v>
+        <v>0.03376459255111431</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01363523264493649</v>
+        <v>0.007265021946420314</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0003361844091986921</v>
+        <v>-0.001922007336869869</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03246642236391084</v>
+        <v>0.03254722990431803</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0005621662138104444</v>
+        <v>0.01339076692574204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03426322423422986</v>
+        <v>0.03404685898963693</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008224665473451021</v>
+        <v>0.02129076612383463</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03191291442674817</v>
+        <v>0.03150184177273444</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0147783251231528</v>
+        <v>0.03289473684210531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03742451016859421</v>
+        <v>0.03724739247283972</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006645576822412957</v>
+        <v>0.01269601248981278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01690212960019059</v>
+        <v>0.01686153148446943</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004319343459794123</v>
+        <v>0.00535030005061099</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01597251855602203</v>
+        <v>0.01586186003502508</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008836748685914442</v>
+        <v>0.0190607947121666</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03412499934598699</v>
+        <v>0.03349204133519532</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0204345779730154</v>
+        <v>-0.003763763763763861</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0325373599606059</v>
+        <v>0.03258685102883869</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0004038772213247332</v>
+        <v>0.003771043771043647</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03126790550722754</v>
+        <v>0.03129398325794144</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001089600155657289</v>
+        <v>0.01610861138705455</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0310331908862588</v>
+        <v>0.03074294484922333</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01125679289226256</v>
+        <v>-0.01099236641221379</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01495164988317198</v>
+        <v>0.01542907544410709</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02994791666666674</v>
+        <v>0.03808470290771182</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01670318796966499</v>
+        <v>0.01667439786557954</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003642323802586001</v>
+        <v>0.0001827819411441833</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008013149859262485</v>
+        <v>0.008129279462420582</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01254251700680298</v>
+        <v>-0.002834348099937212</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007845722529841549</v>
+        <v>0.008009075066182517</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0188585607940448</v>
+        <v>-0.009741841207988489</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03077499263550937</v>
+        <v>0.03072161039755836</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003653271338425856</v>
+        <v>0.008904761904761971</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03209786322087595</v>
+        <v>0.03205544031565235</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003241140881590443</v>
+        <v>0.01423513259628595</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03261669325913966</v>
+        <v>0.03207092303200351</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01862269641125103</v>
+        <v>0.007116030836133547</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.031847452287774</v>
+        <v>0.03159937069463146</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.009696719620383765</v>
+        <v>0.02267361111111099</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02501614955835566</v>
+        <v>0.02505932501452266</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0001994211921495515</v>
+        <v>0.006368156299561223</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03170703721644277</v>
+        <v>0.03238057735902651</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01927977158996708</v>
+        <v>-0.01508990693051415</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03309366646504814</v>
+        <v>0.03344486171922764</v>
       </c>
       <c r="E22" s="1">
-        <v>0.008669755129053769</v>
+        <v>0.001410668591299791</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0325782433782552</v>
+        <v>0.03303109526807957</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01195171507111281</v>
+        <v>-0.007499704736034118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01613337533617789</v>
+        <v>0.01664818696781972</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0299263907324725</v>
+        <v>0.00304628002343299</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.015027089522882</v>
+        <v>0.01529375406497499</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01578947368421058</v>
+        <v>-0.0006377042646472653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03306203048710524</v>
+        <v>0.03284774089491319</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.008390990725747116</v>
+        <v>-0.0108372921615203</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03338812441359369</v>
+        <v>0.03354287828573414</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002704081632653121</v>
+        <v>-0.007581539714038632</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03148558537084241</v>
+        <v>0.03109161074500514</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01441081448733228</v>
+        <v>0.01690748328660785</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03248528227383835</v>
+        <v>0.03241617541551892</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.004045246834968985</v>
+        <v>-0.0004512974802558523</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03151004241532904</v>
+        <v>0.03138419751069618</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005908134303863388</v>
+        <v>0.03701905335327349</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0334780435970545</v>
+        <v>0.03301670975209976</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01567571300324566</v>
+        <v>-0.007646976287357998</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0334046724635946</v>
+        <v>0.03366795912806705</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005944575574788002</v>
+        <v>0.02789606326583827</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03228597561279802</v>
+        <v>0.03187879105586639</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01450957632037142</v>
+        <v>-0.003988649748367212</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04724224921582319</v>
+        <v>0.0473332240196667</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>-0.0003477051460361036</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03158195342673004</v>
+        <v>0.03201581919113169</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01178936337437775</v>
+        <v>-0.01456499223200414</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03376459255111431</v>
+        <v>0.03407538619929181</v>
       </c>
       <c r="E36" s="1">
-        <v>0.007265021946420314</v>
+        <v>-0.007913849236163228</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1309,10 +1309,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001922007336869869</v>
+        <v>0.005770664397493741</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03254722990431803</v>
+        <v>0.03246030701492001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01339076692574204</v>
+        <v>-0.02193144120899371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03404685898963693</v>
+        <v>0.03469818973665633</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02129076612383463</v>
+        <v>0.01713079819588703</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03150184177273444</v>
+        <v>0.03298747292980293</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03289473684210531</v>
+        <v>0.004192872117400492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03724739247283972</v>
+        <v>0.03782050515081539</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01269601248981278</v>
+        <v>0.02079405251502697</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01686153148446943</v>
+        <v>0.0163892843896194</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00535030005061099</v>
+        <v>0.01058548693239914</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01586186003502508</v>
+        <v>0.01648619868627286</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0190607947121666</v>
+        <v>0.01843384861020425</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03349204133519532</v>
+        <v>0.03279376398377582</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003763763763763861</v>
+        <v>0.01143797407392566</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03258685102883869</v>
+        <v>0.03238660429055145</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003771043771043647</v>
+        <v>-0.002526931772842134</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03129398325794144</v>
+        <v>0.03227006784000765</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01610861138705455</v>
+        <v>0.002317303770716705</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03074294484922333</v>
+        <v>0.02952847007023295</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01099236641221379</v>
+        <v>0.004189695132822413</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01542907544410709</v>
+        <v>0.01620263463310161</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03808470290771182</v>
+        <v>0.01321813616895606</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01667439786557954</v>
+        <v>0.0169300900944017</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0001827819411441833</v>
+        <v>0.003356890459363937</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008129279462420582</v>
+        <v>0.008140800918891107</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.002834348099937212</v>
+        <v>0.0174897119341566</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008009075066182517</v>
+        <v>0.007975209083621482</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.009741841207988489</v>
+        <v>0.01344215074411914</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03072161039755836</v>
+        <v>0.0314031036504385</v>
       </c>
       <c r="E16" s="1">
-        <v>0.008904761904761971</v>
+        <v>0.007178127286027847</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03205544031565235</v>
+        <v>0.03189892197800882</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01423513259628595</v>
+        <v>0.01546465222348936</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03207092303200351</v>
+        <v>0.03198865743787314</v>
       </c>
       <c r="E18" s="1">
-        <v>0.007116030836133547</v>
+        <v>0.01001653214042597</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03159937069463146</v>
+        <v>0.03216047093169336</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02267361111111099</v>
+        <v>0.03431996249916303</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02505932501452266</v>
+        <v>0.02557759724332667</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006368156299561223</v>
+        <v>0.0410712197403813</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03238057735902651</v>
+        <v>0.03136098780794218</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01508990693051415</v>
+        <v>-0.01251373458674143</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03344486171922764</v>
+        <v>0.03313930532789337</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001410668591299791</v>
+        <v>0.02485783915515838</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03303109526807957</v>
+        <v>0.03250577298125127</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.007499704736034118</v>
+        <v>0.00747938751472299</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01664818696781972</v>
+        <v>0.0165917275870733</v>
       </c>
       <c r="E24" s="1">
-        <v>0.00304628002343299</v>
+        <v>0.02861428406599753</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01529375406497499</v>
+        <v>0.01532681654482585</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0006377042646472653</v>
+        <v>0.02318501170960174</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03284774089491319</v>
+        <v>0.0318812141805956</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0108372921615203</v>
+        <v>0.02026570592208987</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03354287828573414</v>
+        <v>0.03242417353641464</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.007581539714038632</v>
+        <v>0.005372733378106176</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03109161074500514</v>
+        <v>0.03189617009057298</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01690748328660785</v>
+        <v>0.02772849185062931</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03241617541551892</v>
+        <v>0.03171370798884886</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0004512974802558523</v>
+        <v>0.01954274503885922</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03138419751069618</v>
+        <v>0.03305076634082724</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03701905335327349</v>
+        <v>0.01272467283291379</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03301670975209976</v>
+        <v>0.03211715861639886</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.007646976287357998</v>
+        <v>0.01330690826727055</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03366795912806705</v>
+        <v>0.03583675325141482</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02789606326583827</v>
+        <v>-0.002403846153846145</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03187879105586639</v>
+        <v>0.0307432489022362</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003988649748367212</v>
+        <v>0.008472498433541364</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0473332240196667</v>
+        <v>0.04642733222460187</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0003477051460361036</v>
+        <v>-0.0002319378406588912</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03201581919113169</v>
+        <v>0.03126467174768782</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01456499223200414</v>
+        <v>-0.0005855181835925372</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03407538619929181</v>
+        <v>0.03362184280740377</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007913849236163228</v>
+        <v>0.0230669589477881</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1309,10 +1309,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005770664397493741</v>
+        <v>0.01108819200995437</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03246030701492001</v>
+        <v>0.03140023387760406</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02193144120899371</v>
+        <v>-0.007160354249104994</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03469818973665633</v>
+        <v>0.03490555789464717</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01713079819588703</v>
+        <v>-0.0005695455839876962</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03298747292980293</v>
+        <v>0.03276250820358476</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004192872117400492</v>
+        <v>0.0001228048630723677</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03782050515081539</v>
+        <v>0.03818356007532743</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02079405251502697</v>
+        <v>-0.0009018418026918162</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0163892843896194</v>
+        <v>0.0163811357666355</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01058548693239914</v>
+        <v>-0.002745069710323067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01648619868627286</v>
+        <v>0.01660597256470389</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01843384861020425</v>
+        <v>-0.01617615620323543</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03279376398377582</v>
+        <v>0.03280510886006088</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01143797407392566</v>
+        <v>-0.01158638203317208</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03238660429055145</v>
+        <v>0.03195049235708722</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002526931772842134</v>
+        <v>-0.005066666666666553</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03227006784000765</v>
+        <v>0.03199013463464139</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002317303770716705</v>
+        <v>0.007139290140011356</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02952847007023295</v>
+        <v>0.02932700192909973</v>
       </c>
       <c r="E11" s="1">
-        <v>0.004189695132822413</v>
+        <v>0.02339103417665322</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01620263463310161</v>
+        <v>0.01623676687524422</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01321813616895606</v>
+        <v>0.04780992639020476</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0169300900944017</v>
+        <v>0.01680063389776837</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003356890459363937</v>
+        <v>-0.01567177319950697</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008140800918891107</v>
+        <v>0.008192342910670922</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0174897119341566</v>
+        <v>0.0002022244691608499</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007975209083621482</v>
+        <v>0.007993776517429468</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01344215074411914</v>
+        <v>-0.000710563713879675</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0314031036504385</v>
+        <v>0.0312816620504122</v>
       </c>
       <c r="E16" s="1">
-        <v>0.007178127286027847</v>
+        <v>0.003631576558173366</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03189892197800882</v>
+        <v>0.03203699535676512</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01546465222348936</v>
+        <v>-0.003579198540248574</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03198865743787314</v>
+        <v>0.03195475242273484</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01001653214042597</v>
+        <v>-0.001155401502022091</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03216047093169336</v>
+        <v>0.03289942198009272</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03431996249916303</v>
+        <v>-0.008578550386844075</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02557759724332667</v>
+        <v>0.02633608083900573</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0410712197403813</v>
+        <v>-0.0003594617060952432</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03136098780794218</v>
+        <v>0.0306289253250726</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01251373458674143</v>
+        <v>0.0108796439389256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03313930532789337</v>
+        <v>0.03359061763141771</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02485783915515838</v>
+        <v>-0.005136334812936072</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03250577298125127</v>
+        <v>0.03238975245941873</v>
       </c>
       <c r="E23" s="1">
-        <v>0.00747938751472299</v>
+        <v>-0.01034664172560928</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0165917275870733</v>
+        <v>0.0168793267770923</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02861428406599753</v>
+        <v>0.01805945036455414</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01532681654482585</v>
+        <v>0.01551018901201267</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02318501170960174</v>
+        <v>0.0404364080262456</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0318812141805956</v>
+        <v>0.0321705957488805</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02026570592208987</v>
+        <v>-0.01258000441403673</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03242417353641464</v>
+        <v>0.03224088683206609</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005372733378106176</v>
+        <v>-0.01623760341195224</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03189617009057298</v>
+        <v>0.03242111127599143</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02772849185062931</v>
+        <v>-0.004858072027943972</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03171370798884886</v>
+        <v>0.03197889279473797</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01954274503885922</v>
+        <v>0.01509769094138536</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03305076634082724</v>
+        <v>0.03310426013664871</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01272467283291379</v>
+        <v>-0.009008042895442325</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03211715861639886</v>
+        <v>0.03218763601147094</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01330690826727055</v>
+        <v>0.003562447611064501</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03583675325141482</v>
+        <v>0.03535854487517653</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002403846153846145</v>
+        <v>-0.01654618473895586</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0307432489022362</v>
+        <v>0.03066371586119476</v>
       </c>
       <c r="E33" s="1">
-        <v>0.008472498433541364</v>
+        <v>-0.01569506726457404</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04642733222460187</v>
+        <v>0.04590753243507482</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0002319378406588912</v>
+        <v>0.0002319916483008999</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03126467174768782</v>
+        <v>0.03090369955934355</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0005855181835925372</v>
+        <v>-0.007030334591850096</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03362184280740377</v>
+        <v>0.03402017425088521</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0230669589477881</v>
+        <v>0.0003895787679570883</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1309,10 +1309,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01108819200995437</v>
+        <v>-0.001325590427348367</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03140023387760406</v>
+        <v>0.03111736817043126</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007160354249104994</v>
+        <v>0.008459271932325763</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03490555789464717</v>
+        <v>0.03502394212483031</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0005695455839876962</v>
+        <v>0.01303175857805883</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03276250820358476</v>
+        <v>0.03306408917886941</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0001228048630723677</v>
+        <v>0.01399026763990241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03818356007532743</v>
+        <v>0.03879706720061992</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009018418026918162</v>
+        <v>0.006071251055836724</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0163811357666355</v>
+        <v>0.01620078850778008</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002745069710323067</v>
+        <v>0.004454505622900395</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01660597256470389</v>
+        <v>0.0164953698089658</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01617615620323543</v>
+        <v>0.006526572473642522</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03280510886006088</v>
+        <v>0.03228942317077139</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01158638203317208</v>
+        <v>-0.004997581815250784</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03195049235708722</v>
+        <v>0.03204050788655662</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005066666666666553</v>
+        <v>0.02020470556958642</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03199013463464139</v>
+        <v>0.03235602930433265</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007139290140011356</v>
+        <v>0.01387593923106456</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02932700192909973</v>
+        <v>0.02933532875687282</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02339103417665322</v>
+        <v>0.0125099813681131</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01623676687524422</v>
+        <v>0.01672488295125508</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04780992639020476</v>
+        <v>0.05581099243120868</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01680063389776837</v>
+        <v>0.01656280408273121</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01567177319950697</v>
+        <v>0.01124999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008192342910670922</v>
+        <v>0.008182025216869216</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0002022244691608499</v>
+        <v>0.00728744939271242</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007993776517429468</v>
+        <v>0.008042897662574273</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.000710563713879675</v>
+        <v>-0.005648387855966108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0312816620504122</v>
+        <v>0.03134487011508191</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003631576558173366</v>
+        <v>0.01657683771909935</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03203699535676512</v>
+        <v>0.03207174060282691</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003579198540248574</v>
+        <v>0.0006307821698907645</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03195475242273484</v>
+        <v>0.03152540467958368</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001155401502022091</v>
+        <v>0.01853839398965751</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03289942198009272</v>
+        <v>0.03333631069454344</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.008578550386844075</v>
+        <v>-0.0002235778849531966</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02633608083900573</v>
+        <v>0.02661500649202767</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003594617060952432</v>
+        <v>0.007005440773798943</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0306289253250726</v>
+        <v>0.03090619241837643</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0108796439389256</v>
+        <v>0.01405604042259978</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03359061763141771</v>
+        <v>0.03327029608969942</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005136334812936072</v>
+        <v>0.006272602169808073</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03238975245941873</v>
+        <v>0.03204855267711109</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01034664172560928</v>
+        <v>-0.01004075364715606</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0168793267770923</v>
+        <v>0.01723288781362113</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01805945036455414</v>
+        <v>-0.0137302284710018</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01551018901201267</v>
+        <v>0.01569680604069126</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0404364080262456</v>
+        <v>0.006104914078987056</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0321705957488805</v>
+        <v>0.03192598792689889</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01258000441403673</v>
+        <v>0.001408137552805</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03224088683206609</v>
+        <v>0.03200927517028633</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01623760341195224</v>
+        <v>-0.01961088688812995</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03242111127599143</v>
+        <v>0.03252106581644273</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004858072027943972</v>
+        <v>0.01340536214485799</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03197889279473797</v>
+        <v>0.0323069324208017</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01509769094138536</v>
+        <v>-0.02094624285923519</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03310426013664871</v>
+        <v>0.0334651456491584</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.009008042895442325</v>
+        <v>0.01226711917135082</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03218763601147094</v>
+        <v>0.03223583066898941</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003562447611064501</v>
+        <v>-0.006066522557701792</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03535854487517653</v>
+        <v>0.03404082139677676</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01654618473895586</v>
+        <v>0.02952706647760439</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03066371586119476</v>
+        <v>0.03028011842404919</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01569506726457404</v>
+        <v>-0.002051197899573309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04590753243507482</v>
+        <v>0.0459120929173309</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0002319916483008999</v>
+        <v>0.0003478664192950731</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03090369955934355</v>
+        <v>0.03115948501509877</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.007030334591850096</v>
+        <v>0.00122636029174461</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03402017425088521</v>
+        <v>0.03386265294714395</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0003895787679570883</v>
+        <v>-0.004842259721203113</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001325590427348367</v>
+        <v>0.005741969258252544</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03111736817043126</v>
+        <v>0.03120144073608346</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008459271932325763</v>
+        <v>0.01357210179076351</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03502394212483031</v>
+        <v>0.03527780163059141</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01303175857805883</v>
+        <v>0.008402688860435381</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03306408917886941</v>
+        <v>0.03333525462845877</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01399026763990241</v>
+        <v>-0.00707858428314323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03879706720061992</v>
+        <v>0.03880976943282193</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006071251055836724</v>
+        <v>0.02209559603552247</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01620078850778008</v>
+        <v>0.01618004966351849</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004454505622900395</v>
+        <v>-0.00625227190112676</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0164953698089658</v>
+        <v>0.01650823823902715</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006526572473642522</v>
+        <v>0.001638877012968276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03228942317077139</v>
+        <v>0.03194462905868694</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004997581815250784</v>
+        <v>0.008384640311082325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03204050788655662</v>
+        <v>0.03250125570359984</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02020470556958642</v>
+        <v>0.001954397394136942</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03235602930433265</v>
+        <v>0.03261770971426421</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01387593923106456</v>
+        <v>0.00131631144289357</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02933532875687282</v>
+        <v>0.02953273710448278</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0125099813681131</v>
+        <v>-0.02160007010164755</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01672488295125508</v>
+        <v>0.01755750063814445</v>
       </c>
       <c r="E12" s="1">
-        <v>0.05581099243120868</v>
+        <v>-0.01112153289561835</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01656280408273121</v>
+        <v>0.0166535116765731</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01124999999999998</v>
+        <v>-0.003001942433339178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>80</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008182025216869216</v>
+        <v>0.008194598180729568</v>
       </c>
       <c r="E14" s="1">
-        <v>0.00728744939271242</v>
+        <v>0.006631832797427739</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008042897662574273</v>
+        <v>0.007951809213041439</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.005648387855966108</v>
+        <v>0.01301775147928996</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>77</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03134487011508191</v>
+        <v>0.03168254871953522</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01657683771909935</v>
+        <v>0.03042993985297415</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03207174060282691</v>
+        <v>0.03190875181297722</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0006307821698907645</v>
+        <v>-0.003011837220704638</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03152540467958368</v>
+        <v>0.03192651399036137</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01853839398965751</v>
+        <v>-0.00498132004981322</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03333631069454344</v>
+        <v>0.03313857674378118</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0002235778849531966</v>
+        <v>-0.001789023065618789</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02661500649202767</v>
+        <v>0.02664844181004822</v>
       </c>
       <c r="E20" s="1">
-        <v>0.007005440773798943</v>
+        <v>0.009022529839677995</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03090619241837643</v>
+        <v>0.03116168169001825</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01405604042259978</v>
+        <v>-0.0009965573473454947</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03327029608969942</v>
+        <v>0.03328784961199641</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006272602169808073</v>
+        <v>0.01526571891995054</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03204855267711109</v>
+        <v>0.03154562703426925</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01004075364715606</v>
+        <v>0.01133583915040859</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01723288781362113</v>
+        <v>0.01689924140210629</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.0137302284710018</v>
+        <v>0.001002338790511148</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01569680604069126</v>
+        <v>0.01570247058948079</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006104914078987056</v>
+        <v>-0.01573151546932372</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>77</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03192598792689889</v>
+        <v>0.03178841600195737</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001408137552805</v>
+        <v>0.00451450562462985</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03200927517028633</v>
+        <v>0.03120238177859387</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01961088688812995</v>
+        <v>0.00738903256452228</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03252106581644273</v>
+        <v>0.03276886466750028</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01340536214485799</v>
+        <v>0.01026653504442243</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0323069324208017</v>
+        <v>0.0314496406982065</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02094624285923519</v>
+        <v>0.01324057450628358</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0334651456491584</v>
+        <v>0.03368226405417581</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01226711917135082</v>
+        <v>0.005797303904449436</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03223583066898941</v>
+        <v>0.03185734736584557</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006066522557701792</v>
+        <v>0.0002104672372666982</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03404082139677676</v>
+        <v>0.03484586311830905</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02952706647760439</v>
+        <v>-0.005104107591347384</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03028011842404919</v>
+        <v>0.03004548764234739</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002051197899573309</v>
+        <v>0.03126969771712029</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1264,10 +1264,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0459120929173309</v>
+        <v>0.04566585227279411</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0003478664192950731</v>
+        <v>-0.000347745450330339</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1281,10 +1281,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03115948501509877</v>
+        <v>0.03101958427094496</v>
       </c>
       <c r="E35" s="1">
-        <v>0.00122636029174461</v>
+        <v>0.007478081485301713</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,10 +1298,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03386265294714395</v>
+        <v>0.03350628910472745</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.004842259721203113</v>
+        <v>0.009338444903175036</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005741969258252544</v>
+        <v>0.005030578000073005</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t>Symbol</t>
   </si>
@@ -67,6 +67,9 @@
     <t>CIEN</t>
   </si>
   <si>
+    <t>BL</t>
+  </si>
+  <si>
     <t>DFS</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>Ciena Corp</t>
   </si>
   <si>
+    <t>Blackline Inc</t>
+  </si>
+  <si>
     <t>Discover Financial Services</t>
   </si>
   <si>
@@ -266,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -685,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,16 +723,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03120144073608346</v>
+        <v>0.02997949346239954</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01357210179076351</v>
+        <v>0.01623406401907723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -734,16 +740,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03527780163059141</v>
+        <v>0.03029786428368431</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008402688860435381</v>
+        <v>-0.003636646506291252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -751,16 +757,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03333525462845877</v>
+        <v>0.02958098982489997</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00707858428314323</v>
+        <v>0.02951936419830958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -768,16 +774,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03880976943282193</v>
+        <v>0.06549463257434331</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02209559603552247</v>
+        <v>0.008195664364603505</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -785,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01618004966351849</v>
+        <v>0.01677957603062487</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00625227190112676</v>
+        <v>-0.006461127888194418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -802,16 +808,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01650823823902715</v>
+        <v>0.01572017306331455</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001638877012968276</v>
+        <v>0.02091454272863547</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -819,16 +825,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03194462905868694</v>
+        <v>0.03053767352044476</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008384640311082325</v>
+        <v>-0.001389210465385537</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -836,16 +842,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03250125570359984</v>
+        <v>0.03122822984841345</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001954397394136942</v>
+        <v>0.01018867924528299</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,16 +859,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03261770971426421</v>
+        <v>0.03238131750526902</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00131631144289357</v>
+        <v>-0.07400331168004093</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -870,16 +876,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02953273710448278</v>
+        <v>0.0316045398382849</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02160007010164755</v>
+        <v>-0.001914042108926317</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -887,16 +893,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01755750063814445</v>
+        <v>0.01293123681270152</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01112153289561835</v>
+        <v>0.04070473876063163</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -904,16 +910,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0166535116765731</v>
+        <v>0.01489488361788666</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003001942433339178</v>
+        <v>0.01384530182757993</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -921,16 +927,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.008194598180729568</v>
+        <v>0.01571428094447522</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006631832797427739</v>
+        <v>0.02370953630796158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -938,16 +944,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007951809213041439</v>
+        <v>0.007604761381953263</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01301775147928996</v>
+        <v>0.01652892561983488</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -955,16 +961,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03168254871953522</v>
+        <v>0.006994534274160681</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03042993985297415</v>
+        <v>0.0154157189790245</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -972,16 +978,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03190875181297722</v>
+        <v>0.03134057291428322</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003011837220704638</v>
+        <v>0.01140550973855059</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -989,16 +995,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03192651399036137</v>
+        <v>0.02984004664986889</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00498132004981322</v>
+        <v>0.02447147408050965</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1006,16 +1012,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03313857674378118</v>
+        <v>0.03104557416439443</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001789023065618789</v>
+        <v>0.001613209337635313</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1023,16 +1029,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02664844181004822</v>
+        <v>0.02972082944535324</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009022529839677995</v>
+        <v>-0.003898893110854007</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1040,16 +1046,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.03116168169001825</v>
+        <v>0.04504780177812362</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0009965573473454947</v>
+        <v>-0.0001482366379931266</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,16 +1063,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03328784961199641</v>
+        <v>0.03259127333991024</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01526571891995054</v>
+        <v>0.01021453537423156</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,16 +1080,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03154562703426925</v>
+        <v>0.03181351365311957</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01133583915040859</v>
+        <v>0.006142733670823519</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1091,16 +1097,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01689924140210629</v>
+        <v>0.02976168146930588</v>
       </c>
       <c r="E24" s="1">
-        <v>0.001002338790511148</v>
+        <v>-0.009443487557165731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1108,16 +1114,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01570247058948079</v>
+        <v>0.01433022222911818</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01573151546932372</v>
+        <v>0.0446527692117924</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1125,16 +1131,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.03178841600195737</v>
+        <v>0.01433434671230571</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00451450562462985</v>
+        <v>0.03576126274251878</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1142,16 +1148,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03120238177859387</v>
+        <v>0.02984868842416656</v>
       </c>
       <c r="E27" s="1">
-        <v>0.00738903256452228</v>
+        <v>0.03901273885350331</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1159,16 +1165,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03276886466750028</v>
+        <v>0.03056517007502827</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01026653504442243</v>
+        <v>0.00776229887420965</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,16 +1182,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0314496406982065</v>
+        <v>0.03043397222887267</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01324057450628358</v>
+        <v>0.00898319522961355</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,16 +1199,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03368226405417581</v>
+        <v>0.02746139827443407</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005797303904449436</v>
+        <v>0.02194949256549439</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,16 +1216,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03185734736584557</v>
+        <v>0.03575632317643341</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0002104672372666982</v>
+        <v>0.01247425228639676</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,16 +1233,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03484586311830905</v>
+        <v>0.03147982332285256</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.005104107591347384</v>
+        <v>0.008715942625763473</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1244,16 +1250,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03004548764234739</v>
+        <v>0.02934962595847588</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03126969771712029</v>
+        <v>0.02131361461504988</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1261,13 +1267,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.04566585227279411</v>
+        <v>0.03115202511142487</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.000347745450330339</v>
+        <v>0.005749880210829117</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1275,16 +1284,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03101958427094496</v>
+        <v>0.03049878553610523</v>
       </c>
       <c r="E35" s="1">
-        <v>0.007478081485301713</v>
+        <v>0.000231830300220226</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1292,127 +1298,144 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03350628910472745</v>
+        <v>0.0293172193048596</v>
       </c>
       <c r="E36" s="1">
-        <v>0.009338444903175036</v>
+        <v>0.00850807262008435</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0.03256691924870771</v>
       </c>
       <c r="E37" s="1">
-        <v>0.005030578000073005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>83</v>
+        <v>-0.002412312442707565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.007560374086696964</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02997949346239954</v>
+        <v>0.03023757509930232</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01623406401907723</v>
+        <v>-0.006768953068592043</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03029786428368431</v>
+        <v>0.02996116405307482</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003636646506291252</v>
+        <v>-0.009856735761408331</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02958098982489997</v>
+        <v>0.03022568435612892</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02951936419830958</v>
+        <v>-0.03124617081240033</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06549463257434331</v>
+        <v>0.06553592846528906</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008195664364603505</v>
+        <v>-0.01575838335286528</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01677957603062487</v>
+        <v>0.01654606659089079</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006461127888194418</v>
+        <v>-0.008058245564430577</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01572017306331455</v>
+        <v>0.01592852766673794</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02091454272863547</v>
+        <v>-0.02364343931272495</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03053767352044476</v>
+        <v>0.03026642477126401</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001389210465385537</v>
+        <v>-0.01441378777339808</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03122822984841345</v>
+        <v>0.03130969128706768</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01018867924528299</v>
+        <v>0.03299713609762156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03238131750526902</v>
+        <v>0.02975999607020684</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.07400331168004093</v>
+        <v>-0.0002358027117310701</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0316045398382849</v>
+        <v>0.0313073521244762</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001914042108926317</v>
+        <v>-0.0003922594142258262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01293123681270152</v>
+        <v>0.01335661839739682</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04070473876063163</v>
+        <v>-0.02116170461179223</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01489488361788666</v>
+        <v>0.01498779444452783</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01384530182757993</v>
+        <v>-0.01948288419519306</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01571428094447522</v>
+        <v>0.01596614919841771</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02370953630796158</v>
+        <v>0.006666096914793584</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007604761381953263</v>
+        <v>0.007672453300080838</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01652892561983488</v>
+        <v>0.01117886178861793</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.006994534274160681</v>
+        <v>0.007049066469449269</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0154157189790245</v>
+        <v>-0.007466401194624162</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03134057291428322</v>
+        <v>0.03146017741378675</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01140550973855059</v>
+        <v>0.003426439972241457</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02984004664986889</v>
+        <v>0.03034088811375971</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02447147408050965</v>
+        <v>-0.008480565371024595</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03104557416439443</v>
+        <v>0.03086232644144559</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001613209337635313</v>
+        <v>0.007674088109900667</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02972082944535324</v>
+        <v>0.0293828061023294</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003898893110854007</v>
+        <v>-0.0164195442332572</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04504780177812362</v>
+        <v>0.04470315149528045</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0001482366379931266</v>
+        <v>-0.01106270903374618</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03259127333991024</v>
+        <v>0.03267712675200841</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01021453537423156</v>
+        <v>-0.01318340442031785</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03181351365311957</v>
+        <v>0.03176875194564722</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006142733670823519</v>
+        <v>-0.01377511888326433</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02976168146930588</v>
+        <v>0.0292594152756284</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.009443487557165731</v>
+        <v>0.01684854299076632</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01433022222911818</v>
+        <v>0.01485777599048429</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0446527692117924</v>
+        <v>-0.006021962451292828</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01433434671230571</v>
+        <v>0.01473555474507903</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03576126274251878</v>
+        <v>-0.01277879196761644</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02984868842416656</v>
+        <v>0.03078045575074351</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03901273885350331</v>
+        <v>-0.01581330546847803</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03056517007502827</v>
+        <v>0.03057129562902128</v>
       </c>
       <c r="E28" s="1">
-        <v>0.00776229887420965</v>
+        <v>-0.00362170985513155</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03043397222887267</v>
+        <v>0.03047694940449793</v>
       </c>
       <c r="E29" s="1">
-        <v>0.00898319522961355</v>
+        <v>-0.01308619234016428</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02746139827443407</v>
+        <v>0.02785357855814408</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02194949256549439</v>
+        <v>-0.005542725173210195</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03575632317643341</v>
+        <v>0.03593070698655234</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01247425228639676</v>
+        <v>-0.03321831971615496</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03147982332285256</v>
+        <v>0.03151592745555055</v>
       </c>
       <c r="E32" s="1">
-        <v>0.008715942625763473</v>
+        <v>-0.006191318546741043</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02934962595847588</v>
+        <v>0.02975024955940898</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02131361461504988</v>
+        <v>-0.01771720613287919</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03115202511142487</v>
+        <v>0.03109604777037844</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005749880210829117</v>
+        <v>-0.0056919335021689</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03049878553610523</v>
+        <v>0.0302769510029257</v>
       </c>
       <c r="E35" s="1">
-        <v>0.000231830300220226</v>
+        <v>-0.0001158882836945763</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0293172193048596</v>
+        <v>0.02934479471021771</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00850807262008435</v>
+        <v>-0.02105752623887325</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03256691924870771</v>
+        <v>0.03224457660279908</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.002412312442707565</v>
+        <v>-0.005803549837984368</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.007560374086696964</v>
+        <v>-0.008439503699873008</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03023757509930232</v>
+        <v>0.030288518435951</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006768953068592043</v>
+        <v>0.01208541572012711</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02996116405307482</v>
+        <v>0.02991834072312634</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.009856735761408331</v>
+        <v>0.01685426481893981</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03022568435612892</v>
+        <v>0.02953046997038972</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.03124617081240033</v>
+        <v>0.04679989881102964</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06553592846528906</v>
+        <v>0.06505219643363361</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01575838335286528</v>
+        <v>0.009622126054686708</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01654606659089079</v>
+        <v>0.01655242860563512</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008058245564430577</v>
+        <v>-0.05857621321171513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01592852766673794</v>
+        <v>0.01568429011395497</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02364343931272495</v>
+        <v>0.01850041362713406</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03026642477126401</v>
+        <v>0.0300840655303017</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01441378777339808</v>
+        <v>0.007763183689472486</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03130969128706768</v>
+        <v>0.03261810202435899</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03299713609762156</v>
+        <v>0.05135004821600786</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02975999607020684</v>
+        <v>0.03000621615468907</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0002358027117310701</v>
+        <v>-0.006348519988993218</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0313073521244762</v>
+        <v>0.0315614343629503</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0003922594142258262</v>
+        <v>0.01190320470896022</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01335661839739682</v>
+        <v>0.01318524652105688</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02116170461179223</v>
+        <v>0.03578350976591649</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01498779444452783</v>
+        <v>0.01482086976625135</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01948288419519306</v>
+        <v>0.01132776230269283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01596614919841771</v>
+        <v>0.01620938022067546</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006666096914793584</v>
+        <v>0.0191866881738687</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007672453300080838</v>
+        <v>0.007824255427733172</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01117886178861793</v>
+        <v>0.03356783919597994</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007049066469449269</v>
+        <v>0.007055984316889422</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.007466401194624162</v>
+        <v>0.02006018054162495</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03146017741378675</v>
+        <v>0.03183665942824745</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003426439972241457</v>
+        <v>0.009336503133779983</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03034088811375971</v>
+        <v>0.03033963166236333</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.008480565371024595</v>
+        <v>0.001282965074839604</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03086232644144559</v>
+        <v>0.03136386208393342</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007674088109900667</v>
+        <v>0.006111320045129709</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0293828061023294</v>
+        <v>0.02914633441496784</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0164195442332572</v>
+        <v>0.01554701200593556</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04470315149528045</v>
+        <v>0.04458488786347893</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01106270903374618</v>
+        <v>0.02089138946700064</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03267712675200841</v>
+        <v>0.03252079030484321</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01318340442031785</v>
+        <v>0.02569140093698041</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03176875194564722</v>
+        <v>0.031597803389436</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01377511888326433</v>
+        <v>0.007559260872270102</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0292594152756284</v>
+        <v>0.030005626386692</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01684854299076632</v>
+        <v>-0.002299663895276804</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01485777599048429</v>
+        <v>0.01489400099788745</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.006021962451292828</v>
+        <v>0.01936326918507936</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01473555474507903</v>
+        <v>0.01467106869499676</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01277879196761644</v>
+        <v>-0.001849171892587043</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03078045575074351</v>
+        <v>0.03055155496264213</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01581330546847803</v>
+        <v>0.008139864099660388</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03057129562902128</v>
+        <v>0.0307198354311381</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.00362170985513155</v>
+        <v>0.003942046792607234</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03047694940449793</v>
+        <v>0.03033412716105739</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01308619234016428</v>
+        <v>0.01547614418478038</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02785357855814408</v>
+        <v>0.02793495094899568</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.005542725173210195</v>
+        <v>0.007818547762811434</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03593070698655234</v>
+        <v>0.03503280879367674</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03321831971615496</v>
+        <v>0.0279456574805137</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03151592745555055</v>
+        <v>0.03158738415482118</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.006191318546741043</v>
+        <v>-0.001643047853768675</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02975024955940898</v>
+        <v>0.02947188634934789</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01771720613287919</v>
+        <v>0.02878945542837319</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03109604777037844</v>
+        <v>0.03118221354083731</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0056919335021689</v>
+        <v>0.009507237605285601</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0302769510029257</v>
+        <v>0.0305311096720772</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0001158882836945763</v>
+        <v>-0.0002318034306907357</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02934479471021771</v>
+        <v>0.0289713699091718</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.02105752623887325</v>
+        <v>0.01913550926240082</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03224457660279908</v>
+        <v>0.03233029524179112</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.005803549837984368</v>
+        <v>0.002140390134747205</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.008439503699873008</v>
+        <v>0.01257267416143848</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.030288518435951</v>
+        <v>0.03027394334750616</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01208541572012711</v>
+        <v>8.97827258035111E-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02991834072312634</v>
+        <v>0.03004484827305027</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01685426481893981</v>
+        <v>-0.0002714019851115523</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02953046997038972</v>
+        <v>0.03052866600656222</v>
       </c>
       <c r="E4" s="1">
-        <v>0.04679989881102964</v>
+        <v>0.0320202996616723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06505219643363361</v>
+        <v>0.06486264002951056</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009622126054686708</v>
+        <v>0.02038983740810796</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01655242860563512</v>
+        <v>0.01538936455239094</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.05857621321171513</v>
+        <v>-0.01203542502460064</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01568429011395497</v>
+        <v>0.0157761081018114</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01850041362713406</v>
+        <v>0.02606512589529641</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0300840655303017</v>
+        <v>0.02994117304444056</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007763183689472486</v>
+        <v>-0.005874800606932906</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03261810202435899</v>
+        <v>0.03386724134583649</v>
       </c>
       <c r="E9" s="1">
-        <v>0.05135004821600786</v>
+        <v>-0.001490483833982981</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03000621615468907</v>
+        <v>0.02944551226046945</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006348519988993218</v>
+        <v>0.009395707645138973</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0315614343629503</v>
+        <v>0.03154056730153183</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01190320470896022</v>
+        <v>0.002671492588762314</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01318524652105688</v>
+        <v>0.01348748713767061</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03578350976591649</v>
+        <v>0.03303584280984584</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01482086976625135</v>
+        <v>0.01480264818374202</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01132776230269283</v>
+        <v>-0.002754315093646764</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01620938022067546</v>
+        <v>0.0163152581202555</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0191866881738687</v>
+        <v>0.009079550187421903</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007824255427733172</v>
+        <v>0.007986487273574466</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03356783919597994</v>
+        <v>0.03257487359004263</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007055984316889422</v>
+        <v>0.00710816005591473</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02006018054162495</v>
+        <v>0.01941986234021642</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03183665942824745</v>
+        <v>0.03173490981808298</v>
       </c>
       <c r="E17" s="1">
-        <v>0.009336503133779983</v>
+        <v>0.008350820093357969</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03033963166236333</v>
+        <v>0.03000135903857728</v>
       </c>
       <c r="E18" s="1">
-        <v>0.001282965074839604</v>
+        <v>0.0008542141230067912</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03136386208393342</v>
+        <v>0.0311637253188887</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006111320045129709</v>
+        <v>0.02560508363704317</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02914633441496784</v>
+        <v>0.02923194905546819</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01554701200593556</v>
+        <v>0.006342775545445489</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04458488786347893</v>
+        <v>0.04495117168540199</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02089138946700064</v>
+        <v>0.00494104435710252</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03252079030484321</v>
+        <v>0.03294212437144466</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02569140093698041</v>
+        <v>0.0122881980256373</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.031597803389436</v>
+        <v>0.03144135748539034</v>
       </c>
       <c r="E23" s="1">
-        <v>0.007559260872270102</v>
+        <v>-0.01204112507332722</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.030005626386692</v>
+        <v>0.02956491350690197</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002299663895276804</v>
+        <v>-0.008510638297872353</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01489400099788745</v>
+        <v>0.01499388432640224</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01936326918507936</v>
+        <v>0.01316862836499255</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01467106869499676</v>
+        <v>0.0144621119459491</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.001849171892587043</v>
+        <v>0.006846556584776398</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03055155496264213</v>
+        <v>0.03041780728832974</v>
       </c>
       <c r="E27" s="1">
-        <v>0.008139864099660388</v>
+        <v>-0.006038053780804575</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0307198354311381</v>
+        <v>0.03045799600054361</v>
       </c>
       <c r="E28" s="1">
-        <v>0.003942046792607234</v>
+        <v>-0.0228454869964303</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03033412716105739</v>
+        <v>0.03042110781058885</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01547614418478038</v>
+        <v>0.001531686770055662</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02793495094899568</v>
+        <v>0.02780379365911429</v>
       </c>
       <c r="E30" s="1">
-        <v>0.007818547762811434</v>
+        <v>0.01083032490974722</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03503280879367674</v>
+        <v>0.03556468052886015</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0279456574805137</v>
+        <v>0.01393688278934202</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03158738415482118</v>
+        <v>0.03114392218533403</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.001643047853768675</v>
+        <v>-0.01693753000068576</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02947188634934789</v>
+        <v>0.02994389112159512</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02878945542837319</v>
+        <v>0.02427511800404591</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03118221354083731</v>
+        <v>0.03108781330692915</v>
       </c>
       <c r="E34" s="1">
-        <v>0.009507237605285601</v>
+        <v>-0.01111638480177857</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0305311096720772</v>
+        <v>0.03014502883103268</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0002318034306907357</v>
+        <v>-0.0002318571759797328</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0289713699091718</v>
+        <v>0.02915914341739958</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01913550926240082</v>
+        <v>0.00246354617484501</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03233029524179112</v>
+        <v>0.03199720426349816</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002140390134747205</v>
+        <v>-0.01155283724091061</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01257267416143848</v>
+        <v>0.004686353311200264</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03027394334750616</v>
+        <v>0.0301354361237975</v>
       </c>
       <c r="E2" s="1">
-        <v>8.97827258035111E-05</v>
+        <v>0.0004488733279466306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03004484827305027</v>
+        <v>0.02989658806710471</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0002714019851115523</v>
+        <v>0.003141361256544517</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03052866600656222</v>
+        <v>0.03135924255020157</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0320202996616723</v>
+        <v>-0.002341646177262735</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06486264002951056</v>
+        <v>0.06587645835483159</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02038983740810796</v>
+        <v>0.002472865943091707</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01538936455239094</v>
+        <v>0.01513322735900139</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01203542502460064</v>
+        <v>-0.008197977321483529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0157761081018114</v>
+        <v>0.01611180871749029</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02606512589529641</v>
+        <v>-0.006836499712147392</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02994117304444056</v>
+        <v>0.02962643468259296</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005874800606932906</v>
+        <v>-0.001526299311208623</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03386724134583649</v>
+        <v>0.03365902468830909</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001490483833982981</v>
+        <v>0.01722356183258689</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02944551226046945</v>
+        <v>0.02958353478891514</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009395707645138973</v>
+        <v>-0.009308250048990829</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03154056730153183</v>
+        <v>0.03147731387919776</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002671492588762314</v>
+        <v>0.01383755908895568</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01348748713767061</v>
+        <v>0.013868066981034</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03303584280984584</v>
+        <v>-0.01226224482686544</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01480264818374202</v>
+        <v>0.01469302034189283</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002754315093646764</v>
+        <v>-0.02577794144724732</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0163152581202555</v>
+        <v>0.01638659992834558</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009079550187421903</v>
+        <v>-0.003632161135875944</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007986487273574466</v>
+        <v>0.008208179657025012</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03257487359004263</v>
+        <v>0.0147848196628686</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.00710816005591473</v>
+        <v>0.007212399692512114</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01941986234021642</v>
+        <v>-0.01784422474077652</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03173490981808298</v>
+        <v>0.03185065889985349</v>
       </c>
       <c r="E17" s="1">
-        <v>0.008350820093357969</v>
+        <v>-0.005308757326085156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.03000135903857728</v>
+        <v>0.02988692592888898</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0008542141230067912</v>
+        <v>-0.001849217638691281</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0311637253188887</v>
+        <v>0.03181259007528352</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02560508363704317</v>
+        <v>0.01703872437357634</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02923194905546819</v>
+        <v>0.02928014364894128</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006342775545445489</v>
+        <v>0.001748944033790778</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04495117168540199</v>
+        <v>0.04496256694412463</v>
       </c>
       <c r="E21" s="1">
-        <v>0.00494104435710252</v>
+        <v>-0.008432398978828748</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03294212437144466</v>
+        <v>0.03319137719866786</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0122881980256373</v>
+        <v>0.009053330228225631</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03144135748539034</v>
+        <v>0.03091787607650713</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01204112507332722</v>
+        <v>0.001875058595580903</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02956491350690197</v>
+        <v>0.02917656552726868</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008510638297872353</v>
+        <v>0.01120648545541236</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01499388432640224</v>
+        <v>0.01512047333655662</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01316862836499255</v>
+        <v>0.007936507936507908</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0144621119459491</v>
+        <v>0.01449320732359158</v>
       </c>
       <c r="E26" s="1">
-        <v>0.006846556584776398</v>
+        <v>0.02200000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03041780728832974</v>
+        <v>0.03009311595841261</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.006038053780804575</v>
+        <v>0.003108003108003077</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03045799600054361</v>
+        <v>0.02962334279836393</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0228454869964303</v>
+        <v>-0.01195073583133277</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03042110781058885</v>
+        <v>0.03032558700388302</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001531686770055662</v>
+        <v>0.001605811508315735</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02780379365911429</v>
+        <v>0.02797382256217489</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01083032490974722</v>
+        <v>0.003875379939209722</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03556468052886015</v>
+        <v>0.03589213807272808</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01393688278934202</v>
+        <v>-0.006218503682646426</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03114392218533403</v>
+        <v>0.03047361096134797</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01693753000068576</v>
+        <v>-0.003278459821428603</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02994389112159512</v>
+        <v>0.03052771893535604</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02427511800404591</v>
+        <v>-0.002057274522712316</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03108781330692915</v>
+        <v>0.0305988322726238</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.01111638480177857</v>
+        <v>-0.003435558025564611</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03014502883103268</v>
+        <v>0.02999746079007691</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0002318571759797328</v>
+        <v>-0.0001159554730981727</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02915914341739958</v>
+        <v>0.02909463059519931</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00246354617484501</v>
+        <v>0.004582890541976692</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03199720426349816</v>
+        <v>0.03148001927789817</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01155283724091061</v>
+        <v>0.003584933457742023</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.004686353311200264</v>
+        <v>0.0008040831423128392</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0301354361237975</v>
+        <v>0.03012474032144049</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0004488733279466306</v>
+        <v>0.00439698492462326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02989658806710471</v>
+        <v>0.02996640856659752</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003141361256544517</v>
+        <v>-0.003556792700842748</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03135924255020157</v>
+        <v>0.03126067411868587</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002341646177262735</v>
+        <v>-0.01396549700739347</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06587645835483159</v>
+        <v>0.06598630353085606</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002472865943091707</v>
+        <v>0.01201780285185072</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01513322735900139</v>
+        <v>0.014997106583724</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008197977321483529</v>
+        <v>0.001467748165314697</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01611180871749029</v>
+        <v>0.01598880401405754</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006836499712147392</v>
+        <v>-0.0104340265198174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02962643468259296</v>
+        <v>0.02955744922908848</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001526299311208623</v>
+        <v>-0.07219848704581977</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03365902468830909</v>
+        <v>0.03421124429643644</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01722356183258689</v>
+        <v>0.00496670053053383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02958353478891514</v>
+        <v>0.02928461658324321</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.009308250048990829</v>
+        <v>0.001918702403322925</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03147731387919776</v>
+        <v>0.03188724307535105</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01383755908895568</v>
+        <v>0.003390979993218135</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.013868066981034</v>
+        <v>0.01368700785615135</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01226224482686544</v>
+        <v>-0.01918600550186922</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01469302034189283</v>
+        <v>0.01430276391248579</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02577794144724732</v>
+        <v>-0.01606501606501598</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01638659992834558</v>
+        <v>0.01631396337400335</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.003632161135875944</v>
+        <v>-0.001988400994200612</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008208179657025012</v>
+        <v>0.008322843854574987</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0147848196628686</v>
+        <v>0.03489235337787666</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007212399692512114</v>
+        <v>0.007078008703998591</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01784422474077652</v>
+        <v>0.05646943285047867</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03185065889985349</v>
+        <v>0.03165611733078149</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005308757326085156</v>
+        <v>0.01140002561803488</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02988692592888898</v>
+        <v>0.02980769063674274</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.001849217638691281</v>
+        <v>-0.01303976058144518</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03181259007528352</v>
+        <v>0.03232864111385231</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01703872437357634</v>
+        <v>-0.02365167532700241</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02928014364894128</v>
+        <v>0.02930778708395194</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001748944033790778</v>
+        <v>0.01162829001548249</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04496256694412463</v>
+        <v>0.04454760466259985</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008432398978828748</v>
+        <v>0.03155015777246084</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03319137719866786</v>
+        <v>0.0334649610861095</v>
       </c>
       <c r="E22" s="1">
-        <v>0.009053330228225631</v>
+        <v>0.004269682370250827</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03091787607650713</v>
+        <v>0.03095096175921254</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001875058595580903</v>
+        <v>-0.002744939018684223</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02917656552726868</v>
+        <v>0.02947982805171424</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01120648545541236</v>
+        <v>-0.004244282008959988</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01512047333655662</v>
+        <v>0.01522823232829356</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007936507936507908</v>
+        <v>-0.001825858724181173</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01449320732359158</v>
+        <v>0.01480015732769981</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02200000000000002</v>
+        <v>0.01972602739726037</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03009311595841261</v>
+        <v>0.03016239238509218</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003108003108003077</v>
+        <v>0.006971340046475705</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02962334279836393</v>
+        <v>0.02924580599455609</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01195073583133277</v>
+        <v>-0.007341678550678798</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03032558700388302</v>
+        <v>0.03034988035332697</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001605811508315735</v>
+        <v>-0.02828568156659161</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02797382256217489</v>
+        <v>0.02805966944577514</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003875379939209722</v>
+        <v>-0.0105972295814093</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03589213807272808</v>
+        <v>0.03564028492764722</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006218503682646426</v>
+        <v>-0.006826271393046923</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03047361096134797</v>
+        <v>0.03034930109080925</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.003278459821428603</v>
+        <v>-0.007418293792427644</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03052771893535604</v>
+        <v>0.03044043839359691</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.002057274522712316</v>
+        <v>-0.01327616063329762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0305988322726238</v>
+        <v>0.03046920843197691</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.003435558025564611</v>
+        <v>0.0002281368821293039</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02999746079007691</v>
+        <v>0.02996988414170383</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0001159554730981727</v>
+        <v>0.0002319378406585582</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02909463059519931</v>
+        <v>0.02920448526829219</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004582890541976692</v>
+        <v>0.006479338842975135</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03148001927789817</v>
+        <v>0.03156749016557061</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003584933457742023</v>
+        <v>0.0004893325504011781</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0008040831423128392</v>
+        <v>-0.002060436775523478</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03012474032144049</v>
+        <v>0.0303196701138163</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00439698492462326</v>
+        <v>-0.009291521486643362</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02996640856659752</v>
+        <v>0.02992147557198382</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003556792700842748</v>
+        <v>0.001183363079071853</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03126067411868587</v>
+        <v>0.03088774551460356</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01396549700739347</v>
+        <v>-0.001309212092358902</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06598630353085606</v>
+        <v>0.06691719256208196</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01201780285185072</v>
+        <v>0.00370391788347546</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.014997106583724</v>
+        <v>0.01505012839742369</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001467748165314697</v>
+        <v>0.0230638691761802</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01598880401405754</v>
+        <v>0.01585464390030973</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0104340265198174</v>
+        <v>0.04473896170462055</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02955744922908848</v>
+        <v>0.02748006705456774</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.07219848704581977</v>
+        <v>-0.00844915719656969</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03421124429643644</v>
+        <v>0.03445214777390289</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00496670053053383</v>
+        <v>0.005279119397955778</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02928461658324321</v>
+        <v>0.02940138474183527</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001918702403322925</v>
+        <v>0.004896154149885534</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03188724307535105</v>
+        <v>0.03206143263353254</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003390979993218135</v>
+        <v>-0.01072997634335926</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01368700785615135</v>
+        <v>0.01345212610345164</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01918600550186922</v>
+        <v>-0.02711254944264652</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01430276391248579</v>
+        <v>0.0141020461549654</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01606501606501598</v>
+        <v>0.01325393776411832</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01631396337400335</v>
+        <v>0.01631514098950376</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001988400994200612</v>
+        <v>-0.02805910675742984</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008322843854574987</v>
+        <v>0.008631031157465236</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03489235337787666</v>
+        <v>0.02555595408895273</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007078008703998591</v>
+        <v>0.007493138980343352</v>
       </c>
       <c r="E16" s="1">
-        <v>0.05646943285047867</v>
+        <v>0.03276783639321401</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03165611733078149</v>
+        <v>0.03208310308478873</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01140002561803488</v>
+        <v>-0.01063829787234039</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02980769063674274</v>
+        <v>0.02947974664146702</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01303976058144518</v>
+        <v>-0.0757346039997111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03232864111385231</v>
+        <v>0.03162918452544033</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.02365167532700241</v>
+        <v>0.009359515507432636</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02930778708395194</v>
+        <v>0.02970980169989211</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01162829001548249</v>
+        <v>0.07297297297297289</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04454760466259985</v>
+        <v>0.04604796754385557</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03155015777246084</v>
+        <v>0.02100079414767797</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0334649610861095</v>
+        <v>0.03367723565532219</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004269682370250827</v>
+        <v>0.01396110424865693</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03095096175921254</v>
+        <v>0.03092973201391242</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002744939018684223</v>
+        <v>0.01760970879859869</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02947982805171424</v>
+        <v>0.02941531574621424</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004244282008959988</v>
+        <v>0.01835188254795184</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01522823232829356</v>
+        <v>0.01523181191286621</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.001825858724181173</v>
+        <v>-0.02938150222933578</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01480015732769981</v>
+        <v>0.01512326617041333</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01972602739726037</v>
+        <v>-0.009518691947493774</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03016239238509218</v>
+        <v>0.0304353748446306</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006971340046475705</v>
+        <v>0.008671328671328693</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02924580599455609</v>
+        <v>0.02909103292205912</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007341678550678798</v>
+        <v>0.01239757369373207</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03034988035332697</v>
+        <v>0.02955230395594088</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02828568156659161</v>
+        <v>-0.008053111250785783</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02805966944577514</v>
+        <v>0.02781963528630536</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0105972295814093</v>
+        <v>0.01950883635529022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03564028492764722</v>
+        <v>0.03547007852442801</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006826271393046923</v>
+        <v>0.003142029554715542</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03034930109080925</v>
+        <v>0.03018635814135635</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007418293792427644</v>
+        <v>0.01487696538108985</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03044043839359691</v>
+        <v>0.03009832193312808</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01327616063329762</v>
+        <v>-0.004679926458298511</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03046920843197691</v>
+        <v>0.03053908343278522</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0002281368821293039</v>
+        <v>0.01763856154489485</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02996988414170383</v>
+        <v>0.03003872819217356</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002319378406585582</v>
+        <v>0.0002318840579709214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02920448526829219</v>
+        <v>0.02945439995294416</v>
       </c>
       <c r="E36" s="1">
-        <v>0.006479338842975135</v>
+        <v>0.0194442619720161</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03156749016557061</v>
+        <v>0.0316481461702895</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0004893325504011781</v>
+        <v>0.01428152205810429</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.002060436775523478</v>
+        <v>0.005337316052696162</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0303196701138163</v>
+        <v>0.02987848333873181</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009291521486643362</v>
+        <v>0.005500946884299696</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02992147557198382</v>
+        <v>0.02979784303547808</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001183363079071853</v>
+        <v>-0.01501676064252355</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03088774551460356</v>
+        <v>0.03068353915856559</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001309212092358902</v>
+        <v>-0.02729114527469889</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06691719256208196</v>
+        <v>0.06680847042666034</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00370391788347546</v>
+        <v>-0.001120614407817189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01505012839742369</v>
+        <v>0.0153154989315641</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0230638691761802</v>
+        <v>0.005202442886224734</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01585464390030973</v>
+        <v>0.01647602644617029</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04473896170462055</v>
+        <v>-0.02719372021306421</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02748006705456774</v>
+        <v>0.02710322516947455</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00844915719656969</v>
+        <v>0.02100464402880142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03445214777390289</v>
+        <v>0.03445015341865809</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005279119397955778</v>
+        <v>-0.01128491620111738</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02940138474183527</v>
+        <v>0.02938848283256475</v>
       </c>
       <c r="E10" s="1">
-        <v>0.004896154149885534</v>
+        <v>0.008781925343811503</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03206143263353254</v>
+        <v>0.03154902709110026</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01072997634335926</v>
+        <v>-0.01379280895038015</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01345212610345164</v>
+        <v>0.01301792389518454</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02711254944264652</v>
+        <v>-0.01426670609107039</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0141020461549654</v>
+        <v>0.01421309402216704</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01325393776411832</v>
+        <v>-0.04322274881516597</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01631514098950376</v>
+        <v>0.01577316633284661</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02805910675742984</v>
+        <v>-0.008711991800478103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008631031157465236</v>
+        <v>0.008804612394395365</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02555595408895273</v>
+        <v>-0.003235114103348868</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007493138980343352</v>
+        <v>0.007697588470014798</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03276783639321401</v>
+        <v>-0.01575157515751568</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03208310308478873</v>
+        <v>0.03157327691976367</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01063829787234039</v>
+        <v>-0.01723843659327529</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02947974664146702</v>
+        <v>0.02710245533364396</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0757346039997111</v>
+        <v>-0.032573035463209</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03162918452544033</v>
+        <v>0.03175572801161221</v>
       </c>
       <c r="E19" s="1">
-        <v>0.009359515507432636</v>
+        <v>-0.01181818181818184</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02970980169989211</v>
+        <v>0.0317085755669889</v>
       </c>
       <c r="E20" s="1">
-        <v>0.07297297297297289</v>
+        <v>-0.01344420503171384</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04604796754385557</v>
+        <v>0.04676540965947659</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02100079414767797</v>
+        <v>-0.008136170773162532</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03367723565532219</v>
+        <v>0.03396611914017807</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01396110424865693</v>
+        <v>-0.01280562087429538</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03092973201391242</v>
+        <v>0.03130729864029671</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01760970879859869</v>
+        <v>-0.005133091535009293</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02941531574621424</v>
+        <v>0.02979611090485926</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01835188254795184</v>
+        <v>-0.007615393558888517</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01523181191286621</v>
+        <v>0.01470578895374114</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02938150222933578</v>
+        <v>0.02414605418138982</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01512326617041333</v>
+        <v>0.01489978758304845</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.009518691947493774</v>
+        <v>-0.004882585445245224</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0304353748446306</v>
+        <v>0.0305363080559663</v>
       </c>
       <c r="E27" s="1">
-        <v>0.008671328671328693</v>
+        <v>-0.0163616195230174</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02909103292205912</v>
+        <v>0.02929533269706402</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01239757369373207</v>
+        <v>-0.01424291795869037</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02955230395594088</v>
+        <v>0.02915868683713526</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008053111250785783</v>
+        <v>-0.001306878935487754</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02781963528630536</v>
+        <v>0.02821178876551628</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01950883635529022</v>
+        <v>-0.00480264145279885</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03547007852442801</v>
+        <v>0.03539262493425121</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003142029554715542</v>
+        <v>-0.02057129806359004</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03018635814135635</v>
+        <v>0.03047279659994307</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01487696538108985</v>
+        <v>0.001528414617201657</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.03009832193312808</v>
+        <v>0.02979842041235102</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.004679926458298511</v>
+        <v>-0.01981528127623855</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03053908343278522</v>
+        <v>0.03091275777712214</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01763856154489485</v>
+        <v>-0.006848462208940309</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03003872819217356</v>
+        <v>0.02988618169703765</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002318840579709214</v>
+        <v>0.000115915150110224</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02945439995294416</v>
+        <v>0.02986770563710363</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0194442619720161</v>
+        <v>-0.008892325536439372</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0316481461702895</v>
+        <v>0.03192971090932431</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01428152205810429</v>
+        <v>-0.0005786478927573002</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005337316052696162</v>
+        <v>-0.008651607523066485</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02987848333873181</v>
+        <v>0.03030503051858294</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005500946884299696</v>
+        <v>0.0285201793721972</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02979784303547808</v>
+        <v>0.02960651994967928</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01501676064252355</v>
+        <v>-0.00959987410001184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03068353915856559</v>
+        <v>0.03010662090173482</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02729114527469889</v>
+        <v>-0.0376133300661603</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06680847042666034</v>
+        <v>0.06731599546492303</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001120614407817189</v>
+        <v>-0.02334012032000743</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0153154989315641</v>
+        <v>0.01552953235901657</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005202442886224734</v>
+        <v>0.01065106510651082</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01647602644617029</v>
+        <v>0.01616785997173342</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02719372021306421</v>
+        <v>-0.009870317002881879</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02710322516947455</v>
+        <v>0.02791401991085157</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02100464402880142</v>
+        <v>0.02395259556000662</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03445015341865809</v>
+        <v>0.03435864382561696</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01128491620111738</v>
+        <v>-0.0001130071194483939</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02938848283256475</v>
+        <v>0.02990529920636153</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008781925343811503</v>
+        <v>-0.008491245837147332</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03154902709110026</v>
+        <v>0.03138541165142031</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01379280895038015</v>
+        <v>-0.001039185970989287</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01301792389518454</v>
+        <v>0.01294418904437231</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01426670609107039</v>
+        <v>-0.03202099737532793</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01421309402216704</v>
+        <v>0.01371744296208862</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.04322274881516597</v>
+        <v>0.01763423816128395</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01577316633284661</v>
+        <v>0.01577220556944725</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008711991800478103</v>
+        <v>-0.03101843873858368</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008804612394395365</v>
+        <v>0.008852718716511096</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.003235114103348868</v>
+        <v>0.005614035087719405</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007697588470014798</v>
+        <v>0.007642458881451224</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01575157515751568</v>
+        <v>-0.001371742112482921</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03157327691976367</v>
+        <v>0.03129979654278037</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01723843659327529</v>
+        <v>-0.02848211184439042</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02710245533364396</v>
+        <v>0.02644846785841862</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.032573035463209</v>
+        <v>-0.00363342753330631</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03175572801161221</v>
+        <v>0.0316542935685775</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01181818181818184</v>
+        <v>-0.01545538178472861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0317085755669889</v>
+        <v>0.03155528289872179</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01344420503171384</v>
+        <v>-0.007690414667158807</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04676540965947659</v>
+        <v>0.04678972463385465</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.008136170773162532</v>
+        <v>-0.006203010638474393</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03396611914017807</v>
+        <v>0.03382379206982775</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01280562087429538</v>
+        <v>0.004907447266465859</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03130729864029671</v>
+        <v>0.03141841520803889</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005133091535009293</v>
+        <v>0.0203911391231808</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02979611090485926</v>
+        <v>0.02982725550188703</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.007615393558888517</v>
+        <v>0.01985823911897344</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01470578895374114</v>
+        <v>0.0151923136658021</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02414605418138982</v>
+        <v>0.0110408280621046</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01489978758304845</v>
+        <v>0.01495643530526349</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004882585445245224</v>
+        <v>0.003582554517133962</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0305363080559663</v>
+        <v>0.03029881808439591</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0163616195230174</v>
+        <v>0.02022836199605305</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02929533269706402</v>
+        <v>0.02913010390296178</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01424291795869037</v>
+        <v>0.02431222008957135</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02915868683713526</v>
+        <v>0.0293747184990759</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001306878935487754</v>
+        <v>-0.001268934887778461</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02821178876551628</v>
+        <v>0.02832132262723842</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.00480264145279885</v>
+        <v>0.003091539737595905</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03539262493425121</v>
+        <v>0.03496707409880876</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02057129806359004</v>
+        <v>-0.01150937739431679</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03047279659994307</v>
+        <v>0.03078571761380403</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001528414617201657</v>
+        <v>0.01130688124306323</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02979842041235102</v>
+        <v>0.02946285740910432</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01981528127623855</v>
+        <v>-0.006852835360630416</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03091275777712214</v>
+        <v>0.03096898442232127</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.006848462208940309</v>
+        <v>0.0178034102306921</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02988618169703765</v>
+        <v>0.03015049621818068</v>
       </c>
       <c r="E35" s="1">
-        <v>0.000115915150110224</v>
+        <v>-0.0002318034306907357</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02986770563710363</v>
+        <v>0.02986045319707394</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.008892325536439372</v>
+        <v>-0.002925687536570964</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03192971090932431</v>
+        <v>0.03218972774007175</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0005786478927573002</v>
+        <v>0.01939592782012944</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.008651607523066485</v>
+        <v>-0.0005550421668972794</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03030503051858294</v>
+        <v>0.03118664532805398</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0285201793721972</v>
+        <v>-0.006801534705266787</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02960651994967928</v>
+        <v>0.02933858523754682</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00959987410001184</v>
+        <v>-0.0253446152623843</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03010662090173482</v>
+        <v>0.02899030147232931</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0376133300661603</v>
+        <v>0.0007638446849140834</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06731599546492303</v>
+        <v>0.06578134345072095</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02334012032000743</v>
+        <v>-0.02203461401037654</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01552953235901657</v>
+        <v>0.01570365460972891</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01065106510651082</v>
+        <v>-0.0001484340210777813</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01616785997173342</v>
+        <v>0.01601716827233965</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009870317002881879</v>
+        <v>-0.02408498872153098</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02791401991085157</v>
+        <v>0.02859850651725753</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02395259556000662</v>
+        <v>0.008069117287472505</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03435864382561696</v>
+        <v>0.03437383998487987</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0001130071194483939</v>
+        <v>-0.001695298372513698</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02990529920636153</v>
+        <v>0.02966783285720307</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008491245837147332</v>
+        <v>-0.01164777749405821</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03138541165142031</v>
+        <v>0.03137020816025172</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001039185970989287</v>
+        <v>-0.0121797928134888</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01294418904437231</v>
+        <v>0.01253666157676394</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.03202099737532793</v>
+        <v>-0.04090486519987613</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01371744296208862</v>
+        <v>0.01396709194322334</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01763423816128395</v>
+        <v>-0.0128504672897195</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01577220556944725</v>
+        <v>0.01529146378441293</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03101843873858368</v>
+        <v>-0.02258580828739087</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008852718716511096</v>
+        <v>0.008907362151597259</v>
       </c>
       <c r="E15" s="1">
-        <v>0.005614035087719405</v>
+        <v>0.00680390788555485</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007642458881451224</v>
+        <v>0.007636213819425843</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.001371742112482921</v>
+        <v>0.02083333333333348</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03129979654278037</v>
+        <v>0.03042519950560411</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02848211184439042</v>
+        <v>-0.0294065069717554</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02644846785841862</v>
+        <v>0.02636700406615955</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.00363342753330631</v>
+        <v>-0.03403565640194495</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0316542935685775</v>
+        <v>0.03118237190762186</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01545538178472861</v>
+        <v>-0.01709960754999074</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03155528289872179</v>
+        <v>0.03132999915891316</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007690414667158807</v>
+        <v>-0.01308202616405219</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04678972463385465</v>
+        <v>0.04652531098360348</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006203010638474393</v>
+        <v>-0.01708438231941789</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03382379206982775</v>
+        <v>0.03400865678431718</v>
       </c>
       <c r="E22" s="1">
-        <v>0.004907447266465859</v>
+        <v>-0.0009138679460819477</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03141841520803889</v>
+        <v>0.03207687650261718</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0203911391231808</v>
+        <v>0.007569564295879072</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02982725550188703</v>
+        <v>0.03043646579583423</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01985823911897344</v>
+        <v>0.01418724870763932</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0151923136658021</v>
+        <v>0.01536857959857431</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0110408280621046</v>
+        <v>-0.04459105903765215</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01495643530526349</v>
+        <v>0.01501835336952403</v>
       </c>
       <c r="E26" s="1">
-        <v>0.003582554517133962</v>
+        <v>-0.03499922396399213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03029881808439591</v>
+        <v>0.03092888037744404</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02022836199605305</v>
+        <v>0.006908462867012188</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02913010390296178</v>
+        <v>0.02985489212429982</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02431222008957135</v>
+        <v>0.00806787424526334</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0293747184990759</v>
+        <v>0.0293537364554425</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.001268934887778461</v>
+        <v>-0.0161597713015168</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02832132262723842</v>
+        <v>0.02842465600422369</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003091539737595905</v>
+        <v>-0.01112531008043283</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03496707409880876</v>
+        <v>0.03458382032520341</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01150937739431679</v>
+        <v>-0.03272279980453952</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03078571761380403</v>
+        <v>0.0311510982399141</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01130688124306323</v>
+        <v>-0.01255230125522988</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02946285740910432</v>
+        <v>0.02927720338043096</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.006852835360630416</v>
+        <v>-0.005002587545282045</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03096898442232127</v>
+        <v>0.03153784278902065</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0178034102306921</v>
+        <v>0.01340231584134033</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03015049621818068</v>
+        <v>0.03016024743881288</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0002318034306907357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.02986045319707394</v>
+        <v>0.0297896253395184</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.002925687536570964</v>
+        <v>0.01382368283776714</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03218972774007175</v>
+        <v>0.03283230068718544</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01939592782012944</v>
+        <v>0.001561908368042486</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0005550421668972794</v>
+        <v>-0.009361121702934683</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03118664532805398</v>
+        <v>0.03126722457204629</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006801534705266787</v>
+        <v>0.01650570676031604</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02933858523754682</v>
+        <v>0.02886522092845186</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0253446152623843</v>
+        <v>-0.008171999184838019</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02899030147232931</v>
+        <v>0.02928660099621385</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0007638446849140834</v>
+        <v>-0.00992240173005976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06578134345072095</v>
+        <v>0.06493978618049852</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02203461401037654</v>
+        <v>-0.01247935456403781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01570365460972891</v>
+        <v>0.0158496945729816</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0001484340210777813</v>
+        <v>0.006309382422802878</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01601716827233965</v>
+        <v>0.01577910507814944</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02408498872153098</v>
+        <v>0.003951685058156906</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02859850651725753</v>
+        <v>0.02910169573613961</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008069117287472505</v>
+        <v>0.00804495472186284</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03437383998487987</v>
+        <v>0.03463983376958295</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001695298372513698</v>
+        <v>-0.002943507302162418</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02966783285720307</v>
+        <v>0.02959935167470635</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01164777749405821</v>
+        <v>-0.01411025875432248</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03137020816025172</v>
+        <v>0.03128095030715254</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0121797928134888</v>
+        <v>-0.00491443615620879</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01253666157676394</v>
+        <v>0.0121374714725302</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.04090486519987613</v>
+        <v>-0.06898222940226162</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01396709194322334</v>
+        <v>0.01391789539774141</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0128504672897195</v>
+        <v>0.01282051282051277</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01529146378441293</v>
+        <v>0.01508732802879424</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02258580828739087</v>
+        <v>-0.02247088791848628</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008907362151597259</v>
+        <v>0.009052710548364687</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00680390788555485</v>
+        <v>0.007364408248137222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007636213819425843</v>
+        <v>0.007868963936415337</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02083333333333348</v>
+        <v>0.004485310607759363</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03042519950560411</v>
+        <v>0.02980955150376213</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.0294065069717554</v>
+        <v>-0.008195966479418004</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02636700406615955</v>
+        <v>0.02571026267331437</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.03403565640194495</v>
+        <v>-0.0001677852348993536</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03118237190762186</v>
+        <v>0.03093878733914664</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.01709960754999074</v>
+        <v>0.03156193554520392</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03132999915891316</v>
+        <v>0.03121232163162128</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01308202616405219</v>
+        <v>-0.01049126774720455</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04652531098360348</v>
+        <v>0.04616258839128307</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01708438231941789</v>
+        <v>0.001057661675692767</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03400865678431718</v>
+        <v>0.03429865121122749</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0009138679460819477</v>
+        <v>0.0222387377086668</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03207687650261718</v>
+        <v>0.03262509193791497</v>
       </c>
       <c r="E23" s="1">
-        <v>0.007569564295879072</v>
+        <v>-0.002163656579619477</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03043646579583423</v>
+        <v>0.03115996775628741</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01418724870763932</v>
+        <v>-0.01653735062581396</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01536857959857431</v>
+        <v>0.01482202917738336</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.04459105903765215</v>
+        <v>-0.01178711751398975</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01501835336952403</v>
+        <v>0.01462967280396572</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03499922396399213</v>
+        <v>0.02782468837957386</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03092888037744404</v>
+        <v>0.03143683544157357</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006908462867012188</v>
+        <v>-0.003636363636363549</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02985489212429982</v>
+        <v>0.03038014992032211</v>
       </c>
       <c r="E28" s="1">
-        <v>0.00806787424526334</v>
+        <v>-0.02370010843186854</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0293537364554425</v>
+        <v>0.02915228487410266</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0161597713015168</v>
+        <v>-0.005327091488760649</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02842465600422369</v>
+        <v>0.02837403569357807</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01112531008043283</v>
+        <v>0.005017103762827713</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03458382032520341</v>
+        <v>0.03376824959033583</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03272279980453952</v>
+        <v>0.007473216618761436</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0311510982399141</v>
+        <v>0.03105075012122766</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01255230125522988</v>
+        <v>-0.0004862461794944428</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02927720338043096</v>
+        <v>0.02940601489163826</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.005002587545282045</v>
+        <v>0.0001733703190014424</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03153784278902065</v>
+        <v>0.03226253644917978</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01340231584134033</v>
+        <v>0.002820051538872992</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03016024743881288</v>
+        <v>0.03044524912111177</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.0002318571759796217</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0297896253395184</v>
+        <v>0.03048681849029071</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01382368283776714</v>
+        <v>0.01312065860560852</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03283230068718544</v>
+        <v>0.03319431778096433</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001561908368042486</v>
+        <v>0.003780539672038064</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.009361121702934683</v>
+        <v>-0.001116490509928569</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03126722457204629</v>
+        <v>0.03181883764230603</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01650570676031604</v>
+        <v>0.002591121091725546</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02886522092845186</v>
+        <v>0.02866133447449705</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008171999184838019</v>
+        <v>-0.006328463703795029</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02928660099621385</v>
+        <v>0.02902841752851028</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00992240173005976</v>
+        <v>0.0007709109597842101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06493978618049852</v>
+        <v>0.06420105943702807</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01247935456403781</v>
+        <v>0.01095537739945085</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0158496945729816</v>
+        <v>0.01596752394628024</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006309382422802878</v>
+        <v>0.004130707383639409</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01577910507814944</v>
+        <v>0.0158591657399619</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003951685058156906</v>
+        <v>0.01002599331600429</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02910169573613961</v>
+        <v>0.02936860733204232</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00804495472186284</v>
+        <v>0.007820332865450252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03463983376958295</v>
+        <v>0.0345764754726685</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002943507302162418</v>
+        <v>0.002952197115930533</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02959935167470635</v>
+        <v>0.02921431466869773</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01411025875432248</v>
+        <v>0.006994839542009412</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03128095030715254</v>
+        <v>0.03116201416705027</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.00491443615620879</v>
+        <v>-0.001587441573331128</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0121374714725302</v>
+        <v>0.01131283230095314</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.06898222940226162</v>
+        <v>-0.009717161200763491</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01391789539774141</v>
+        <v>0.01411208596417701</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01282051282051277</v>
+        <v>0.02921129503407993</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01508732802879424</v>
+        <v>0.01476478711636631</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02247088791848628</v>
+        <v>-0.03536528617961832</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009052710548364687</v>
+        <v>0.009129571484517242</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007364408248137222</v>
+        <v>0.01255697944439671</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007868963936415337</v>
+        <v>0.007913093577715115</v>
       </c>
       <c r="E16" s="1">
-        <v>0.004485310607759363</v>
+        <v>0.002455905336012476</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02980955150376213</v>
+        <v>0.0295982796171736</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.008195966479418004</v>
+        <v>0.01230269266480977</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02571026267331437</v>
+        <v>0.02573468139840977</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0001677852348993536</v>
+        <v>0.02106058063433447</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03093878733914664</v>
+        <v>0.03195094828153111</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03156193554520392</v>
+        <v>0.01539028660952901</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03121232163162128</v>
+        <v>0.03091938600942441</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01049126774720455</v>
+        <v>0.01587200812646805</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04616258839128307</v>
+        <v>0.04626306506498057</v>
       </c>
       <c r="E21" s="1">
-        <v>0.001057661675692767</v>
+        <v>0.01044239076011788</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03429865121122749</v>
+        <v>0.03510059940540397</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0222387377086668</v>
+        <v>0.02334880599519051</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03262509193791497</v>
+        <v>0.03259088986232422</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002163656579619477</v>
+        <v>0.01665411835566921</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03115996775628741</v>
+        <v>0.03067891716388099</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01653735062581396</v>
+        <v>0.007198387561186292</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01482202917738336</v>
+        <v>0.01466369205068887</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01178711751398975</v>
+        <v>-0.02771084337349383</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01462967280396572</v>
+        <v>0.01505354603211682</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02782468837957386</v>
+        <v>-0.03935529301306617</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03143683544157357</v>
+        <v>0.03135753006105946</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.003636363636363549</v>
+        <v>0.022035532295827</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03038014992032211</v>
+        <v>0.02969328934880055</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02370010843186854</v>
+        <v>-0.02110217897186384</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02915228487410266</v>
+        <v>0.02902939903400229</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005327091488760649</v>
+        <v>0.01322676187771332</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02837403569357807</v>
+        <v>0.02854826504181704</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005017103762827713</v>
+        <v>0.009681567203690955</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03376824959033583</v>
+        <v>0.03405863317508193</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007473216618761436</v>
+        <v>0.004461043676729837</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03105075012122766</v>
+        <v>0.03107034155409616</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0004862461794944428</v>
+        <v>0.0115713392174579</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02940601489163826</v>
+        <v>0.029443986953829</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0001733703190014424</v>
+        <v>0.01404056162246481</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03226253644917978</v>
+        <v>0.03238968123646136</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002820051538872992</v>
+        <v>0.005987878787878875</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03044524912111177</v>
+        <v>0.03048634578634785</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002318571759796217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03048681849029071</v>
+        <v>0.03092134902040844</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01312065860560852</v>
+        <v>0.02012442864398167</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03319431778096433</v>
+        <v>0.03335705304939034</v>
       </c>
       <c r="E37" s="1">
-        <v>0.003780539672038064</v>
+        <v>0.002777647003436856</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001116490509928569</v>
+        <v>0.006767185915788732</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03181883764230603</v>
+        <v>0.03168685327642729</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002591121091725546</v>
+        <v>-0.002842866988283843</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02866133447449705</v>
+        <v>0.02828851859495853</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006328463703795029</v>
+        <v>0.01058704327867499</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02902841752851028</v>
+        <v>0.02885552515033814</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0007709109597842101</v>
+        <v>0.01181152907947114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06420105943702807</v>
+        <v>0.06446813839444528</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01095537739945085</v>
+        <v>-0.004464110187305081</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01596752394628024</v>
+        <v>0.01592570888249501</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004130707383639409</v>
+        <v>-0.004627929185337498</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0158591657399619</v>
+        <v>0.01591050031601646</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01002599331600429</v>
+        <v>0.01360294117647043</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02936860733204232</v>
+        <v>0.0293993288927569</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007820332865450252</v>
+        <v>0.01157978511738955</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0345764754726685</v>
+        <v>0.03444545325768956</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002952197115930533</v>
+        <v>0.01935922110268318</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02921431466869773</v>
+        <v>0.02922092070906626</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006994839542009412</v>
+        <v>0.008587728956060303</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03116201416705027</v>
+        <v>0.0309034171211607</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001587441573331128</v>
+        <v>-0.004902393781467951</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01131283230095314</v>
+        <v>0.01112760114013553</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009717161200763491</v>
+        <v>0.04608375678990706</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01411208596417701</v>
+        <v>0.01442669017625071</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02921129503407993</v>
+        <v>0.01929990539262061</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01476478711636631</v>
+        <v>0.01414689154936979</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03536528617961832</v>
+        <v>0.03685479980704276</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009129571484517242</v>
+        <v>0.009182074520610874</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01255697944439671</v>
+        <v>0.01469464027860345</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007913093577715115</v>
+        <v>0.007879207325615504</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002455905336012476</v>
+        <v>0.02227171492204905</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0295982796171736</v>
+        <v>0.02976101980067614</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01230269266480977</v>
+        <v>-0.007108461362072993</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02573468139840977</v>
+        <v>0.02610004487502019</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02106058063433447</v>
+        <v>-0.0054236173884461</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03195094828153111</v>
+        <v>0.03222461258857893</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01539028660952901</v>
+        <v>0.00571791613723005</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03091938600942441</v>
+        <v>0.03119900925938473</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01587200812646805</v>
+        <v>-0.002937316417723879</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04626306506498057</v>
+        <v>0.04643194844061985</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01044239076011788</v>
+        <v>0.007281583975476069</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03510059940540397</v>
+        <v>0.03567871201380236</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02334880599519051</v>
+        <v>0.01344372489548307</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03259088986232422</v>
+        <v>0.03291094789632866</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01665411835566921</v>
+        <v>0.004946975531725961</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03067891716388099</v>
+        <v>0.03069205704343323</v>
       </c>
       <c r="E24" s="1">
-        <v>0.007198387561186292</v>
+        <v>0.01926815323041731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01466369205068887</v>
+        <v>0.01416151517098377</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02771084337349383</v>
+        <v>0.04448574969021069</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01505354603211682</v>
+        <v>0.01436390609412133</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03935529301306617</v>
+        <v>0.02858771786935965</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03135753006105946</v>
+        <v>0.03183308949256715</v>
       </c>
       <c r="E27" s="1">
-        <v>0.022035532295827</v>
+        <v>-0.0199434038539279</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02969328934880055</v>
+        <v>0.02887131866168124</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02110217897186384</v>
+        <v>0.0676427683829488</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02902939903400229</v>
+        <v>0.02921565620528523</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01322676187771332</v>
+        <v>0.010931806350859</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02854826504181704</v>
+        <v>0.02863090632234732</v>
       </c>
       <c r="E30" s="1">
-        <v>0.009681567203690955</v>
+        <v>0.03236197467975122</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03405863317508193</v>
+        <v>0.03398061707198633</v>
       </c>
       <c r="E31" s="1">
-        <v>0.004461043676729837</v>
+        <v>0.01991668388074097</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03107034155409616</v>
+        <v>0.03121860491234747</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0115713392174579</v>
+        <v>3.43512761500353E-05</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.029443986953829</v>
+        <v>0.02965670463316304</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01404056162246481</v>
+        <v>-0.001452991452991492</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03238968123646136</v>
+        <v>0.03236460939283015</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005987878787878875</v>
+        <v>0.006458298190230582</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03048634578634785</v>
+        <v>0.03028142574851251</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.0003477051460361036</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03092134902040844</v>
+        <v>0.0313315967620182</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02012442864398167</v>
+        <v>0.003422739436181432</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03335705304939034</v>
+        <v>0.03322486830697555</v>
       </c>
       <c r="E37" s="1">
-        <v>0.002777647003436856</v>
+        <v>0.008028169014084652</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006767185915788732</v>
+        <v>0.00927927285893837</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03168685327642729</v>
+        <v>0.03130627232419272</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002842866988283843</v>
+        <v>0.004060475161987043</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02828851859495853</v>
+        <v>0.02832517335329104</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01058704327867499</v>
+        <v>-0.019131217645735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02885552515033814</v>
+        <v>0.02892792293460225</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01181152907947114</v>
+        <v>-0.03578226113437388</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06446813839444528</v>
+        <v>0.06359027401730084</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004464110187305081</v>
+        <v>-0.03072052885973742</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01592570888249501</v>
+        <v>0.01570626312839783</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004627929185337498</v>
+        <v>0.01033210332103329</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01591050031601646</v>
+        <v>0.01597865957379809</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01360294117647043</v>
+        <v>-0.0646354733405875</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0293993288927569</v>
+        <v>0.02946634058944659</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01157978511738955</v>
+        <v>-0.006254671334723239</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03444545325768956</v>
+        <v>0.03478946942388538</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01935922110268318</v>
+        <v>-0.01588183029764556</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02922092070906626</v>
+        <v>0.02920089894690761</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008587728956060303</v>
+        <v>-0.0340385836773579</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0309034171211607</v>
+        <v>0.03046918452424995</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004902393781467951</v>
+        <v>-0.02565354400603614</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01112760114013553</v>
+        <v>0.01153338141162793</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04608375678990706</v>
+        <v>-0.04631490787269676</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01442669017625071</v>
+        <v>0.01456992561645151</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01929990539262061</v>
+        <v>-0.006497122702802893</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01414689154936979</v>
+        <v>0.01453341290142977</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03685479980704276</v>
+        <v>-0.03321857262491845</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009182074520610874</v>
+        <v>0.009231341664543197</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01469464027860345</v>
+        <v>-0.006027122049221512</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007879207325615504</v>
+        <v>0.007980636283322439</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02227171492204905</v>
+        <v>0.002614379084967311</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02976101980067614</v>
+        <v>0.02927778815631847</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.007108461362072993</v>
+        <v>-0.01205542725173214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02610004487502019</v>
+        <v>0.02571982692586702</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0054236173884461</v>
+        <v>-0.01437660084276615</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03222461258857893</v>
+        <v>0.03211090437744952</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00571791613723005</v>
+        <v>0.003790271636133991</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03119900925938473</v>
+        <v>0.03082136801358659</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.002937316417723879</v>
+        <v>-0.0410868747649491</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04643194844061985</v>
+        <v>0.04634004465369815</v>
       </c>
       <c r="E21" s="1">
-        <v>0.007281583975476069</v>
+        <v>-0.02377547744810715</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03567871201380236</v>
+        <v>0.03582592823918494</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01344372489548307</v>
+        <v>-0.005958640028040474</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03291094789632866</v>
+        <v>0.03276967875958773</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004946975531725961</v>
+        <v>0.005512159174649867</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03069205704343323</v>
+        <v>0.03099581765202378</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01926815323041731</v>
+        <v>0.01234083132327357</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01416151517098377</v>
+        <v>0.01465550832943897</v>
       </c>
       <c r="E25" s="1">
-        <v>0.04448574969021069</v>
+        <v>-0.004270969272748726</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01436390609412133</v>
+        <v>0.01463870088919086</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02858771786935965</v>
+        <v>-0.004434238657059164</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03183308949256715</v>
+        <v>0.03091139407284654</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0199434038539279</v>
+        <v>0.0048810669599888</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02887131866168124</v>
+        <v>0.03054085763151484</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0676427683829488</v>
+        <v>0.02287333636961675</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02921565620528523</v>
+        <v>0.02926349217265916</v>
       </c>
       <c r="E29" s="1">
-        <v>0.010931806350859</v>
+        <v>-0.02091420423037316</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02863090632234732</v>
+        <v>0.0292857089040216</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03236197467975122</v>
+        <v>-0.01023147812205205</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03398061707198633</v>
+        <v>0.03433875956068056</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01991668388074097</v>
+        <v>-0.03689513747067474</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03121860491234747</v>
+        <v>0.03093264485936712</v>
       </c>
       <c r="E32" s="1">
-        <v>3.43512761500353E-05</v>
+        <v>0.007969222313822577</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02965670463316304</v>
+        <v>0.02934134732691186</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.001452991452991492</v>
+        <v>-0.03868869297269539</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03236460939283015</v>
+        <v>0.0322741490557213</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006458298190230582</v>
+        <v>0.007757691847240622</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03028142574851251</v>
+        <v>0.03001345174786753</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0003477051460361036</v>
+        <v>-0.0003475842891901282</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0313315967620182</v>
+        <v>0.03114978925981386</v>
       </c>
       <c r="E36" s="1">
-        <v>0.003422739436181432</v>
+        <v>-0.0001240387000744914</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03322486830697555</v>
+        <v>0.03318368271880245</v>
       </c>
       <c r="E37" s="1">
-        <v>0.008028169014084652</v>
+        <v>-0.0031670625494854</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.00927927285893837</v>
+        <v>-0.01276650659672729</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03130627232419272</v>
+        <v>0.03183987463494551</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004060475161987043</v>
+        <v>-0.01144381345723622</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02832517335329104</v>
+        <v>0.02814256048104613</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.019131217645735</v>
+        <v>0.01211982143602164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02892792293460225</v>
+        <v>0.02825351512936099</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.03578226113437388</v>
+        <v>0.01105408606395586</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06359027401730084</v>
+        <v>0.06243380880107143</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.03072052885973742</v>
+        <v>0.01047488003410146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01570626312839783</v>
+        <v>0.01607374746487219</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01033210332103329</v>
+        <v>-0.01964937910883868</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01597865957379809</v>
+        <v>0.01513914534784967</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0646354733405875</v>
+        <v>-0.004420660772452289</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02946634058944659</v>
+        <v>0.02966070185957643</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006254671334723239</v>
+        <v>-0.001266724724883095</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03478946942388538</v>
+        <v>0.03467968743273253</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01588183029764556</v>
+        <v>-0.008802618214648561</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02920089894690761</v>
+        <v>0.02857170253352318</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0340385836773579</v>
+        <v>0.01723889950481827</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03046918452424995</v>
+        <v>0.03007144931427288</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02565354400603614</v>
+        <v>0.008427094246799882</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01153338141162793</v>
+        <v>0.0111414513259374</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.04631490787269676</v>
+        <v>0.0194959163958901</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01456992561645151</v>
+        <v>0.01466245130323769</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006497122702802893</v>
+        <v>0.002989536621823552</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01453341290142977</v>
+        <v>0.01423233081470848</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03321857262491845</v>
+        <v>0.02127045235803648</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009231341664543197</v>
+        <v>0.009294359746671166</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006027122049221512</v>
+        <v>-0.03663466397170279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007980636283322439</v>
+        <v>0.008104972881666379</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002614379084967311</v>
+        <v>-0.01760104302477183</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02927778815631847</v>
+        <v>0.02929887620748794</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01205542725173214</v>
+        <v>0.007807751648043482</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02571982692586702</v>
+        <v>0.02567788006565698</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01437660084276615</v>
+        <v>-0.0004191466174869873</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03211090437744952</v>
+        <v>0.03264943262450208</v>
       </c>
       <c r="E19" s="1">
-        <v>0.003790271636133991</v>
+        <v>-0.0005394228175852334</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03082136801358659</v>
+        <v>0.02993720788791664</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0410868747649491</v>
+        <v>0.001830244795241187</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04634004465369815</v>
+        <v>0.04582329131798468</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.02377547744810715</v>
+        <v>-0.0140498620636641</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03582592823918494</v>
+        <v>0.03607298037100731</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005958640028040474</v>
+        <v>-0.02376044266030164</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03276967875958773</v>
+        <v>0.0333764106112564</v>
       </c>
       <c r="E23" s="1">
-        <v>0.005512159174649867</v>
+        <v>-0.03066369606003738</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03099581765202378</v>
+        <v>0.03178410377997243</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01234083132327357</v>
+        <v>-0.02233058126004317</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01465550832943897</v>
+        <v>0.01478162481439069</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.004270969272748726</v>
+        <v>-0.0315739306564996</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01463870088919086</v>
+        <v>0.01476225178055793</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.004434238657059164</v>
+        <v>-0.005806092420265641</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03091139407284654</v>
+        <v>0.03146395950370592</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0048810669599888</v>
+        <v>-0.01334063077238823</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03054085763151484</v>
+        <v>0.03164340467567194</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02287333636961675</v>
+        <v>-0.02072923366150492</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02926349217265916</v>
+        <v>0.02902197880472687</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02091420423037316</v>
+        <v>-0.003843353022089158</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0292857089040216</v>
+        <v>0.02936090905319483</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01023147812205205</v>
+        <v>0.005278592375366653</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03433875956068056</v>
+        <v>0.03349949786661804</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03689513747067474</v>
+        <v>0.00283896745702128</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03093264485936712</v>
+        <v>0.0315823502660172</v>
       </c>
       <c r="E32" s="1">
-        <v>0.007969222313822577</v>
+        <v>-0.007292802617230087</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02934134732691186</v>
+        <v>0.02857091978468145</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.03868869297269539</v>
+        <v>0.004808120381088132</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0322741490557213</v>
+        <v>0.03294511599946461</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007757691847240622</v>
+        <v>-0.02183468364655849</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03001345174786753</v>
+        <v>0.03039100652890809</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0003475842891901282</v>
+        <v>-0.0001159017153454789</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03114978925981386</v>
+        <v>0.03154869206582292</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0001240387000744914</v>
+        <v>-0.01662324773601298</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03318368271880245</v>
+        <v>0.03350634691898315</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0031670625494854</v>
+        <v>-0.02238004018128292</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.01276650659672729</v>
+        <v>-0.005514661277179811</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03183987463494551</v>
+        <v>0.03165004432297032</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01144381345723622</v>
+        <v>0.0006092784402471629</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02814256048104613</v>
+        <v>0.02864159196696586</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01211982143602164</v>
+        <v>-0.02699973206372763</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02825351512936099</v>
+        <v>0.02872423635113237</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01105408606395586</v>
+        <v>-0.0285044904334244</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06243380880107143</v>
+        <v>0.06343763251387491</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01047488003410146</v>
+        <v>-0.02232382417623313</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01607374746487219</v>
+        <v>0.01584528971284028</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01964937910883868</v>
+        <v>-0.009164741822517142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01513914534784967</v>
+        <v>0.01515579942207963</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004420660772452289</v>
+        <v>-0.02921243281140451</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02966070185957643</v>
+        <v>0.02978739732173164</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001266724724883095</v>
+        <v>-0.005826397146254547</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03467968743273253</v>
+        <v>0.03456502981592931</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008802618214648561</v>
+        <v>-0.04019127860639871</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02857170253352318</v>
+        <v>0.02922541550939932</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01723889950481827</v>
+        <v>-0.02040074331421182</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03007144931427288</v>
+        <v>0.03049302294463908</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008427094246799882</v>
+        <v>-0.006685337428855243</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0111414513259374</v>
+        <v>0.01142165066415585</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0194959163958901</v>
+        <v>-0.05357911964854856</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01466245130323769</v>
+        <v>0.01478783514019538</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002989536621823552</v>
+        <v>-0.07749627421758554</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01423233081470848</v>
+        <v>0.01461565933984846</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02127045235803648</v>
+        <v>-0.03581189331825452</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009294359746671166</v>
+        <v>0.009003515337912226</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.03663466397170279</v>
+        <v>-0.01774630649532305</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008104972881666379</v>
+        <v>0.008006469874646179</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01760104302477183</v>
+        <v>-0.0238885202388851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02929887620748794</v>
+        <v>0.02969137241822387</v>
       </c>
       <c r="E17" s="1">
-        <v>0.007807751648043482</v>
+        <v>-0.02328817962516239</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02567788006565698</v>
+        <v>0.02580944763051663</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0004191466174869873</v>
+        <v>-0.02046293190204618</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03264943262450208</v>
+        <v>0.03281277209925591</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.0005394228175852334</v>
+        <v>0.0011693802284789</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.02993720788791664</v>
+        <v>0.03015831318876469</v>
       </c>
       <c r="E20" s="1">
-        <v>0.001830244795241187</v>
+        <v>-0.01298404723844315</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04582329131798468</v>
+        <v>0.0454300115210207</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.0140498620636641</v>
+        <v>-0.03018070306138376</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03607298037100731</v>
+        <v>0.03541115089191984</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02376044266030164</v>
+        <v>-0.01533674149811082</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0333764106112564</v>
+        <v>0.03253237151011951</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.03066369606003738</v>
+        <v>-0.04131131676041866</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03178410377997243</v>
+        <v>0.03124666101930041</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02233058126004317</v>
+        <v>-0.018476535932895</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01478162481439069</v>
+        <v>0.01439429045368815</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0315739306564996</v>
+        <v>-0.03973917322834652</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01476225178055793</v>
+        <v>0.01475792574402083</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.005806092420265641</v>
+        <v>-0.03271999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03146395950370592</v>
+        <v>0.03121635807843936</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.01334063077238823</v>
+        <v>-0.0202468450977672</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03164340467567194</v>
+        <v>0.03115929409889581</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.02072923366150492</v>
+        <v>-0.004395271294331593</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02902197880472687</v>
+        <v>0.02907075244760198</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.003843353022089158</v>
+        <v>-0.02936279088656935</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02936090905319483</v>
+        <v>0.02967956607762866</v>
       </c>
       <c r="E30" s="1">
-        <v>0.005278592375366653</v>
+        <v>-0.02720245040840152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03349949786661804</v>
+        <v>0.03378089202806367</v>
       </c>
       <c r="E31" s="1">
-        <v>0.00283896745702128</v>
+        <v>-0.03828746177370035</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0315823502660172</v>
+        <v>0.03152588097437729</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.007292802617230087</v>
+        <v>-0.009749399244764922</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02857091978468145</v>
+        <v>0.028867486617021</v>
       </c>
       <c r="E33" s="1">
-        <v>0.004808120381088132</v>
+        <v>-0.04111652636242791</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03294511599946461</v>
+        <v>0.03240446948700466</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.02183468364655849</v>
+        <v>-0.0153752732572261</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03039100652890809</v>
+        <v>0.03055599009448024</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0001159017153454789</v>
+        <v>-0.000115915150110002</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03154869206582292</v>
+        <v>0.03119628729942749</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01662324773601298</v>
+        <v>-0.006875236533366857</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03350634691898315</v>
+        <v>0.03293811608190846</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.02238004018128292</v>
+        <v>-0.03001338176256929</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005514661277179811</v>
+        <v>-0.02195782578367045</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03165004432297032</v>
+        <v>0.03238032964987903</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0006092784402471629</v>
+        <v>0.01426583159359773</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02864159196696586</v>
+        <v>0.02849394166494817</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02699973206372763</v>
+        <v>0.004384757143764961</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02872423635113237</v>
+        <v>0.02853196658233451</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0285044904334244</v>
+        <v>-0.02076634512325837</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06343763251387491</v>
+        <v>0.06341389317814874</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02232382417623313</v>
+        <v>0.003023534711955156</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01584528971284028</v>
+        <v>0.016052550838208</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009164741822517142</v>
+        <v>0.005790344412693882</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01515579942207963</v>
+        <v>0.01504338160217688</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02921243281140451</v>
+        <v>0.01998074145402007</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02978739732173164</v>
+        <v>0.03027869850163718</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005826397146254547</v>
+        <v>0.004943587290196616</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03456502981592931</v>
+        <v>0.03392064058908444</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.04019127860639871</v>
+        <v>0.0131672597864767</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02922541550939932</v>
+        <v>0.02927194354607503</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.02040074331421182</v>
+        <v>0.003464060373623568</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03049302294463908</v>
+        <v>0.03096918271576374</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006685337428855243</v>
+        <v>-0.0628467485220553</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01142165066415585</v>
+        <v>0.0110523747969238</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.05357911964854856</v>
+        <v>-0.01483571493583347</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01478783514019538</v>
+        <v>0.01394810302941902</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.07749627421758554</v>
+        <v>0.02261712439418417</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01461565933984846</v>
+        <v>0.0144086270288758</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.03581189331825452</v>
+        <v>-0.02121004789365666</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009003515337912226</v>
+        <v>0.009042285116463884</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01774630649532305</v>
+        <v>0.02109291562833748</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008006469874646179</v>
+        <v>0.007990664782186635</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.0238885202388851</v>
+        <v>0.0258327668252889</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02969137241822387</v>
+        <v>0.02965098557970395</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.02328817962516239</v>
+        <v>0.006269592476489061</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02580944763051663</v>
+        <v>0.02584889622114809</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.02046293190204618</v>
+        <v>-0.000684931506849229</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03281277209925591</v>
+        <v>0.03358867702460051</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0011693802284789</v>
+        <v>-0.002336028751123043</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03015831318876469</v>
+        <v>0.03043502316200325</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01298404723844315</v>
+        <v>0.008957197157494656</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0454300115210207</v>
+        <v>0.04504805927058551</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.03018070306138376</v>
+        <v>0.01022294871107765</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03541115089191984</v>
+        <v>0.03565087492518246</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01533674149811082</v>
+        <v>0.01244356659142221</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03253237151011951</v>
+        <v>0.03188862119436467</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.04131131676041866</v>
+        <v>0.02656151419558372</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03124666101930041</v>
+        <v>0.03135788187126855</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.018476535932895</v>
+        <v>0.01622589213535042</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01439429045368815</v>
+        <v>0.01413259429525644</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03973917322834652</v>
+        <v>0.005253042921204543</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01475792574402083</v>
+        <v>0.0145955325751822</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03271999999999997</v>
+        <v>0.01248862790505334</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03121635807843936</v>
+        <v>0.0312709677743855</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0202468450977672</v>
+        <v>0.02031139419674433</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03115929409889581</v>
+        <v>0.03171881680138016</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.004395271294331593</v>
+        <v>-0.006647384178210758</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02907075244760198</v>
+        <v>0.02885065160423907</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.02936279088656935</v>
+        <v>0.01686192468619252</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02967956607762866</v>
+        <v>0.02952041324434027</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.02720245040840152</v>
+        <v>0.001649299047904673</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03378089202806367</v>
+        <v>0.03321687783237852</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.03828746177370035</v>
+        <v>-0.006777628375186251</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03152588097437729</v>
+        <v>0.03191940327034409</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.009749399244764922</v>
+        <v>0.01483741246619985</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.028867486617021</v>
+        <v>0.02830200636766474</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.04111652636242791</v>
+        <v>0.004990296645411618</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03240446948700466</v>
+        <v>0.03262256245693276</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.0153752732572261</v>
+        <v>0.007869353923575906</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03055599009448024</v>
+        <v>0.03123837498805434</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.000115915150110002</v>
+        <v>0.0002318571759796217</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03119628729942749</v>
+        <v>0.03167737165332944</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.006875236533366857</v>
+        <v>0.02572245157192765</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03293811608190846</v>
+        <v>0.03266682426553062</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.03001338176256929</v>
+        <v>0.02783799763500205</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.02195782578367045</v>
+        <v>0.005790249324755914</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03238032964987903</v>
+        <v>0.03265319185750534</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01426583159359773</v>
+        <v>-0.001457975986277837</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02849394166494817</v>
+        <v>0.02845412420574872</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004384757143764961</v>
+        <v>0.02615151003880545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02853196658233451</v>
+        <v>0.02777861680007121</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.02076634512325837</v>
+        <v>0.02052264331645914</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06341389317814874</v>
+        <v>0.06323945507335667</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003023534711955156</v>
+        <v>0.01943083439033111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.016052550838208</v>
+        <v>0.01605255235582458</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005790344412693882</v>
+        <v>0.003214953271028165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01504338160217688</v>
+        <v>0.01525562564447747</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01998074145402007</v>
+        <v>0.02391629297458908</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03027869850163718</v>
+        <v>0.03025321026043141</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004943587290196616</v>
+        <v>-0.00273733486729888</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03392064058908444</v>
+        <v>0.03416943293983744</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0131672597864767</v>
+        <v>0.02423603793466822</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02927194354607503</v>
+        <v>0.02920424347471248</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003464060373623568</v>
+        <v>0.01378786010767286</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.03096918271576374</v>
+        <v>0.02885578807030318</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0628467485220553</v>
+        <v>0.01664402173913038</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0110523747969238</v>
+        <v>0.01082572128968506</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01483571493583347</v>
+        <v>0.04693274205469322</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01394810302941902</v>
+        <v>0.01418145485132136</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02261712439418417</v>
+        <v>0.02172195892575046</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0144086270288758</v>
+        <v>0.01402182947088587</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02121004789365666</v>
+        <v>0.04563610944677432</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009042285116463884</v>
+        <v>0.009179859597676032</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02109291562833748</v>
+        <v>0.01821668264621268</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007990664782186635</v>
+        <v>0.008149895833437518</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0258327668252889</v>
+        <v>0.03379721669980107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02965098557970395</v>
+        <v>0.02966511675356382</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006269592476489061</v>
+        <v>0.02737656943264422</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02584889622114809</v>
+        <v>0.02568248351487887</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.000684931506849229</v>
+        <v>0.008481836874571602</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03358867702460051</v>
+        <v>0.0333172974502946</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.002336028751123043</v>
+        <v>0.01909221902017277</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03043502316200325</v>
+        <v>0.03053085440585053</v>
       </c>
       <c r="E20" s="1">
-        <v>0.008957197157494656</v>
+        <v>0.03498656882657403</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04504805927058551</v>
+        <v>0.04524659420847914</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01022294871107765</v>
+        <v>0.02395699324040557</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03565087492518246</v>
+        <v>0.03588670598625181</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01244356659142221</v>
+        <v>0.02775842367826975</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03188862119436467</v>
+        <v>0.03254717500082514</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02656151419558372</v>
+        <v>-0.005500583860856723</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03135788187126855</v>
+        <v>0.03168323763478394</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01622589213535042</v>
+        <v>0.002841070515370081</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01413259429525644</v>
+        <v>0.01412504588229529</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005253042921204543</v>
+        <v>0.07405047157787403</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0145955325751822</v>
+        <v>0.01469273614504706</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01248862790505334</v>
+        <v>0.03471654958340142</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0312709677743855</v>
+        <v>0.0317224438685751</v>
       </c>
       <c r="E27" s="1">
-        <v>0.02031139419674433</v>
+        <v>0.003537490462648396</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03171881680138016</v>
+        <v>0.0313265809263673</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006647384178210758</v>
+        <v>-0.003882304863097596</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02885065160423907</v>
+        <v>0.02916823774980222</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01686192468619252</v>
+        <v>0.021067357939349</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02952041324434027</v>
+        <v>0.02939887442103295</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001649299047904673</v>
+        <v>0.01736396976274235</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03321687783237852</v>
+        <v>0.0328018154886627</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.006777628375186251</v>
+        <v>0.04227877279961967</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03191940327034409</v>
+        <v>0.03220652083681306</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01483741246619985</v>
+        <v>0.001503040240486309</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02830200636766474</v>
+        <v>0.02827949643993395</v>
       </c>
       <c r="E33" s="1">
-        <v>0.004990296645411618</v>
+        <v>0.0341149425287357</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03262256245693276</v>
+        <v>0.03268999770963583</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007869353923575906</v>
+        <v>0.003035049931466638</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03123837498805434</v>
+        <v>0.03106573945257296</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002318571759796217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03167737165332944</v>
+        <v>0.03230513651670616</v>
       </c>
       <c r="E36" s="1">
-        <v>0.02572245157192765</v>
+        <v>0.01554179566563452</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03266682426553062</v>
+        <v>0.0333829078823533</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02783799763500205</v>
+        <v>0.01222376683763948</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.005790249324755914</v>
+        <v>0.01724514197757432</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03265319185750534</v>
+        <v>0.03205282870608252</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001457975986277837</v>
+        <v>0.003950871768444664</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02845412420574872</v>
+        <v>0.02870325088385083</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02615151003880545</v>
+        <v>-0.007851035843472576</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02777861680007121</v>
+        <v>0.02786811779643637</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02052264331645914</v>
+        <v>0.0008043973723019793</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06323945507335667</v>
+        <v>0.06337533382218215</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01943083439033111</v>
+        <v>0.01473517639393096</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01605255235582458</v>
+        <v>0.01583115012987136</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003214953271028165</v>
+        <v>-0.004098971530779649</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01525562564447747</v>
+        <v>0.01535567289762079</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02391629297458908</v>
+        <v>-0.002689204763734132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03025321026043141</v>
+        <v>0.02965892472534701</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.00273733486729888</v>
+        <v>0.003978041212507</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03416943293983744</v>
+        <v>0.03440425829386264</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02423603793466822</v>
+        <v>0.003429355281207025</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02920424347471248</v>
+        <v>0.02910498785055386</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01378786010767286</v>
+        <v>-0.008979062366986312</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02885578807030318</v>
+        <v>0.02883873633175018</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01664402173913038</v>
+        <v>0.007350484463748863</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01082572128968506</v>
+        <v>0.01114166252246374</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04693274205469322</v>
+        <v>-0.01526650194140466</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01418145485132136</v>
+        <v>0.01424386633387193</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02172195892575046</v>
+        <v>0.006184770003865525</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01402182947088587</v>
+        <v>0.0144131739835691</v>
       </c>
       <c r="E14" s="1">
-        <v>0.04563610944677432</v>
+        <v>-0.02292044694871531</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009179859597676032</v>
+        <v>0.009188627009348497</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01821668264621268</v>
+        <v>0.01121383324773162</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008149895833437518</v>
+        <v>0.008282506626300264</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03379721669980107</v>
+        <v>0.002350427350427342</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02966511675356382</v>
+        <v>0.0299605715716135</v>
       </c>
       <c r="E17" s="1">
-        <v>0.02737656943264422</v>
+        <v>-0.01194523568868866</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02568248351487887</v>
+        <v>0.02546123552896449</v>
       </c>
       <c r="E18" s="1">
-        <v>0.008481836874571602</v>
+        <v>-0.007136182142553515</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0333172974502946</v>
+        <v>0.0333777937974408</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01909221902017277</v>
+        <v>0.002916224814422108</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03053085440585053</v>
+        <v>0.03106333266278852</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03498656882657403</v>
+        <v>-0.001519275811863063</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04524659420847914</v>
+        <v>0.04554513425349387</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02395699324040557</v>
+        <v>0.002266682785299734</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03588670598625181</v>
+        <v>0.0362575969679576</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02775842367826975</v>
+        <v>0.001301624318680972</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03254717500082514</v>
+        <v>0.03181941618553602</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.005500583860856723</v>
+        <v>-0.01118561320025968</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03168323763478394</v>
+        <v>0.03123460671956696</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002841070515370081</v>
+        <v>-0.002379738228795003</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01412504588229529</v>
+        <v>0.0149138212264599</v>
       </c>
       <c r="E25" s="1">
-        <v>0.07405047157787403</v>
+        <v>0.003203987184051238</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01469273614504706</v>
+        <v>0.01494508709905206</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03471654958340142</v>
+        <v>-0.01531538643719899</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0317224438685751</v>
+        <v>0.03129497541696188</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003537490462648396</v>
+        <v>0.002972076306331228</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0313265809263673</v>
+        <v>0.03067595046777875</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003882304863097596</v>
+        <v>0.02235897435897449</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02916823774980222</v>
+        <v>0.0292778350329973</v>
       </c>
       <c r="E29" s="1">
-        <v>0.021067357939349</v>
+        <v>-0.01196856739875085</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02939887442103295</v>
+        <v>0.02940230860124156</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01736396976274235</v>
+        <v>0.003531229309203354</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0328018154886627</v>
+        <v>0.03360904327019791</v>
       </c>
       <c r="E31" s="1">
-        <v>0.04227877279961967</v>
+        <v>-0.005441269395492498</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03220652083681306</v>
+        <v>0.03170811754473626</v>
       </c>
       <c r="E32" s="1">
-        <v>0.001503040240486309</v>
+        <v>-0.00286513404734301</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02827949643993395</v>
+        <v>0.02874847824671999</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0341149425287357</v>
+        <v>-0.02365285434821285</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03268999770963583</v>
+        <v>0.03223334487614291</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003035049931466638</v>
+        <v>-0.002855051244509577</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03106573945257296</v>
+        <v>0.03053908853492251</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03230513651670616</v>
+        <v>0.03225104253987431</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01554179566563452</v>
+        <v>0.004024144869215318</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.0333829078823533</v>
+        <v>0.03321812154244185</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01222376683763948</v>
+        <v>-0.00539874976321264</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01724514197757432</v>
+        <v>-0.0008652191157577649</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03205282870608252</v>
+        <v>0.03220733172118889</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003950871768444664</v>
+        <v>0.002737616562580092</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02870325088385083</v>
+        <v>0.02850256159347627</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007851035843472576</v>
+        <v>-0.004391597961635574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02786811779643637</v>
+        <v>0.02791468715810241</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008043973723019793</v>
+        <v>-0.002813127930341719</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06337533382218215</v>
+        <v>0.06436487026120952</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01473517639393096</v>
+        <v>-0.01165304443812498</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01583115012987136</v>
+        <v>0.01577991177750438</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004098971530779649</v>
+        <v>-0.005163511187607606</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01535567289762079</v>
+        <v>0.0153276401161421</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002689204763734132</v>
+        <v>-0.006856702619414512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02965892472534701</v>
+        <v>0.02980269501164826</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003978041212507</v>
+        <v>-0.0060226642364688</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03440425829386264</v>
+        <v>0.0345521378889305</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003429355281207025</v>
+        <v>0.003531556163135274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02910498785055386</v>
+        <v>0.02886863004000971</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008979062366986312</v>
+        <v>-0.005440340328056625</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02883873633175018</v>
+        <v>0.0290758720153859</v>
       </c>
       <c r="E11" s="1">
-        <v>0.007350484463748863</v>
+        <v>0.0126510305614782</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01114166252246374</v>
+        <v>0.0109810693410394</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01526650194140466</v>
+        <v>-0.01039519670221334</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01424386633387193</v>
+        <v>0.01434437239631357</v>
       </c>
       <c r="E13" s="1">
-        <v>0.006184770003865525</v>
+        <v>-0.0005762581636572506</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0144131739835691</v>
+        <v>0.01409501286848676</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.02292044694871531</v>
+        <v>0.003127748998142721</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009188627009348497</v>
+        <v>0.009299713029891457</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01121383324773162</v>
+        <v>-0.02454922542961135</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008282506626300264</v>
+        <v>0.008309163303330808</v>
       </c>
       <c r="E16" s="1">
-        <v>0.002350427350427342</v>
+        <v>-0.02259646130888915</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0299605715716135</v>
+        <v>0.02962832047206298</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01194523568868866</v>
+        <v>-0.003394401562354599</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02546123552896449</v>
+        <v>0.02530143079623627</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.007136182142553515</v>
+        <v>-0.009155471891845846</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0333777937974408</v>
+        <v>0.03350411935248396</v>
       </c>
       <c r="E19" s="1">
-        <v>0.002916224814422108</v>
+        <v>-0.006608511763150915</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03106333266278852</v>
+        <v>0.03104299788802124</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.001519275811863063</v>
+        <v>-0.01743485703417236</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04554513425349387</v>
+        <v>0.0456879006702792</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002266682785299734</v>
+        <v>-0.007745292731572651</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0362575969679576</v>
+        <v>0.03633622953829913</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001301624318680972</v>
+        <v>-0.01270142180094791</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03181941618553602</v>
+        <v>0.03149074289655004</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01118561320025968</v>
+        <v>-0.01018718165057342</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03123460671956696</v>
+        <v>0.03118726034571425</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.002379738228795003</v>
+        <v>-0.01499403646277031</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0149138212264599</v>
+        <v>0.01497456119513082</v>
       </c>
       <c r="E25" s="1">
-        <v>0.003203987184051238</v>
+        <v>0.005204636858292089</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01494508709905206</v>
+        <v>0.01472894107616645</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01531538643719899</v>
+        <v>0.0113044175418906</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03129497541696188</v>
+        <v>0.03141516747533023</v>
       </c>
       <c r="E27" s="1">
-        <v>0.002972076306331228</v>
+        <v>-0.00826958858796778</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03067595046777875</v>
+        <v>0.03138899161329317</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02235897435897449</v>
+        <v>-0.01038322632423772</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.0292778350329973</v>
+        <v>0.02895247152292543</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.01196856739875085</v>
+        <v>-0.008565135818582204</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02940230860124156</v>
+        <v>0.02953168627461786</v>
       </c>
       <c r="E30" s="1">
-        <v>0.003531229309203354</v>
+        <v>-0.006231214720328393</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03360904327019791</v>
+        <v>0.03345511341528674</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.005441269395492498</v>
+        <v>-0.01057145882602106</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03170811754473626</v>
+        <v>0.03164464909288829</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00286513404734301</v>
+        <v>-0.004515290415269879</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02874847824671999</v>
+        <v>0.02809280110655012</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.02365285434821285</v>
+        <v>0.009471766848816232</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03223334487614291</v>
+        <v>0.03216915038859346</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002855051244509577</v>
+        <v>0.004282602843648231</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03053908853492251</v>
+        <v>0.03056553441958568</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.0001159017153453679</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03225104253987431</v>
+        <v>0.03240886617777504</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004024144869215318</v>
+        <v>-0.0140887836278617</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03321812154244185</v>
+        <v>0.03306739575954971</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.00539874976321264</v>
+        <v>-0.01709361013236832</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0008652191157577649</v>
+        <v>-0.005976165795154809</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03220733172118889</v>
+        <v>0.03248966668065826</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002737616562580092</v>
+        <v>-0.01160310553707022</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02850256159347627</v>
+        <v>0.0285479973674686</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004391597961635574</v>
+        <v>-0.0003120968748699937</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02791468715810241</v>
+        <v>0.02800351320977965</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002813127930341719</v>
+        <v>0.02404621171413224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06436487026120952</v>
+        <v>0.06399728193508482</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01165304443812498</v>
+        <v>-0.000148501986214078</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01577991177750438</v>
+        <v>0.01579281249232772</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005163511187607606</v>
+        <v>-0.002707988566270414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0153276401161421</v>
+        <v>0.01531406242203977</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006856702619414512</v>
+        <v>0.01357536265611659</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02980269501164826</v>
+        <v>0.02980130090134898</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0060226642364688</v>
+        <v>-0.008889420393845215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0345521378889305</v>
+        <v>0.0348826250551414</v>
       </c>
       <c r="E9" s="1">
-        <v>0.003531556163135274</v>
+        <v>-0.006016573958451676</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02886863004000971</v>
+        <v>0.02888419158556163</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005440340328056625</v>
+        <v>0.002920128321131754</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0290758720153859</v>
+        <v>0.02962073015523541</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0126510305614782</v>
+        <v>-0.005521242747520083</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0109810693410394</v>
+        <v>0.01093225191519828</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01039519670221334</v>
+        <v>-0.00642941229738303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01434437239631357</v>
+        <v>0.01442229636886485</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0005762581636572506</v>
+        <v>-0.002498558523928551</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01409501286848676</v>
+        <v>0.01422410413546608</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003127748998142721</v>
+        <v>0.001266686154146157</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009299713029891457</v>
+        <v>0.009125950471345087</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02454922542961135</v>
+        <v>-0.004859845526338669</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008309163303330808</v>
+        <v>0.008170232278921614</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02259646130888915</v>
+        <v>0.0004362050163575493</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02962832047206298</v>
+        <v>0.02970527369535656</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003394401562354599</v>
+        <v>0.03270657397471188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02530143079623627</v>
+        <v>0.02522050618415207</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.009155471891845846</v>
+        <v>-0.003540587219343694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03350411935248396</v>
+        <v>0.0334828057842829</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.006608511763150915</v>
+        <v>0.001773993258825657</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03104299788802124</v>
+        <v>0.03068514718495751</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01743485703417236</v>
+        <v>0.01171118854045683</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0456879006702792</v>
+        <v>0.04560658703074375</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.007745292731572651</v>
+        <v>0.002292233755746942</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03633622953829913</v>
+        <v>0.03609038991401507</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01270142180094791</v>
+        <v>-0.01695194206714934</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03149074289655004</v>
+        <v>0.03135733762690441</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01018718165057342</v>
+        <v>-0.00726124704025255</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03118726034571425</v>
+        <v>0.03090432680770721</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01499403646277031</v>
+        <v>-0.01239693247996321</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01497456119513082</v>
+        <v>0.01514299539940586</v>
       </c>
       <c r="E25" s="1">
-        <v>0.005204636858292089</v>
+        <v>-0.01164979995293025</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01472894107616645</v>
+        <v>0.01498499599655649</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0113044175418906</v>
+        <v>0.001268431901062295</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03141516747533023</v>
+        <v>0.0313426860532066</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.00826958858796778</v>
+        <v>-0.00500312695434646</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03138899161329317</v>
+        <v>0.03124982675504074</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01038322632423772</v>
+        <v>0.007349586902529293</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02895247152292543</v>
+        <v>0.02887706379295188</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008565135818582204</v>
+        <v>0.0001645548790520923</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02953168627461786</v>
+        <v>0.02952410896652551</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006231214720328393</v>
+        <v>-0.01917969902626138</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03345511341528674</v>
+        <v>0.03330045309001689</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01057145882602106</v>
+        <v>0.003567415229295712</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03164464909288829</v>
+        <v>0.03169115591412752</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.004515290415269879</v>
+        <v>-0.0005497903924127634</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02809280110655012</v>
+        <v>0.02852938590898759</v>
       </c>
       <c r="E33" s="1">
-        <v>0.009471766848816232</v>
+        <v>0.0140743413929989</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03216915038859346</v>
+        <v>0.03250115034652952</v>
       </c>
       <c r="E34" s="1">
-        <v>0.004282602843648231</v>
+        <v>-0.002144354013353444</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03056553441958568</v>
+        <v>0.0307528612147501</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0001159017153453679</v>
+        <v>-0.0003476648510835068</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03240886617777504</v>
+        <v>0.03214436472756389</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0140887836278617</v>
+        <v>-0.007637819525715961</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03306739575954971</v>
+        <v>0.03269756063177586</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.01709361013236832</v>
+        <v>0.06094075473526117</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.005976165795154809</v>
+        <v>0.001466543329455394</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03248966668065826</v>
+        <v>0.0320656599695654</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01160310553707022</v>
+        <v>0.01087613293051359</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0285479973674686</v>
+        <v>0.02849729510865729</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0003120968748699937</v>
+        <v>0.02331050846046567</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02800351320977965</v>
+        <v>0.02863489729953723</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02404621171413224</v>
+        <v>0.02400629673356947</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06399728193508482</v>
+        <v>0.06389407478244125</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.000148501986214078</v>
+        <v>0.004913670400396031</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01579281249232772</v>
+        <v>0.01572698143695042</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002707988566270414</v>
+        <v>0.0007542615779152495</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01531406242203977</v>
+        <v>0.01549922608652845</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01357536265611659</v>
+        <v>0.01515383437930495</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02980130090134898</v>
+        <v>0.02949313165386169</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008889420393845215</v>
+        <v>0.01327273458552858</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0348826250551414</v>
+        <v>0.03462197653289532</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006016573958451676</v>
+        <v>0.01815897670169031</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02888419158556163</v>
+        <v>0.02892611572937365</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002920128321131754</v>
+        <v>0.02864465860159937</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02962073015523541</v>
+        <v>0.02941404993496517</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005521242747520083</v>
+        <v>0.02093723534393521</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01093225191519828</v>
+        <v>0.01084605774665736</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00642941229738303</v>
+        <v>0.03727670433831554</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01442229636886485</v>
+        <v>0.01436519423755239</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002498558523928551</v>
+        <v>0.02909441233140653</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01422410413546608</v>
+        <v>0.01422126550916073</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001266686154146157</v>
+        <v>0.0173219151420787</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009125950471345087</v>
+        <v>0.009068300705863652</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004859845526338669</v>
+        <v>-0.002092962413883237</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008170232278921614</v>
+        <v>0.00816182650301232</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0004362050163575493</v>
+        <v>-0.002398081534772167</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02970527369535656</v>
+        <v>0.03063190840597154</v>
       </c>
       <c r="E17" s="1">
-        <v>0.03270657397471188</v>
+        <v>0.01102376434444752</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02522050618415207</v>
+        <v>0.02509440874454015</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.003540587219343694</v>
+        <v>0.003379842274027212</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0334828057842829</v>
+        <v>0.03349308499564754</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001773993258825657</v>
+        <v>0.004692757216220977</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03068514718495751</v>
+        <v>0.03099904528594861</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01171118854045683</v>
+        <v>0.01600816352562284</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04560658703074375</v>
+        <v>0.04564418880839468</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002292233755746942</v>
+        <v>0.02052228300652748</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03609038991401507</v>
+        <v>0.03542663302266739</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01695194206714934</v>
+        <v>0.003906467994865714</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03135733762690441</v>
+        <v>0.03108405813376238</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.00726124704025255</v>
+        <v>0.004611225950071463</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03090432680770721</v>
+        <v>0.03047651282833988</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01239693247996321</v>
+        <v>-0.008524054180289675</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01514299539940586</v>
+        <v>0.01494466553276662</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01164979995293025</v>
+        <v>0.007977140135730476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01498499599655649</v>
+        <v>0.01498203164494522</v>
       </c>
       <c r="E26" s="1">
-        <v>0.001268431901062295</v>
+        <v>0.002612826603325402</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0313426860532066</v>
+        <v>0.0311402061541789</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.00500312695434646</v>
+        <v>0.004818772260632764</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03124982675504074</v>
+        <v>0.03143340162698775</v>
       </c>
       <c r="E28" s="1">
-        <v>0.007349586902529293</v>
+        <v>0.00840293851262941</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02887706379295188</v>
+        <v>0.02883952124718197</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0001645548790520923</v>
+        <v>0.01382033563672258</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02952410896652551</v>
+        <v>0.02891543969732263</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01917969902626138</v>
+        <v>0.002331528279181594</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03330045309001689</v>
+        <v>0.03337031062706069</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003567415229295712</v>
+        <v>0.03887101647619229</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03169115591412752</v>
+        <v>0.03162734954258145</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0005497903924127634</v>
+        <v>0.0123770886337069</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02852938590898759</v>
+        <v>0.02888855191289781</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0140743413929989</v>
+        <v>0.007829181494662052</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03250115034652952</v>
+        <v>0.03238396388812388</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002144354013353444</v>
+        <v>-0.002100122100122115</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0307528612147501</v>
+        <v>0.03069715082406117</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0003476648510835068</v>
+        <v>0.0004637143519590214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03214436472756389</v>
+        <v>0.0318521393285448</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.007637819525715961</v>
+        <v>-0.001737943020296617</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03269756063177586</v>
+        <v>0.03463937451105255</v>
       </c>
       <c r="E37" s="1">
-        <v>0.06094075473526117</v>
+        <v>0.01269348431578465</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.001466543329455394</v>
+        <v>0.01107420850567364</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0320656599695654</v>
+        <v>0.03205937811212316</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01087613293051359</v>
+        <v>-0.008453590641277375</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02849729510865729</v>
+        <v>0.02884217726262414</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02331050846046567</v>
+        <v>-0.007321984257733782</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02863489729953723</v>
+        <v>0.02900115035510835</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02400629673356947</v>
+        <v>-0.01140148603638236</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06389407478244125</v>
+        <v>0.06350476420653361</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004913670400396031</v>
+        <v>-0.01373288008670803</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01572698143695042</v>
+        <v>0.01556645749874904</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007542615779152495</v>
+        <v>-0.002487187217365294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01549922608652845</v>
+        <v>0.01556176456612958</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01515383437930495</v>
+        <v>-0.008896260554885349</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02949313165386169</v>
+        <v>0.02955726287051436</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01327273458552858</v>
+        <v>-0.003651808041916449</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03462197653289532</v>
+        <v>0.03486457858540541</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01815897670169031</v>
+        <v>0.01783510936623656</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02892611572937365</v>
+        <v>0.02942879384005665</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02864465860159937</v>
+        <v>-0.007534833655590267</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02941404993496517</v>
+        <v>0.02970098393198533</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02093723534393521</v>
+        <v>-0.02732844831559056</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01084605774665736</v>
+        <v>0.01112713877959896</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03727670433831554</v>
+        <v>-0.02038485194622619</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01436519423755239</v>
+        <v>0.01462122265364613</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02909441233140653</v>
+        <v>-0.009548773637895525</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01422126550916073</v>
+        <v>0.01430914263445203</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0173219151420787</v>
+        <v>-0.004782858236081933</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009068300705863652</v>
+        <v>0.008950204660746924</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.002092962413883237</v>
+        <v>-0.004019924844883449</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.00816182650301232</v>
+        <v>0.008053072374993473</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.002398081534772167</v>
+        <v>0.01005244755244772</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03063190840597154</v>
+        <v>0.03063038012949757</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01102376434444752</v>
+        <v>-0.005362409509339416</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02509440874454015</v>
+        <v>0.02490343802288313</v>
       </c>
       <c r="E18" s="1">
-        <v>0.003379842274027212</v>
+        <v>0.0002591121091726212</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03349308499564754</v>
+        <v>0.03328169152063336</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004692757216220977</v>
+        <v>0.0005287741253194866</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03099904528594861</v>
+        <v>0.03115031795596192</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01600816352562284</v>
+        <v>-0.007469947584821668</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04564418880839468</v>
+        <v>0.04607071506409862</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02052228300652748</v>
+        <v>-0.004664507722540456</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03542663302266739</v>
+        <v>0.03517548537144464</v>
       </c>
       <c r="E22" s="1">
-        <v>0.003906467994865714</v>
+        <v>0.01801100672633282</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03108405813376238</v>
+        <v>0.03088536280182156</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004611225950071463</v>
+        <v>-0.0004115226337448874</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03047651282833988</v>
+        <v>0.02988576815387657</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008524054180289675</v>
+        <v>0.005123071487457498</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01494466553276662</v>
+        <v>0.01489888783363085</v>
       </c>
       <c r="E25" s="1">
-        <v>0.007977140135730476</v>
+        <v>-0.02173399480274041</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01498203164494522</v>
+        <v>0.01485665144005571</v>
       </c>
       <c r="E26" s="1">
-        <v>0.002612826603325402</v>
+        <v>0.005764826660348943</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0311402061541789</v>
+        <v>0.03094754415902941</v>
       </c>
       <c r="E27" s="1">
-        <v>0.004818772260632764</v>
+        <v>0.005977203224909911</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03143340162698775</v>
+        <v>0.0313503542088664</v>
       </c>
       <c r="E28" s="1">
-        <v>0.00840293851262941</v>
+        <v>0.01132678010079347</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02883952124718197</v>
+        <v>0.02891785080111293</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01382033563672258</v>
+        <v>-0.005314832846478379</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02891543969732263</v>
+        <v>0.02866541013395781</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002331528279181594</v>
+        <v>-0.004577174157724961</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03337031062706069</v>
+        <v>0.03428773895093011</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03887101647619229</v>
+        <v>0.02595380667236946</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03162734954258145</v>
+        <v>0.03166810485497568</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0123770886337069</v>
+        <v>-0.0008829722203356205</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02888855191289781</v>
+        <v>0.02879583455300697</v>
       </c>
       <c r="E33" s="1">
-        <v>0.007829181494662052</v>
+        <v>-0.01262358757062154</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03238396388812388</v>
+        <v>0.03196199976026936</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.002100122100122115</v>
+        <v>0.007316953797964043</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03069715082406117</v>
+        <v>0.03037500637945528</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0004637143519590214</v>
+        <v>-0.0002317497103128119</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0318521393285448</v>
+        <v>0.03144851471615678</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.001737943020296617</v>
+        <v>0.0113784741652676</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03463937451105255</v>
+        <v>0.03469485085566827</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01269348431578465</v>
+        <v>0.01487893953740027</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01107420850567364</v>
+        <v>-0.0009690905859184307</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03205937811212316</v>
+        <v>0.03181919693755301</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008453590641277375</v>
+        <v>-0.001808473992421678</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02884217726262414</v>
+        <v>0.02865876823725117</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007321984257733782</v>
+        <v>0.01999713155899774</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02900115035510835</v>
+        <v>0.02869830540189234</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01140148603638236</v>
+        <v>0.00349876895166501</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06350476420653361</v>
+        <v>0.06269341649447449</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01373288008670803</v>
+        <v>0.0130842813791725</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01556645749874904</v>
+        <v>0.01554280318888763</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002487187217365294</v>
+        <v>-0.001737816395919745</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01556176456612958</v>
+        <v>0.0154382841496877</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008896260554885349</v>
+        <v>0.01102997109386883</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02955726287051436</v>
+        <v>0.02947789216805957</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003651808041916449</v>
+        <v>-0.01298753037727574</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03486457858540541</v>
+        <v>0.03552081504494808</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01783510936623656</v>
+        <v>0.005289839100727445</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02942879384005665</v>
+        <v>0.02923538450969121</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.007534833655590267</v>
+        <v>0.01006246359637664</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02970098393198533</v>
+        <v>0.0289173256357214</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02732844831559056</v>
+        <v>-0.002937553302378548</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01112713877959896</v>
+        <v>0.0109108873411981</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02038485194622619</v>
+        <v>0.03022692618172029</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01462122265364613</v>
+        <v>0.01449565551151011</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.009548773637895525</v>
+        <v>0.01058601134215498</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01430914263445203</v>
+        <v>0.01425451795290654</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.004782858236081933</v>
+        <v>-0.001249519415609468</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008950204660746924</v>
+        <v>0.008922872582483431</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004019924844883449</v>
+        <v>0.007107133456172754</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008053072374993473</v>
+        <v>0.008141915716551413</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01005244755244772</v>
+        <v>0.003894418000865318</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03063038012949757</v>
+        <v>0.03049568056476296</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.005362409509339416</v>
+        <v>0.01981310090753885</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02490343802288313</v>
+        <v>0.02493405416239245</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0002591121091726212</v>
+        <v>0.0002590449874795286</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03328169152063336</v>
+        <v>0.03333159134934667</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0005287741253194866</v>
+        <v>0.007398925394169087</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03115031795596192</v>
+        <v>0.03094761775860682</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.007469947584821668</v>
+        <v>0.02656294469215448</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04607071506409862</v>
+        <v>0.04590029940594431</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.004664507722540456</v>
+        <v>0.02625474393416072</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03517548537144464</v>
+        <v>0.03584376713236358</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01801100672633282</v>
+        <v>0.005542510784688481</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03088536280182156</v>
+        <v>0.03090260019490648</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.0004115226337448874</v>
+        <v>-0.002945181619533277</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02988576815387657</v>
+        <v>0.03006801370960971</v>
       </c>
       <c r="E24" s="1">
-        <v>0.005123071487457498</v>
+        <v>0.002343429609233061</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01489888783363085</v>
+        <v>0.01458921375259169</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02173399480274041</v>
+        <v>0.03682685341704928</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01485665144005571</v>
+        <v>0.01495679194663187</v>
       </c>
       <c r="E26" s="1">
-        <v>0.005764826660348943</v>
+        <v>0.01648869346733672</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03094754415902941</v>
+        <v>0.03116272342167933</v>
       </c>
       <c r="E27" s="1">
-        <v>0.005977203224909911</v>
+        <v>-0.0001381788033715248</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0313503542088664</v>
+        <v>0.03173620803751412</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01132678010079347</v>
+        <v>-0.01499901322281438</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02891785080111293</v>
+        <v>0.02879205937151175</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.005314832846478379</v>
+        <v>0.02288208182077756</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02866541013395781</v>
+        <v>0.02856188261102652</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004577174157724961</v>
+        <v>0.01055329413538364</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03428773895093011</v>
+        <v>0.03521175968371834</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02595380667236946</v>
+        <v>0.0413727550152585</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03166810485497568</v>
+        <v>0.0316708347058797</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0008829722203356205</v>
+        <v>0.005098572399728107</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02879583455300697</v>
+        <v>0.02845990804281836</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.01262358757062154</v>
+        <v>0.01591417076441659</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03196199976026936</v>
+        <v>0.03222709521038567</v>
       </c>
       <c r="E34" s="1">
-        <v>0.007316953797964043</v>
+        <v>-0.001651969001287612</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03037500637945528</v>
+        <v>0.03039742483877351</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.0002317497103128119</v>
+        <v>0.0002318034306907357</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03144851471615678</v>
+        <v>0.03183720396303314</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0113784741652676</v>
+        <v>0.00541005778925352</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03469485085566827</v>
+        <v>0.03524522926368686</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01487893953740027</v>
+        <v>0.00142165356079782</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0009690905859184307</v>
+        <v>0.008728122687345241</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03181919693755301</v>
+        <v>0.03148683181630321</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001808473992421678</v>
+        <v>-0.01164696747476479</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02865876823725117</v>
+        <v>0.02897892974187527</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01999713155899774</v>
+        <v>0.014563204306691</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02869830540189234</v>
+        <v>0.02854953033833878</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00349876895166501</v>
+        <v>0.005423553719008378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06269341649447449</v>
+        <v>0.06296415591874591</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0130842813791725</v>
+        <v>0.004332833074986553</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01554280318888763</v>
+        <v>0.01538154067652235</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001737816395919745</v>
+        <v>-0.0001513775355738156</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0154382841496877</v>
+        <v>0.01547351325549944</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01102997109386883</v>
+        <v>0.006320066210217412</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02947789216805957</v>
+        <v>0.02884329929313058</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01298753037727574</v>
+        <v>-0.02320887991927345</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03552081504494808</v>
+        <v>0.03539974115734102</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005289839100727445</v>
+        <v>-0.002302126726595022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02923538450969121</v>
+        <v>0.02927405694150427</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01006246359637664</v>
+        <v>-0.003102008351560825</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0289173256357214</v>
+        <v>0.02858290435433891</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002937553302378548</v>
+        <v>0.003278844326173758</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0109108873411981</v>
+        <v>0.01114342871446007</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03022692618172029</v>
+        <v>-0.009489813686226589</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01449565551151011</v>
+        <v>0.0145223537994959</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01058601134215498</v>
+        <v>-0.008604564160119788</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01425451795290654</v>
+        <v>0.01411352210349437</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.001249519415609468</v>
+        <v>0.001539794052545451</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008922872582483431</v>
+        <v>0.008908533852312217</v>
       </c>
       <c r="E15" s="1">
-        <v>0.007107133456172754</v>
+        <v>-0.004181913225300593</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008141915716551413</v>
+        <v>0.008102900628867359</v>
       </c>
       <c r="E16" s="1">
-        <v>0.003894418000865318</v>
+        <v>-0.003017241379310365</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03049568056476296</v>
+        <v>0.03083079955992867</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01981310090753885</v>
+        <v>0.003171945900700468</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02493405416239245</v>
+        <v>0.02472471287674316</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0002590449874795286</v>
+        <v>-0.005265883977900621</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03333159134934667</v>
+        <v>0.0332876704354727</v>
       </c>
       <c r="E19" s="1">
-        <v>0.007398925394169087</v>
+        <v>0.006907405788231014</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03094761775860682</v>
+        <v>0.03149478725034974</v>
       </c>
       <c r="E20" s="1">
-        <v>0.02656294469215448</v>
+        <v>0.009734158888580868</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04590029940594431</v>
+        <v>0.04669781574826678</v>
       </c>
       <c r="E21" s="1">
-        <v>0.02625474393416072</v>
+        <v>0.0009972285356945054</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03584376713236358</v>
+        <v>0.03573057079269109</v>
       </c>
       <c r="E22" s="1">
-        <v>0.005542510784688481</v>
+        <v>-0.01026365092725845</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03090260019490648</v>
+        <v>0.03054498603918342</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.002945181619533277</v>
+        <v>0.006066573497649719</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03006801370960971</v>
+        <v>0.02987769975415768</v>
       </c>
       <c r="E24" s="1">
-        <v>0.002343429609233061</v>
+        <v>-0.01998947922146233</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01458921375259169</v>
+        <v>0.01499560510777673</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03682685341704928</v>
+        <v>0.03645044835216016</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01495679194663187</v>
+        <v>0.01507186085363747</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01648869346733672</v>
+        <v>-0.003321489263092725</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03116272342167933</v>
+        <v>0.0308888160179754</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0001381788033715248</v>
+        <v>-0.006426202321724861</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03173620803751412</v>
+        <v>0.03098971420588275</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01499901322281438</v>
+        <v>-0.01813263874974946</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02879205937151175</v>
+        <v>0.02919605488085282</v>
       </c>
       <c r="E29" s="1">
-        <v>0.02288208182077756</v>
+        <v>0.003748305287502918</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02856188261102652</v>
+        <v>0.02861356188066461</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01055329413538364</v>
+        <v>0.001939430105922568</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03521175968371834</v>
+        <v>0.03635128868329805</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0413727550152585</v>
+        <v>0.002289905201127374</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0316708347058797</v>
+        <v>0.03155687844290812</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005098572399728107</v>
+        <v>0.003043625295908292</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02845990804281836</v>
+        <v>0.02866265272978107</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01591417076441659</v>
+        <v>0.005720320337939011</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03222709521038567</v>
+        <v>0.03189546947732798</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001651969001287612</v>
+        <v>0.005110110719065641</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03039742483877351</v>
+        <v>0.03014139328755401</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002318034306907357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03183720396303314</v>
+        <v>0.03173248009686225</v>
       </c>
       <c r="E36" s="1">
-        <v>0.00541005778925352</v>
+        <v>-0.01033386327503971</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03524522926368686</v>
+        <v>0.03498993928645577</v>
       </c>
       <c r="E37" s="1">
-        <v>0.00142165356079782</v>
+        <v>-0.0004879996450910529</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38" s="1">
-        <v>0.008728122687345241</v>
+        <v>-0.0006059712323743804</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03148683181630321</v>
+        <v>0.03113897503333115</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01164696747476479</v>
+        <v>0.001222067039106101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02897892974187527</v>
+        <v>0.02941878275233483</v>
       </c>
       <c r="E3" s="1">
-        <v>0.014563204306691</v>
+        <v>0.003761780312029783</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02854953033833878</v>
+        <v>0.02872177481906431</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005423553719008378</v>
+        <v>0.006164911379398896</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06296415591874591</v>
+        <v>0.0632753121149104</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004332833074986553</v>
+        <v>0.001874779460272036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01538154067652235</v>
+        <v>0.01538853726769395</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0001513775355738156</v>
+        <v>-0.008099924299772687</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01547351325549944</v>
+        <v>0.01558074836906939</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006320066210217412</v>
+        <v>-0.004934579439252351</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02884329929313058</v>
+        <v>0.02819096153506387</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02320887991927345</v>
+        <v>-0.01425619834710734</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03539974115734102</v>
+        <v>0.03533966128520885</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002302126726595022</v>
+        <v>0.01219646192726076</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02927405694150427</v>
+        <v>0.02920094350410933</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003102008351560825</v>
+        <v>0.002034547412933296</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02858290435433891</v>
+        <v>0.02869401099331008</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003278844326173758</v>
+        <v>0.003078671908303132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01114342871446007</v>
+        <v>0.01104437222398146</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009489813686226589</v>
+        <v>0.02241364155752823</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0145223537994959</v>
+        <v>0.01440612497177506</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.008604564160119788</v>
+        <v>-0.0007547169811320531</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01411352210349437</v>
+        <v>0.01414382477181727</v>
       </c>
       <c r="E14" s="1">
-        <v>0.001539794052545451</v>
+        <v>0.005092726049774177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008908533852312217</v>
+        <v>0.008876658136247382</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.004181913225300593</v>
+        <v>0.01014873140857397</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008102900628867359</v>
+        <v>0.008083350499661494</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.003017241379310365</v>
+        <v>0.0105923043666234</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03083079955992867</v>
+        <v>0.03094734638983867</v>
       </c>
       <c r="E17" s="1">
-        <v>0.003171945900700468</v>
+        <v>0.00865135479337753</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02472471287674316</v>
+        <v>0.02460942801276825</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.005265883977900621</v>
+        <v>-0.003471318233099097</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0332876704354727</v>
+        <v>0.0335379249005987</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006907405788231014</v>
+        <v>-0.00521014241055906</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03149478725034974</v>
+        <v>0.03182064490901716</v>
       </c>
       <c r="E20" s="1">
-        <v>0.009734158888580868</v>
+        <v>-0.0003965953811890799</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04669781574826678</v>
+        <v>0.04677272706974953</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0009972285356945054</v>
+        <v>0.01015329567011336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03573057079269109</v>
+        <v>0.03538528715270706</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01026365092725845</v>
+        <v>0.007928451894323896</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03054498603918342</v>
+        <v>0.03074892240437837</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006066573497649719</v>
+        <v>0.001831097079715738</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02987769975415768</v>
+        <v>0.02929821397056296</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.01998947922146233</v>
+        <v>0.01055645016997686</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01499560510777673</v>
+        <v>0.0155516254749216</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03645044835216016</v>
+        <v>0.03921348314606732</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01507186085363747</v>
+        <v>0.01503090812755905</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003321489263092725</v>
+        <v>0.02650546384561703</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0308888160179754</v>
+        <v>0.03070892696308207</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.006426202321724861</v>
+        <v>-0.002851380485430099</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03098971420588275</v>
+        <v>0.03044623845786898</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01813263874974946</v>
+        <v>-0.008774614835220906</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02919605488085282</v>
+        <v>0.02932325965953007</v>
       </c>
       <c r="E29" s="1">
-        <v>0.003748305287502918</v>
+        <v>-0.0009137136500873</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02861356188066461</v>
+        <v>0.02868643904083166</v>
       </c>
       <c r="E30" s="1">
-        <v>0.001939430105922568</v>
+        <v>0.01913341274568192</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03635128868329805</v>
+        <v>0.03645662135209055</v>
       </c>
       <c r="E31" s="1">
-        <v>0.002289905201127374</v>
+        <v>0.003339138214759396</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03155687844290812</v>
+        <v>0.03167211814886342</v>
       </c>
       <c r="E32" s="1">
-        <v>0.003043625295908292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02866265272978107</v>
+        <v>0.02884409097448504</v>
       </c>
       <c r="E33" s="1">
-        <v>0.005720320337939011</v>
+        <v>0.01505075253762689</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03189546947732798</v>
+        <v>0.03207789714065601</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005110110719065641</v>
+        <v>0.0003873623048056274</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03014139328755401</v>
+        <v>0.03015966917945469</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.0002317497103128119</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03173248009686225</v>
+        <v>0.03142360278546891</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01033386327503971</v>
+        <v>-0.0001235712079084017</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03498993928645577</v>
+        <v>0.03499406960798837</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.0004879996450910529</v>
+        <v>0.008033732800710069</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1332,10 +1332,10 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.0006059712323743804</v>
+        <v>0.004048276439170717</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03113897503333115</v>
+        <v>0.03105132460255736</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001222067039106101</v>
+        <v>-0.02074978204010458</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02941878275233483</v>
+        <v>0.02941038836780022</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003761780312029783</v>
+        <v>-0.0171604402540535</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02872177481906431</v>
+        <v>0.02878232321454884</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006164911379398896</v>
+        <v>0.001021189685984192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0632753121149104</v>
+        <v>0.06313833792457726</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001874779460272036</v>
+        <v>-0.01073454287079334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01538853726769395</v>
+        <v>0.01520234797361972</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008099924299772687</v>
+        <v>0.0139662672670382</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01558074836906939</v>
+        <v>0.01544135306272646</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004934579439252351</v>
+        <v>0.004132541888947294</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02819096153506387</v>
+        <v>0.02767702136233675</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01425619834710734</v>
+        <v>-0.01358205826870684</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03533966128520885</v>
+        <v>0.03562645438270749</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01219646192726076</v>
+        <v>0.0003256621797653736</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02920094350410933</v>
+        <v>0.0291423778067145</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002034547412933296</v>
+        <v>0.002985906521219883</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02869401099331008</v>
+        <v>0.02866630132663294</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003078671908303132</v>
+        <v>0.00453300594957029</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01104437222398146</v>
+        <v>0.01124638833531408</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02241364155752823</v>
+        <v>0.003008940852819997</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01440612497177506</v>
+        <v>0.01433721142939353</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0007547169811320531</v>
+        <v>-0.0003776435045318438</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01414382477181727</v>
+        <v>0.01415853772200305</v>
       </c>
       <c r="E14" s="1">
-        <v>0.005092726049774177</v>
+        <v>-0.006214149139579295</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.008876658136247382</v>
+        <v>0.00893059145251282</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01014873140857397</v>
+        <v>0.02217218084185002</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008083350499661494</v>
+        <v>0.008136034890102135</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0105923043666234</v>
+        <v>0.02032085561497321</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03094734638983867</v>
+        <v>0.03108922508594322</v>
       </c>
       <c r="E17" s="1">
-        <v>0.00865135479337753</v>
+        <v>-0.01676245210727956</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02460942801276825</v>
+        <v>0.0244251212138674</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.003471318233099097</v>
+        <v>-0.01001480449359915</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0335379249005987</v>
+        <v>0.03322866869911232</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.00521014241055906</v>
+        <v>0.001134776536312776</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03182064490901716</v>
+        <v>0.03167977649543512</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0003965953811890799</v>
+        <v>0.01553439540987589</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04677272706974953</v>
+        <v>0.04705712414999465</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01015329567011336</v>
+        <v>-0.01274691497536495</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03538528715270706</v>
+        <v>0.03552203468358318</v>
       </c>
       <c r="E22" s="1">
-        <v>0.007928451894323896</v>
+        <v>0.01080566140446382</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03074892240437837</v>
+        <v>0.03068102141029246</v>
       </c>
       <c r="E23" s="1">
-        <v>0.001831097079715738</v>
+        <v>0.004537862792676428</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02929821397056296</v>
+        <v>0.02948812303270387</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01055645016997686</v>
+        <v>0.01664305949008482</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0155516254749216</v>
+        <v>0.01609629662001169</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03921348314606732</v>
+        <v>0.02454319385879566</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01503090812755905</v>
+        <v>0.01536709905446029</v>
       </c>
       <c r="E26" s="1">
-        <v>0.02650546384561703</v>
+        <v>0.00166100415251047</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03070892696308207</v>
+        <v>0.03049790019719853</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.002851380485430099</v>
+        <v>0.003068768307992853</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03044623845786898</v>
+        <v>0.03005740376274452</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.008774614835220906</v>
+        <v>5.146680391132641E-05</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02932325965953007</v>
+        <v>0.02917834459196843</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.0009137136500873</v>
+        <v>-0.00866833671318934</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02868643904083166</v>
+        <v>0.02911743310081258</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01913341274568192</v>
+        <v>-0.002410694718386952</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03645662135209055</v>
+        <v>0.03643087280559102</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003339138214759396</v>
+        <v>-0.01350318471337586</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03167211814886342</v>
+        <v>0.03154441762619992</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>-0.01207012811867858</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02884409097448504</v>
+        <v>0.02916016782952827</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01505075253762689</v>
+        <v>-0.00198275862068964</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03207789714065601</v>
+        <v>0.03196093620381797</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0003873623048056274</v>
+        <v>-0.001234239248808056</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,10 +1287,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03015966917945469</v>
+        <v>0.03004502809470016</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0002317497103128119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03142360278546891</v>
+        <v>0.03129303686904881</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0001235712079084017</v>
+        <v>0.01557189643452994</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03499406960798837</v>
+        <v>0.03513297461943855</v>
       </c>
       <c r="E37" s="1">
-        <v>0.008033732800710069</v>
+        <v>0.001144819690898746</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.004048276439170717</v>
+        <v>-0.001436544342211854</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -729,10 +729,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03105132460255736</v>
+        <v>0.03045076025235432</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02074978204010458</v>
+        <v>0.007834757834757733</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -746,10 +746,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02941038836780022</v>
+        <v>0.02894727720265398</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0171604402540535</v>
+        <v>0.01264349361804618</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,10 +763,10 @@
         <v>79</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02878232321454884</v>
+        <v>0.02885316427604986</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001021189685984192</v>
+        <v>0.02116806937005866</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -780,10 +780,10 @@
         <v>80</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06313833792457726</v>
+        <v>0.06255043320025197</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01073454287079334</v>
+        <v>-0.002179492339270173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -797,10 +797,10 @@
         <v>81</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01520234797361972</v>
+        <v>0.01543684373904073</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0139662672670382</v>
+        <v>-0.01678458527773607</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +814,10 @@
         <v>79</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01544135306272646</v>
+        <v>0.01552747100169655</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004132541888947294</v>
+        <v>0.006734510625561407</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -831,10 +831,10 @@
         <v>78</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02767702136233675</v>
+        <v>0.02734038612248739</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01358205826870684</v>
+        <v>0.01117674556967385</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -848,10 +848,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03562645438270749</v>
+        <v>0.03568932587065592</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003256621797653736</v>
+        <v>0.005642973412913754</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -865,10 +865,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0291423778067145</v>
+        <v>0.02927144394984594</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002985906521219883</v>
+        <v>-0.00208391219783266</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -882,10 +882,10 @@
         <v>80</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02866630132663294</v>
+        <v>0.02883767243627964</v>
       </c>
       <c r="E11" s="1">
-        <v>0.00453300594957029</v>
+        <v>0.005734699633355156</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -899,10 +899,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01124638833531408</v>
+        <v>0.01129645591245097</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003008940852819997</v>
+        <v>0.01388531756235545</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -916,10 +916,10 @@
         <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01433721142939353</v>
+        <v>0.01435241495512498</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0003776435045318438</v>
+        <v>-0.001322251605591296</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -933,10 +933,10 @@
         <v>79</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01415853772200305</v>
+        <v>0.0140907965110053</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.006214149139579295</v>
+        <v>0.0001924001924000773</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -950,10 +950,10 @@
         <v>82</v>
       </c>
       <c r="D15" s="1">
-        <v>0.00893059145251282</v>
+        <v>0.009141734648409791</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02217218084185002</v>
+        <v>-0.00643958651076082</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -967,10 +967,10 @@
         <v>82</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008136034890102135</v>
+        <v>0.008313308516697008</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02032085561497321</v>
+        <v>-0.006079664570230792</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,10 +984,10 @@
         <v>79</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03108922508594322</v>
+        <v>0.03061206903396179</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01676245210727956</v>
+        <v>0.05433290528273482</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0244251212138674</v>
+        <v>0.02421529474483875</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01001480449359915</v>
+        <v>0.01125967628430669</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,10 +1018,10 @@
         <v>79</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03322866869911232</v>
+        <v>0.03331423318588329</v>
       </c>
       <c r="E19" s="1">
-        <v>0.001134776536312776</v>
+        <v>-0.004185194873136289</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1035,10 +1035,10 @@
         <v>83</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03167977649543512</v>
+        <v>0.03221818552213987</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01553439540987589</v>
+        <v>-0.0120811419984973</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1052,10 +1052,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04705712414999465</v>
+        <v>0.04652412495795418</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.01274691497536495</v>
+        <v>0.003766893790244197</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1069,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03552203468358318</v>
+        <v>0.03595752834667793</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01080566140446382</v>
+        <v>0.001750276005062279</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1086,10 +1086,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03068102141029246</v>
+        <v>0.03086458602221646</v>
       </c>
       <c r="E23" s="1">
-        <v>0.004537862792676428</v>
+        <v>0.0004391881293723809</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,10 +1103,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02948812303270387</v>
+        <v>0.03002202358671334</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01664305949008482</v>
+        <v>-0.004179728317659337</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,10 +1120,10 @@
         <v>80</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01609629662001169</v>
+        <v>0.0165150757870484</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02454319385879566</v>
+        <v>-0.01572393414943019</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1137,10 +1137,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01536709905446029</v>
+        <v>0.01541476786736816</v>
       </c>
       <c r="E26" s="1">
-        <v>0.00166100415251047</v>
+        <v>-0.006029999246250028</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,10 +1154,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03049790019719853</v>
+        <v>0.03063550044161426</v>
       </c>
       <c r="E27" s="1">
-        <v>0.003068768307992853</v>
+        <v>-0.0005562508691419055</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,10 +1171,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03005740376274452</v>
+        <v>0.03010219385752426</v>
       </c>
       <c r="E28" s="1">
-        <v>5.146680391132641E-05</v>
+        <v>-0.0098811178014514</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1188,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02917834459196843</v>
+        <v>0.02896702929836102</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.00866833671318934</v>
+        <v>0.001484096105250465</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1205,10 +1205,10 @@
         <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02911743310081258</v>
+        <v>0.02908902753655154</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.002410694718386952</v>
+        <v>-0.0007322788517867274</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1222,10 +1222,10 @@
         <v>79</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03643087280559102</v>
+        <v>0.03599064215418679</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01350318471337586</v>
+        <v>0.04884426652892571</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,10 +1239,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03154441762619992</v>
+        <v>0.03120850486511545</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.01207012811867858</v>
+        <v>0.00976042590949433</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,10 +1256,10 @@
         <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02916016782952827</v>
+        <v>0.02914421721573297</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.00198275862068964</v>
+        <v>0.01373412801243856</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,10 +1273,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03196093620381797</v>
+        <v>0.03196741136585935</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001234239248808056</v>
+        <v>-0.001889992730797152</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03004502809470016</v>
+        <v>0.03008825120173105</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03129303686904881</v>
+        <v>0.03182604832795605</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01557189643452994</v>
+        <v>-0.0006693033160936057</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1321,10 +1321,10 @@
         <v>80</v>
       </c>
       <c r="D37" s="1">
-        <v>0.03513297461943855</v>
+        <v>0.03522379608556066</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001144819690898746</v>
+        <v>-0.001979152922549243</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.001436544342211854</v>
+        <v>0.004766451801303973</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Symbol</t>
   </si>
@@ -79,7 +79,7 @@
     <t>CRM</t>
   </si>
   <si>
-    <t>CTXS</t>
+    <t>AMAT</t>
   </si>
   <si>
     <t>AKAM</t>
@@ -130,9 +130,6 @@
     <t>UNH</t>
   </si>
   <si>
-    <t>SHY</t>
-  </si>
-  <si>
     <t>JPM</t>
   </si>
   <si>
@@ -190,7 +187,7 @@
     <t>Salesforce.Com Inc</t>
   </si>
   <si>
-    <t>Citrix Systems Inc</t>
+    <t>Applied Materials Inc</t>
   </si>
   <si>
     <t>Akamai Technologies Inc</t>
@@ -241,9 +238,6 @@
     <t>UnitedHealth Group Inc</t>
   </si>
   <si>
-    <t>Ishares Trust Lehman 1 3yr</t>
-  </si>
-  <si>
     <t>JPMorgan Chase &amp; Co</t>
   </si>
   <si>
@@ -272,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -691,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,16 +717,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03045076025235432</v>
+        <v>0.03067183519475883</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007834757834757733</v>
+        <v>0.01477657112337538</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,16 +734,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02894727720265398</v>
+        <v>0.02979112861689868</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01264349361804618</v>
+        <v>0.01076197957580516</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,16 +751,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02885316427604986</v>
+        <v>0.03155020154256264</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02116806937005866</v>
+        <v>-0.01149709482012617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,16 +768,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06255043320025197</v>
+        <v>0.06365640274267163</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002179492339270173</v>
+        <v>0.00522041230228143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,16 +785,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01543684373904073</v>
+        <v>0.03035746429052708</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01678458527773607</v>
+        <v>-0.003237742830712098</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,16 +802,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01552747100169655</v>
+        <v>0.01570294367787825</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006734510625561407</v>
+        <v>-0.009761549925484392</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,16 +819,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02734038612248739</v>
+        <v>0.03232910811297305</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01117674556967385</v>
+        <v>0.01140106409931607</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,16 +836,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03568932587065592</v>
+        <v>0.0313662984639705</v>
       </c>
       <c r="E9" s="1">
-        <v>0.005642973412913754</v>
+        <v>-0.004333579959834966</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,16 +853,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02927144394984594</v>
+        <v>0.0480127448928867</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00208391219783266</v>
+        <v>-0.01336339080809912</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,16 +870,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02883767243627964</v>
+        <v>0.02946232629398633</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005734699633355156</v>
+        <v>-0.0115837271800574</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,16 +887,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01129645591245097</v>
+        <v>0.01572498084424189</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01388531756235545</v>
+        <v>-0.01206701970657165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,16 +904,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01435241495512498</v>
+        <v>0.01768921393817619</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.001322251605591296</v>
+        <v>-0.006449479080535836</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,16 +921,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0140907965110053</v>
+        <v>0.01405951712083056</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0001924001924000773</v>
+        <v>-0.00116516166618108</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.009141734648409791</v>
+        <v>0.007265829267346127</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.00643958651076082</v>
+        <v>-0.009340526612448552</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,16 +955,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.008313308516697008</v>
+        <v>0.00792557912405579</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.006079664570230792</v>
+        <v>-0.01437007874015739</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,16 +972,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03061206903396179</v>
+        <v>0.03227450274499235</v>
       </c>
       <c r="E17" s="1">
-        <v>0.05433290528273482</v>
+        <v>-0.001395820996531461</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,16 +989,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02421529474483875</v>
+        <v>0.02914483508301284</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01125967628430669</v>
+        <v>-0.008906226998380617</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03331423318588329</v>
+        <v>0.03202604832068017</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.004185194873136289</v>
+        <v>0.004177323103154329</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03221818552213987</v>
+        <v>0.03253699854964243</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.0120811419984973</v>
+        <v>-0.01027930951810119</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,16 +1040,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04652412495795418</v>
+        <v>0.04842033496102835</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003766893790244197</v>
+        <v>0.003443623255533046</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03595752834667793</v>
+        <v>0.03000955008882148</v>
       </c>
       <c r="E22" s="1">
-        <v>0.001750276005062279</v>
+        <v>-0.004990902001559716</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,16 +1074,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03086458602221646</v>
+        <v>0.03031573018785612</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0004391881293723809</v>
+        <v>-0.01145062721132206</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.03002202358671334</v>
+        <v>0.02904635040147622</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.004179728317659337</v>
+        <v>0.0005438395069188307</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,16 +1108,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0165150757870484</v>
+        <v>0.01481365625647829</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01572393414943019</v>
+        <v>-0.02274881516587679</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,16 +1125,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01541476786736816</v>
+        <v>0.01498332293556118</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.006029999246250028</v>
+        <v>-0.01077704021866466</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,16 +1142,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03063550044161426</v>
+        <v>0.03197865866203978</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0005562508691419055</v>
+        <v>0.01073321258469173</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,16 +1159,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03010219385752426</v>
+        <v>0.02994402364724465</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.0098811178014514</v>
+        <v>-0.007190121398426452</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,16 +1176,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02896702929836102</v>
+        <v>0.02955359526618265</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001484096105250465</v>
+        <v>0.004038484380567642</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,16 +1193,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02908902753655154</v>
+        <v>0.02860638715088887</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.0007322788517867274</v>
+        <v>-0.01132358455193094</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03599064215418679</v>
+        <v>0.02723559739540196</v>
       </c>
       <c r="E31" s="1">
-        <v>0.04884426652892571</v>
+        <v>-0.005656756601936097</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,16 +1227,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.03120850486511545</v>
+        <v>0.02854495611191058</v>
       </c>
       <c r="E32" s="1">
-        <v>0.00976042590949433</v>
+        <v>-0.00184464029514253</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,16 +1244,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02914421721573297</v>
+        <v>0.02938860904721239</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01373412801243856</v>
+        <v>0.01043823326432025</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,16 +1261,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03196741136585935</v>
+        <v>0.0313388007608088</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001889992730797152</v>
+        <v>-0.001593070144869757</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,13 +1278,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03008825120173105</v>
+        <v>0.03217816327434068</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>-0.01248484848484843</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1298,144 +1295,127 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03182604832795605</v>
+        <v>0.03209430503065604</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.0006693033160936057</v>
+        <v>-0.01344108889834117</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
       <c r="D37" s="1">
-        <v>0.03522379608556066</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001979152922549243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.004766451801303973</v>
+        <v>-0.002938158835704141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03067183519475883</v>
+        <v>0.0312167796058197</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01477657112337538</v>
+        <v>0.01964912280701747</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02979112861689868</v>
+        <v>0.03020047392391594</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01076197957580516</v>
+        <v>0.04049117898500043</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03155020154256264</v>
+        <v>0.03127936964011708</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01149709482012617</v>
+        <v>0.02001000500250139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06365640274267163</v>
+        <v>0.06417727844839305</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00522041230228143</v>
+        <v>0.02087682672233826</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03035746429052708</v>
+        <v>0.03034834287994351</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003237742830712098</v>
+        <v>0.002706883217324041</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01570294367787825</v>
+        <v>0.01559548060833601</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009761549925484392</v>
+        <v>0.01000827752276323</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03232910811297305</v>
+        <v>0.03279404847011375</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01140106409931607</v>
+        <v>0.02137608550434189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0313662984639705</v>
+        <v>0.03132240028869653</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004333579959834966</v>
+        <v>-0.00573248407643312</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0480127448928867</v>
+        <v>0.04751072587814307</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01336339080809912</v>
+        <v>0.003005290134002969</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02946232629398633</v>
+        <v>0.02920685712944499</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0115837271800574</v>
+        <v>-0.001171948246765475</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01572498084424189</v>
+        <v>0.01558100666290474</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01206701970657165</v>
+        <v>-0.01107205623901575</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01768921393817619</v>
+        <v>0.01762691840900044</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.006449479080535836</v>
+        <v>-0.01780958721704384</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01405951712083056</v>
+        <v>0.01408451806162576</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.00116516166618108</v>
+        <v>0.01360940993486914</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007265829267346127</v>
+        <v>0.007219173674631574</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.009340526612448552</v>
+        <v>-0.006908884012029604</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.00792557912405579</v>
+        <v>0.007834707543174899</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01437007874015739</v>
+        <v>-0.02156980227681238</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03227450274499235</v>
+        <v>0.03232442761902619</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.001395820996531461</v>
+        <v>0.01736625863018326</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02914483508301284</v>
+        <v>0.02897038415611519</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.008906226998380617</v>
+        <v>0.01864092090605274</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03202604832068017</v>
+        <v>0.03225460061201318</v>
       </c>
       <c r="E19" s="1">
-        <v>0.004177323103154329</v>
+        <v>0.01095169369216387</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03253699854964243</v>
+        <v>0.03229743566673544</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01027930951810119</v>
+        <v>0.006691900075700197</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04842033496102835</v>
+        <v>0.04873025357765614</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003443623255533046</v>
+        <v>0.01212169864333301</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.03000955008882148</v>
+        <v>0.02994776666044026</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.004990902001559716</v>
+        <v>-0.0230942055488792</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03031573018785612</v>
+        <v>0.03005690803274632</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01145062721132206</v>
+        <v>0.003156113750244049</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02904635040147622</v>
+        <v>0.02914778778457684</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0005438395069188307</v>
+        <v>-0.008334339896122755</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01481365625647829</v>
+        <v>0.01451932320613539</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02274881516587679</v>
+        <v>-0.02327837051406412</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01498332293556118</v>
+        <v>0.01486552433334279</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01077704021866466</v>
+        <v>-0.003947264545669849</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03197865866203978</v>
+        <v>0.03241713910732919</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01073321258469173</v>
+        <v>-0.0008628127696290733</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02994402364724465</v>
+        <v>0.02981632758841576</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.007190121398426452</v>
+        <v>0.02602991340855398</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02955359526618265</v>
+        <v>0.02976038774526247</v>
       </c>
       <c r="E29" s="1">
-        <v>0.004038484380567642</v>
+        <v>0.01439331203911842</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02860638715088887</v>
+        <v>0.02836580354357391</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.01132358455193094</v>
+        <v>-0.006523058252427161</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02723559739540196</v>
+        <v>0.02716133657106365</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.005656756601936097</v>
+        <v>0.003845433727478254</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02854495611191058</v>
+        <v>0.02857626253389886</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.00184464029514253</v>
+        <v>0.01026694045174548</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02938860904721239</v>
+        <v>0.02978288103883809</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01043823326432025</v>
+        <v>0.009476649876205778</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.0313388007608088</v>
+        <v>0.03138107844585033</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.001593070144869757</v>
+        <v>0.0009723261032161812</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03217816327434068</v>
+        <v>0.03187006308879863</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01248484848484843</v>
+        <v>-0.01558856020621091</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03209430503065604</v>
+        <v>0.03175622746392026</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.01344108889834117</v>
+        <v>-0.001207208760886425</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.002938158835704141</v>
+        <v>0.006348585416326324</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0312167796058197</v>
+        <v>0.03134377401633179</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01964912280701747</v>
+        <v>-0.0001732801940738105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03020047392391594</v>
+        <v>0.0314970130035889</v>
       </c>
       <c r="E3" s="1">
-        <v>0.04049117898500043</v>
+        <v>0.02898791708236348</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03127936964011708</v>
+        <v>0.03154395456677399</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02001000500250139</v>
+        <v>0.002951666461689761</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06417727844839305</v>
+        <v>0.06491959996477444</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02087682672233826</v>
+        <v>0.01106718895193359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03034834287994351</v>
+        <v>0.03019933094694324</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002706883217324041</v>
+        <v>-0.001695699090488612</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01559548060833601</v>
+        <v>0.01566761959333089</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01000827752276323</v>
+        <v>0.01998217203981567</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03279404847011375</v>
+        <v>0.03296364589302057</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02137608550434189</v>
+        <v>-0.006508217654570325</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03132240028869653</v>
+        <v>0.03146190381790088</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.00573248407643312</v>
+        <v>0.002096216329525058</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.04751072587814307</v>
+        <v>0.04740418974788501</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003005290134002969</v>
+        <v>0.02275098717188029</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02920685712944499</v>
+        <v>0.02873677149894498</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.001171948246765475</v>
+        <v>0.0108675108675107</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01558100666290474</v>
+        <v>0.01540711331499379</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01107205623901575</v>
+        <v>0.02758438353749892</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01762691840900044</v>
+        <v>0.01713464042956574</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01780958721704384</v>
+        <v>-0.01171676006113098</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01408451806162576</v>
+        <v>0.01440640453618438</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01360940993486914</v>
+        <v>0.009519321394910518</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007219173674631574</v>
+        <v>0.007166347321789848</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.006908884012029604</v>
+        <v>-0.01997563946406833</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007834707543174899</v>
+        <v>0.007661173469249202</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02156980227681238</v>
+        <v>-0.01478630747417453</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03232442761902619</v>
+        <v>0.03262962369548039</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01736625863018326</v>
+        <v>0.0247596854063501</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02897038415611519</v>
+        <v>0.02919338488629085</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01864092090605274</v>
+        <v>0.01615260926765094</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03225460061201318</v>
+        <v>0.032166609185882</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01095169369216387</v>
+        <v>-0.003799071338117299</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03229743566673544</v>
+        <v>0.03212781450556374</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006691900075700197</v>
+        <v>0.01663346012195865</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04873025357765614</v>
+        <v>0.0487635553462367</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01212169864333301</v>
+        <v>0.005214942341274398</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02994776666044026</v>
+        <v>0.02933265778863339</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.0230942055488792</v>
+        <v>-0.01356963364634312</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03005690803274632</v>
+        <v>0.03014055700626107</v>
       </c>
       <c r="E23" s="1">
-        <v>0.003156113750244049</v>
+        <v>-0.004665830035074148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02914778778457684</v>
+        <v>0.02884869415166315</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.008334339896122755</v>
+        <v>-0.003872919818456722</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01451932320613539</v>
+        <v>0.01398005099948675</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.02327837051406412</v>
+        <v>-0.0237540237540238</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01486552433334279</v>
+        <v>0.01480055848821786</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.003947264545669849</v>
+        <v>-0.0174569473932531</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03241713910732919</v>
+        <v>0.03227872581200175</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.0008628127696290733</v>
+        <v>-0.008262823902696947</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02981632758841576</v>
+        <v>0.03033744000887622</v>
       </c>
       <c r="E28" s="1">
-        <v>0.02602991340855398</v>
+        <v>-0.01324808184143222</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.02976038774526247</v>
+        <v>0.03001428032182515</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01439331203911842</v>
+        <v>0.007755244484082269</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02836580354357391</v>
+        <v>0.02815213566654886</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.006523058252427161</v>
+        <v>-0.004395937547369888</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02716133657106365</v>
+        <v>0.02766099501371974</v>
       </c>
       <c r="E31" s="1">
-        <v>0.003845433727478254</v>
+        <v>0.01085538772247241</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02857626253389886</v>
+        <v>0.02864793168101618</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01026694045174548</v>
+        <v>0.005958426433746222</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02978288103883809</v>
+        <v>0.02981856115961955</v>
       </c>
       <c r="E33" s="1">
-        <v>0.009476649876205778</v>
+        <v>0.02317124735729381</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03138107844585033</v>
+        <v>0.03087203070366179</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0009723261032161812</v>
+        <v>0.003191836939857806</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.03187006308879863</v>
+        <v>0.0310919965410663</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01558856020621091</v>
+        <v>-0.01696924324661553</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03175622746392026</v>
+        <v>0.03162891491667096</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.001207208760886425</v>
+        <v>0.0005580836266849687</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.006348585416326324</v>
+        <v>0.004224158766453101</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03134377401633179</v>
+        <v>0.03030033277216757</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0001732801940738105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0314970130035889</v>
+        <v>0.03348854223199348</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02898791708236348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03154395456677399</v>
+        <v>0.03533436739438682</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002951666461689761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06491959996477444</v>
+        <v>0.06874137165568085</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01106718895193359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03019933094694324</v>
+        <v>0.03021542855497136</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001695699090488612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01566761959333089</v>
+        <v>0.01584267809594625</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01998217203981567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03296364589302057</v>
+        <v>0.03189612062532891</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.006508217654570325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03146190381790088</v>
+        <v>0.03101023675559667</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002096216329525058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.04740418974788501</v>
+        <v>0.05064704868078669</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02275098717188029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02873677149894498</v>
+        <v>0.02770046839449865</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0108675108675107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01540711331499379</v>
+        <v>0.01575758686505578</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02758438353749892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01713464042956574</v>
+        <v>0.01619445085485829</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01171676006113098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01440640453618438</v>
+        <v>0.0149839112118824</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009519321394910518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007166347321789848</v>
+        <v>0.006607380832068808</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01997563946406833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007661173469249202</v>
+        <v>0.00716187643556387</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01478630747417453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03262962369548039</v>
+        <v>0.03276012389283217</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0247596854063501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02919338488629085</v>
+        <v>0.0281377064116897</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01615260926765094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.032166609185882</v>
+        <v>0.03068258876324477</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003799071338117299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03212781450556374</v>
+        <v>0.03298734553136388</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01663346012195865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0487635553462367</v>
+        <v>0.04853790823686855</v>
       </c>
       <c r="E21" s="1">
-        <v>0.005214942341274398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02933265778863339</v>
+        <v>0.02766755398430805</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01356963364634312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03014055700626107</v>
+        <v>0.02985299601548623</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.004665830035074148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02884869415166315</v>
+        <v>0.02743827519513944</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.003872919818456722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01398005099948675</v>
+        <v>0.01241322097051879</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.0237540237540238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01480055848821786</v>
+        <v>0.0131171405157314</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.0174569473932531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.03227872581200175</v>
+        <v>0.02854913653907221</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.008262823902696947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.03033744000887622</v>
+        <v>0.02832733829767418</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.01324808184143222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03001428032182515</v>
+        <v>0.03115573340973466</v>
       </c>
       <c r="E29" s="1">
-        <v>0.007755244484082269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.02815213566654886</v>
+        <v>0.03293703884760665</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.004395937547369888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.02766099501371974</v>
+        <v>0.03096722360591577</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01085538772247241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02864793168101618</v>
+        <v>0.02788935222570608</v>
       </c>
       <c r="E32" s="1">
-        <v>0.005958426433746222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02981856115961955</v>
+        <v>0.0291862921954323</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02317124735729381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03087203070366179</v>
+        <v>0.03068969528362684</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003191836939857806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.0310919965410663</v>
+        <v>0.02868977083715932</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01696924324661553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03162891491667096</v>
+        <v>0.03213175788010252</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0005580836266849687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E37" s="1">
-        <v>0.004224158766453101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -726,7 +726,7 @@
         <v>0.03030033277216757</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.008813617903741466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -743,7 +743,7 @@
         <v>0.03348854223199348</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.01486011057128511</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -760,7 +760,7 @@
         <v>0.03533436739438682</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.0416005080978088</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -777,7 +777,7 @@
         <v>0.06874137165568085</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.005669606664236326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -794,7 +794,7 @@
         <v>0.03021542855497136</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.008021390374331583</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -811,7 +811,7 @@
         <v>0.01584267809594625</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.008640838586302158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -828,7 +828,7 @@
         <v>0.03189612062532891</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001764826595526348</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -845,7 +845,7 @@
         <v>0.03101023675559667</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.01373795366003683</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0.05064704868078669</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>-0.01048667011299009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -879,7 +879,7 @@
         <v>0.02770046839449865</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>-0.01701323251417775</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -896,7 +896,7 @@
         <v>0.01575758686505578</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.01104926476696844</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -913,7 +913,7 @@
         <v>0.01619445085485829</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>-0.0161094751429065</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -930,7 +930,7 @@
         <v>0.0149839112118824</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.003232570330246487</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -947,7 +947,7 @@
         <v>0.006607380832068808</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.00458520845716226</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -964,7 +964,7 @@
         <v>0.00716187643556387</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.001880091915604787</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -981,7 +981,7 @@
         <v>0.03276012389283217</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>-0.007232767232767223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -998,7 +998,7 @@
         <v>0.0281377064116897</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>-0.0139640298289222</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1015,7 +1015,7 @@
         <v>0.03068258876324477</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.006485194982507103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1032,7 +1032,7 @@
         <v>0.03298734553136388</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>-0.006491297692612807</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1049,7 +1049,7 @@
         <v>0.04853790823686855</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.002361852802243991</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1066,7 +1066,7 @@
         <v>0.02766755398430805</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>-0.005921159357594741</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1083,7 +1083,7 @@
         <v>0.02985299601548623</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>0.0132180667794275</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1100,7 +1100,7 @@
         <v>0.02743827519513944</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.02404612930928729</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1117,7 +1117,7 @@
         <v>0.01241322097051879</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>-0.03025189827648556</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1134,7 +1134,7 @@
         <v>0.0131171405157314</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>-0.03413173652694623</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1151,7 +1151,7 @@
         <v>0.02854913653907221</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.007493875198155475</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1168,7 +1168,7 @@
         <v>0.02832733829767418</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.002640752086194187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1185,7 +1185,7 @@
         <v>0.03115573340973466</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.008175466397752684</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1202,7 +1202,7 @@
         <v>0.03293703884760665</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>0.0003122853038535212</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1219,7 +1219,7 @@
         <v>0.03096722360591577</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>-0.01578616807981259</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1236,7 +1236,7 @@
         <v>0.02788935222570608</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.004425668879501021</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1253,7 +1253,7 @@
         <v>0.0291862921954323</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>-0.014993752603082</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1270,7 +1270,7 @@
         <v>0.03068969528362684</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.003412470140886414</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1287,7 +1287,7 @@
         <v>0.02868977083715932</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.00117332638028822</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1304,7 +1304,7 @@
         <v>0.03213175788010252</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.008555713994703673</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>-0.001484514705073936</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03030033277216757</v>
+        <v>0.03061283352911563</v>
       </c>
       <c r="E2" s="1">
-        <v>0.008813617903741466</v>
+        <v>-0.003426124197002278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03348854223199348</v>
+        <v>0.03403671367439407</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01486011057128511</v>
+        <v>0.0002971424798192679</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03533436739438682</v>
+        <v>0.03391478675712608</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0416005080978088</v>
+        <v>-0.008835873647006998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06874137165568085</v>
+        <v>0.06923388691774747</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005669606664236326</v>
+        <v>0.009422222703147298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03021542855497136</v>
+        <v>0.03050308057440126</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008021390374331583</v>
+        <v>-0.003094606542882294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01584267809594625</v>
+        <v>0.01572913420276652</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008640838586302158</v>
+        <v>-0.01200257197970989</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03189612062532891</v>
+        <v>0.03188716647088437</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001764826595526348</v>
+        <v>0.004358194227448431</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03101023675559667</v>
+        <v>0.03148299091410352</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01373795366003683</v>
+        <v>-0.006270226537216761</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05064704868078669</v>
+        <v>0.05019043823268526</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01048667011299009</v>
+        <v>-0.00970221658332715</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02770046839449865</v>
+        <v>0.02726967612015439</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01701323251417775</v>
+        <v>-0.03918269230769222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01575758686505578</v>
+        <v>0.01560664541030374</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01104926476696844</v>
+        <v>-0.03746639784946248</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01619445085485829</v>
+        <v>0.01595725553184859</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0161094751429065</v>
+        <v>-0.005633802816901512</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0149839112118824</v>
+        <v>0.01505469667729485</v>
       </c>
       <c r="E14" s="1">
-        <v>0.003232570330246487</v>
+        <v>-0.006357223722023853</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.006607380832068808</v>
+        <v>0.006647545429482416</v>
       </c>
       <c r="E15" s="1">
-        <v>0.00458520845716226</v>
+        <v>-0.02577973121460564</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.00716187643556387</v>
+        <v>0.007186009157816508</v>
       </c>
       <c r="E16" s="1">
-        <v>0.001880091915604787</v>
+        <v>-0.02606338615512926</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03276012389283217</v>
+        <v>0.03257153045813056</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.007232767232767223</v>
+        <v>-0.01062630816293664</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0281377064116897</v>
+        <v>0.02778603942416034</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.0139640298289222</v>
+        <v>-0.01735004078001057</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03068258876324477</v>
+        <v>0.03092748363819433</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006485194982507103</v>
+        <v>-0.001949978804578256</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03298734553136388</v>
+        <v>0.03282193950327236</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.006491297692612807</v>
+        <v>-0.01380923849467885</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04853790823686855</v>
+        <v>0.04872488043295856</v>
       </c>
       <c r="E21" s="1">
-        <v>0.002361852802243991</v>
+        <v>-0.006922796025446432</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02766755398430805</v>
+        <v>0.02754462038213507</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.005921159357594741</v>
+        <v>-0.02374411836701396</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02985299601548623</v>
+        <v>0.03029256466808909</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0132180667794275</v>
+        <v>-0.01527142327191788</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02743827519513944</v>
+        <v>0.02813983350514228</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02404612930928729</v>
+        <v>-0.02773451539475269</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01241322097051879</v>
+        <v>0.01205559417927265</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03025189827648556</v>
+        <v>-0.01255282127765334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0131171405157314</v>
+        <v>0.01268826564859876</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.03413173652694623</v>
+        <v>-0.01107076432556908</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02854913653907221</v>
+        <v>0.02880584290269221</v>
       </c>
       <c r="E27" s="1">
-        <v>0.007493875198155475</v>
+        <v>0.006579888427978853</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02832733829767418</v>
+        <v>0.02844436986071489</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002640752086194187</v>
+        <v>-0.006689844079224683</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03115573340973466</v>
+        <v>0.03145714465514348</v>
       </c>
       <c r="E29" s="1">
-        <v>0.008175466397752684</v>
+        <v>-0.008966527346122244</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03293703884760665</v>
+        <v>0.03299630810538681</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0003122853038535212</v>
+        <v>0.002934565434565384</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03096722360591577</v>
+        <v>0.03052368266487666</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01578616807981259</v>
+        <v>-0.02302207714113902</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02788935222570608</v>
+        <v>0.0280544284755352</v>
       </c>
       <c r="E32" s="1">
-        <v>0.004425668879501021</v>
+        <v>0.0004673209159491432</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0291862921954323</v>
+        <v>0.02879142143935943</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.014993752603082</v>
+        <v>-0.003213530655391206</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03068969528362684</v>
+        <v>0.03084020569127131</v>
       </c>
       <c r="E34" s="1">
-        <v>0.003412470140886414</v>
+        <v>-0.004153913423699307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02868977083715932</v>
+        <v>0.02876613705559418</v>
       </c>
       <c r="E35" s="1">
-        <v>0.00117332638028822</v>
+        <v>-0.01725372745621456</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03213175788010252</v>
+        <v>0.03245484770934721</v>
       </c>
       <c r="E36" s="1">
-        <v>0.008555713994703673</v>
+        <v>0.004160775600888789</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1312,10 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.001484514705073936</v>
+        <v>-0.008093624889123241</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03061283352911563</v>
+        <v>0.03075688484814154</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003426124197002278</v>
+        <v>0.001976794155565065</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03403671367439407</v>
+        <v>0.03432463817373325</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0002971424798192679</v>
+        <v>-0.002392936710949867</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03391478675712608</v>
+        <v>0.03388940814380529</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008835873647006998</v>
+        <v>0.01292623133496762</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06923388691774747</v>
+        <v>0.07045647227650796</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009422222703147298</v>
+        <v>-0.003234702163525283</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03050308057440126</v>
+        <v>0.03065681026425355</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003094606542882294</v>
+        <v>-0.002069475240206842</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01572913420276652</v>
+        <v>0.01566714815758915</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01200257197970989</v>
+        <v>0.02270590787475602</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03188716647088437</v>
+        <v>0.03228745952171902</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004358194227448431</v>
+        <v>0.003766169968888011</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03148299091410352</v>
+        <v>0.03154086536192068</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006270226537216761</v>
+        <v>0.01496030938326887</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05019043823268526</v>
+        <v>0.050109043532444</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.00970221658332715</v>
+        <v>0.009834953651367773</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02726967612015439</v>
+        <v>0.02641496964718989</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.03918269230769222</v>
+        <v>0.03047285464098071</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01560664541030374</v>
+        <v>0.01514449448173639</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.03746639784946248</v>
+        <v>0.01754232850410209</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01595725553184859</v>
+        <v>0.01599682782451072</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005633802816901512</v>
+        <v>0.02089235127478761</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01505469667729485</v>
+        <v>0.01508105097195079</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.006357223722023853</v>
+        <v>0.009728308501314675</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.006647545429482416</v>
+        <v>0.006529016908828279</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02577973121460564</v>
+        <v>0.06194690265486735</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007186009157816508</v>
+        <v>0.007055824624012236</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.02606338615512926</v>
+        <v>0.04324555769642457</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03257153045813056</v>
+        <v>0.0324883639693734</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.01062630816293664</v>
+        <v>-0.003010577705451656</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02778603942416034</v>
+        <v>0.0275267416281946</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.01735004078001057</v>
+        <v>0.01788274352976704</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03092748363819433</v>
+        <v>0.03111904154983431</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.001949978804578256</v>
+        <v>0.00152905198776776</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03282193950327236</v>
+        <v>0.03263281124611739</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.01380923849467885</v>
+        <v>0.01380008679299882</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04872488043295856</v>
+        <v>0.0487823944260345</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.006922796025446432</v>
+        <v>0.003077173180984216</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02754462038213507</v>
+        <v>0.02711001595528743</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.02374411836701396</v>
+        <v>0.03571627570067415</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03029256466808909</v>
+        <v>0.03007335655818959</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01527142327191788</v>
+        <v>0.01114459722483807</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02813983350514228</v>
+        <v>0.02758263233919619</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.02773451539475269</v>
+        <v>0.02137884295483961</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01205559417927265</v>
+        <v>0.01200139726777504</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.01255282127765334</v>
+        <v>0.03624921334172426</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01268826564859876</v>
+        <v>0.01265018268332059</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.01107076432556908</v>
+        <v>0.01979222640157619</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02880584290269221</v>
+        <v>0.02923197477365206</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006579888427978853</v>
+        <v>0.00554213443228635</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02844436986071489</v>
+        <v>0.02848462533397532</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.006689844079224683</v>
+        <v>0.00281062735323756</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03145714465514348</v>
+        <v>0.03142946157985668</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.008966527346122244</v>
+        <v>0.001874414245548239</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03299630810538681</v>
+        <v>0.03336316688853013</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002934565434565384</v>
+        <v>0.002303430243416615</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03052368266487666</v>
+        <v>0.0300642931996488</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.02302207714113902</v>
+        <v>0.007411036163344153</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0280544284755352</v>
+        <v>0.02829656064425374</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0004673209159491432</v>
+        <v>-0.002535699986654372</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02879142143935943</v>
+        <v>0.02893307276177529</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.003213530655391206</v>
+        <v>0.02282175277848486</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03084020569127131</v>
+        <v>0.03096269861500552</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.004153913423699307</v>
+        <v>0.005268935236004468</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02876613705559418</v>
+        <v>0.02850048621142172</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01725372745621456</v>
+        <v>0.03199946998807479</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03245484770934721</v>
+        <v>0.03285580763021498</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004160775600888789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.008093624889123241</v>
+        <v>0.00971384333607106</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03075688484814154</v>
+        <v>0.03068841813263206</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001976794155565065</v>
+        <v>0.002380345150046814</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03432463817373325</v>
+        <v>0.03355410165629352</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002392936710949867</v>
+        <v>0.008013995334888335</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03388940814380529</v>
+        <v>0.0338448069688772</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01292623133496762</v>
+        <v>-0.006056601695848429</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07045647227650796</v>
+        <v>0.06929501539154186</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003234702163525283</v>
+        <v>-0.01107689825335145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03065681026425355</v>
+        <v>0.03012154277309388</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002069475240206842</v>
+        <v>-0.002672605790645877</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01566714815758915</v>
+        <v>0.01592953303222971</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02270590787475602</v>
+        <v>-0.009054537797430928</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03228745952171902</v>
+        <v>0.03187676927259754</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003766169968888011</v>
+        <v>0.001882391455579668</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03154086536192068</v>
+        <v>0.03229083799346994</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01496030938326887</v>
+        <v>-0.02060237417835786</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.050109043532444</v>
+        <v>0.05006374086677515</v>
       </c>
       <c r="E10" s="1">
-        <v>0.009834953651367773</v>
+        <v>0.00627198451545663</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02641496964718989</v>
+        <v>0.02680377521845292</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03047285464098071</v>
+        <v>0.01961261436636175</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01514449448173639</v>
+        <v>0.01503635959427228</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01754232850410209</v>
+        <v>-0.02992973019866396</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01599682782451072</v>
+        <v>0.01586580148293252</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02089235127478761</v>
+        <v>0.001761804087385466</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01508105097195079</v>
+        <v>0.01484982368536442</v>
       </c>
       <c r="E14" s="1">
-        <v>0.009728308501314675</v>
+        <v>-0.008432888264230498</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.006529016908828279</v>
+        <v>0.007076997215378533</v>
       </c>
       <c r="E15" s="1">
-        <v>0.06194690265486735</v>
+        <v>-0.01050635911209408</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007055824624012236</v>
+        <v>0.007379442550201173</v>
       </c>
       <c r="E16" s="1">
-        <v>0.04324555769642457</v>
+        <v>-0.01737373737373737</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.0324883639693734</v>
+        <v>0.03168632002294335</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.003010577705451656</v>
+        <v>0.004569593676670536</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0275267416281946</v>
+        <v>0.02804188169076446</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01788274352976704</v>
+        <v>-0.003728070175438858</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03111904154983431</v>
+        <v>0.03014576821580919</v>
       </c>
       <c r="E19" s="1">
-        <v>0.00152905198776776</v>
+        <v>-0.003548247511899638</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03263281124611739</v>
+        <v>0.03290560518976069</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01380008679299882</v>
+        <v>-0.003029788197984162</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0487823944260345</v>
+        <v>0.04866108773355889</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003077173180984216</v>
+        <v>0.003297233540638933</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02711001595528743</v>
+        <v>0.0283624029328439</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03571627570067415</v>
+        <v>-0.01187910643889611</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.03007335655818959</v>
+        <v>0.02997805361239552</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01114459722483807</v>
+        <v>-0.01457698762976323</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02758263233919619</v>
+        <v>0.02774838113479055</v>
       </c>
       <c r="E24" s="1">
-        <v>0.02137884295483961</v>
+        <v>0.008824418253248867</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.01200139726777504</v>
+        <v>0.0121559544554223</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03624921334172426</v>
+        <v>-0.03715967623252392</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01265018268332059</v>
+        <v>0.01274742795679448</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01979222640157619</v>
+        <v>-0.02157705464432957</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02923197477365206</v>
+        <v>0.02888641789373192</v>
       </c>
       <c r="E27" s="1">
-        <v>0.00554213443228635</v>
+        <v>-0.004541583877377242</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02848462533397532</v>
+        <v>0.02831916983507505</v>
       </c>
       <c r="E28" s="1">
-        <v>0.00281062735323756</v>
+        <v>-0.003369130343230275</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03142946157985668</v>
+        <v>0.03100707587911802</v>
       </c>
       <c r="E29" s="1">
-        <v>0.001874414245548239</v>
+        <v>0.01319774989182165</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03336316688853013</v>
+        <v>0.03317059426315427</v>
       </c>
       <c r="E30" s="1">
-        <v>0.002303430243416615</v>
+        <v>-0.001421332344580417</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0300642931996488</v>
+        <v>0.03057996268909122</v>
       </c>
       <c r="E31" s="1">
-        <v>0.007411036163344153</v>
+        <v>-0.01279707495429616</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.02829656064425374</v>
+        <v>0.0278611226181964</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.002535699986654372</v>
+        <v>0.02307537957327277</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02893307276177529</v>
+        <v>0.02970766040178083</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02282175277848486</v>
+        <v>0.01035635651961186</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03096269861500552</v>
+        <v>0.03101154826854239</v>
       </c>
       <c r="E34" s="1">
-        <v>0.005268935236004468</v>
+        <v>0.006009037592539235</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02850048621142172</v>
+        <v>0.02944323037706529</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03199946998807479</v>
+        <v>-0.01487341772151896</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.03285580763021498</v>
+        <v>0.0329033689950485</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>-0.001942594354582994</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.00971384333607106</v>
+        <v>-0.002253338871642363</v>
       </c>
     </row>
     <row r="40" spans="1:5">

--- a/RECO_holdings.xlsx
+++ b/RECO_holdings.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -723,10 +723,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03068841813263206</v>
+        <v>0.03083093971480531</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002380345150046814</v>
+        <v>-0.004664574675600108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,10 +740,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03355410165629352</v>
+        <v>0.03389939088564103</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008013995334888335</v>
+        <v>0.006313945224045936</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,10 +757,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0338448069688772</v>
+        <v>0.03371579556633179</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006056601695848429</v>
+        <v>-0.01340571681808111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,10 +774,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06929501539154186</v>
+        <v>0.06868220584079653</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01107689825335145</v>
+        <v>0.001174755803076133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,10 +791,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03012154277309388</v>
+        <v>0.03010888528504994</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002672605790645877</v>
+        <v>0.006699419383653593</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,10 +808,10 @@
         <v>77</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01592953303222971</v>
+        <v>0.01582094843138064</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.009054537797430928</v>
+        <v>0.01820371157387735</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,10 +825,10 @@
         <v>76</v>
       </c>
       <c r="D8" s="1">
-        <v>0.03187676927259754</v>
+        <v>0.03200890073096338</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001882391455579668</v>
+        <v>-0.0005309806804723038</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,10 +842,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03229083799346994</v>
+        <v>0.03169699413559569</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02060237417835786</v>
+        <v>-0.0118200941600719</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,10 +859,10 @@
         <v>81</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05006374086677515</v>
+        <v>0.05049151436628704</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00627198451545663</v>
+        <v>0.01344603092402163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,10 +876,10 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>0.02680377521845292</v>
+        <v>0.02739118895619057</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01961261436636175</v>
+        <v>0.009498353300558593</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,10 +893,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>0.01503635959427228</v>
+        <v>0.01461926757234132</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02992973019866396</v>
+        <v>-0.04042210695761039</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>0.01586580148293252</v>
+        <v>0.01592964881371836</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001761804087385466</v>
+        <v>0.001758705592683762</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,10 +927,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01484982368536442</v>
+        <v>0.01475785122130109</v>
       </c>
       <c r="E14" s="1">
-        <v>-0.008432888264230498</v>
+        <v>-0.01683203401842659</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007076997215378533</v>
+        <v>0.007018458707022027</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.01050635911209408</v>
+        <v>-0.01860130927670445</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,10 +961,10 @@
         <v>80</v>
       </c>
       <c r="D16" s="1">
-        <v>0.007379442550201173</v>
+        <v>0.007267610442483397</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.01737373737373737</v>
+        <v>-0.0234375</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,10 +978,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="1">
-        <v>0.03168632002294335</v>
+        <v>0.03190300190487148</v>
       </c>
       <c r="E17" s="1">
-        <v>0.004569593676670536</v>
+        <v>-0.006515859355790576</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02804188169076446</v>
+        <v>0.02800043405444768</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.003728070175438858</v>
+        <v>-0.004695869102648631</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,10 +1012,10 @@
         <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03014576821580919</v>
+        <v>0.03010664404005329</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.003548247511899638</v>
+        <v>0.007556018759770744</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,10 +1029,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="1">
-        <v>0.03290560518976069</v>
+        <v>0.03287999795299623</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.003029788197984162</v>
+        <v>-0.01266721576869534</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,10 +1046,10 @@
         <v>81</v>
       </c>
       <c r="D21" s="1">
-        <v>0.04866108773355889</v>
+        <v>0.04893179461903224</v>
       </c>
       <c r="E21" s="1">
-        <v>0.003297233540638933</v>
+        <v>0.008305692223719463</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,10 +1063,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0283624029328439</v>
+        <v>0.02808877646139913</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.01187910643889611</v>
+        <v>-0.004202351188893116</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,10 +1080,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02997805361239552</v>
+        <v>0.02960778025788139</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.01457698762976323</v>
+        <v>0.006844346317615546</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>82</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02774838113479055</v>
+        <v>0.02805646517936404</v>
       </c>
       <c r="E24" s="1">
-        <v>0.008824418253248867</v>
+        <v>0.0162962075369959</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>78</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0121559544554223</v>
+        <v>0.01173067631248708</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.03715967623252392</v>
+        <v>-0.02942300343905235</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>0.01274742795679448</v>
+        <v>0.01250054396883773</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.02157705464432957</v>
+        <v>-0.007530255490811211</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02888641789373192</v>
+        <v>0.02882016941197389</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.004541583877377242</v>
+        <v>-0.003279155973766712</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>76</v>
       </c>
       <c r="D28" s="1">
-        <v>0.02831916983507505</v>
+        <v>0.02828750018443579</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.003369130343230275</v>
+        <v>-0.001162053665751062</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,10 +1182,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="1">
-        <v>0.03100707587911802</v>
+        <v>0.03148725095799216</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01319774989182165</v>
+        <v>0.00544522741832143</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,10 +1199,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="1">
-        <v>0.03317059426315427</v>
+        <v>0.0331982547425211</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.001421332344580417</v>
+        <v>-0.0003094250881862104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,10 +1216,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03057996268909122</v>
+        <v>0.03025680745482911</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.01279707495429616</v>
+        <v>-0.02017283950617288</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,10 +1233,10 @@
         <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0278611226181964</v>
+        <v>0.02856840289068309</v>
       </c>
       <c r="E32" s="1">
-        <v>0.02307537957327277</v>
+        <v>0.01032949790794957</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,10 +1250,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="1">
-        <v>0.02970766040178083</v>
+        <v>0.03008311096758843</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01035635651961186</v>
+        <v>0.00395480225988698</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,10 +1267,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="1">
-        <v>0.03101154826854239</v>
+        <v>0.03126835602998562</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006009037592539235</v>
+        <v>-0.009079180006689946</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="D35" s="1">
-        <v>0.02944323037706529</v>
+        <v>0.02907081531076636</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.01487341772151896</v>
+        <v>-0.003405075489881115</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,10 +1301,10 @@
         <v>78</v>
       </c>
       <c r="D36" s="1">
-        <v>0.0329033689950485</v>
+        <v>0.03291361662794605</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.001942594354582994</v>
+        <v>0.007467725918570034</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.002253338871642363</v>
+        <v>-0.0006951594897955937</v>
       </c>
     </row>
     <row r="40" spans="1:5">
